--- a/royalty_data.xlsx
+++ b/royalty_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleach\Documents\data_projects\royalties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18699909-C553-4EE1-B4A3-726C6F592BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEDF2BF-B91E-4062-A475-8DDE936222BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report Parameters" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="2018 Royalty Data_orig" sheetId="5" r:id="rId5"/>
     <sheet name="2019 Royalty Data" sheetId="8" r:id="rId6"/>
     <sheet name="2020 Royalty Data" sheetId="7" r:id="rId7"/>
+    <sheet name="2021 Royalty Data" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2016 Royalty Data'!$A$1:$V$1</definedName>
@@ -29,12 +30,22 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2019 Royalty Data'!$A$1:$V$119</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2020 Royalty Data'!$A$1:$V$117</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="autoNoTable"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4410" uniqueCount="327">
   <si>
     <t>Cold Lake</t>
   </si>
@@ -1037,12 +1048,30 @@
   <si>
     <t>Pike 1 Project</t>
   </si>
+  <si>
+    <t>GREENFIRE RESOURCES OPERATING CORPORATION</t>
+  </si>
+  <si>
+    <t>Project is subject to the Bitumen Valuation Methodology (BVM) in one or more production months.</t>
+  </si>
+  <si>
+    <t>SUNCOR ENERGY (SYNCRUDE) OPERATING INC.</t>
+  </si>
+  <si>
+    <t>Project is subject to the Bitumen Valuation Methodology (BVM) in one or more production months.  Project achieved payout in reporting year, therefore has both pre and post payout periods reported.</t>
+  </si>
+  <si>
+    <t>Alberta Reita Lake II</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,6 +1088,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1081,10 +1125,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1103,8 +1148,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1441,7 +1492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
@@ -1499,7 +1550,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:V120"/>
@@ -9103,7 +9154,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:V120"/>
@@ -16728,7 +16779,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04ACA0E3-C5D5-4DD4-B3E7-4906375094A1}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:V120"/>
@@ -25587,7 +25638,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACA7934-7D60-4C2D-B956-388E0C43F549}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:V121"/>
@@ -34509,12 +34560,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7878A3-CAE1-4D0D-A41D-E00C55DCEC8E}">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:V119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
@@ -41987,7 +42038,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7617C050-AA17-429D-99E6-9D7D9A7DC55F}">
-  <sheetPr>
+  <sheetPr codeName="Sheet7">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:V117"/>
@@ -49326,4 +49377,7363 @@
     <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;11&amp;K000000Classification: Protected A</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D200ADC-0910-4F5E-B83C-74F09C1A0270}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:V117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N86" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="V98" sqref="V98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.69140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.84375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.3046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.84375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.15234375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.3046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.84375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.3046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.69140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.53515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.53515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.15234375" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.15234375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="38" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="116.3046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2">
+        <v>2021</v>
+      </c>
+      <c r="F2" s="10">
+        <v>33622501.140000001</v>
+      </c>
+      <c r="G2" s="10">
+        <v>12608277.699999999</v>
+      </c>
+      <c r="H2" s="10">
+        <v>21014223.440000001</v>
+      </c>
+      <c r="I2" s="10">
+        <v>423410.3</v>
+      </c>
+      <c r="J2" s="7">
+        <v>49.63</v>
+      </c>
+      <c r="K2" s="10">
+        <v>48688184.310000002</v>
+      </c>
+      <c r="L2" s="10">
+        <v>21164307.190000001</v>
+      </c>
+      <c r="M2" s="10">
+        <v>771678664.48000002</v>
+      </c>
+      <c r="N2" s="10">
+        <v>1050711.18</v>
+      </c>
+      <c r="O2" s="10">
+        <v>34627088.159999996</v>
+      </c>
+      <c r="P2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="7">
+        <v>5</v>
+      </c>
+      <c r="S2" s="10">
+        <v>1050711.18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>234</v>
+      </c>
+      <c r="U2" s="10">
+        <v>8500041519.8199997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
+      <c r="F3" s="10">
+        <v>111166537.84999999</v>
+      </c>
+      <c r="G3" s="10">
+        <v>31614761.52</v>
+      </c>
+      <c r="H3" s="10">
+        <v>79551776.329999998</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1307696.75</v>
+      </c>
+      <c r="J3" s="7">
+        <v>60.83</v>
+      </c>
+      <c r="K3" s="10">
+        <v>122006074.67</v>
+      </c>
+      <c r="L3" s="10">
+        <v>34908197.579999998</v>
+      </c>
+      <c r="M3" s="10">
+        <v>951577941.54999995</v>
+      </c>
+      <c r="N3" s="10">
+        <v>795517.78</v>
+      </c>
+      <c r="O3" s="10">
+        <v>111616029.54000001</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="7">
+        <v>1</v>
+      </c>
+      <c r="S3" s="10">
+        <v>795517.78</v>
+      </c>
+      <c r="T3" t="s">
+        <v>234</v>
+      </c>
+      <c r="U3" s="10">
+        <v>10452822643.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4">
+        <v>2021</v>
+      </c>
+      <c r="F4" s="10">
+        <v>66691832</v>
+      </c>
+      <c r="G4" s="10">
+        <v>10435731</v>
+      </c>
+      <c r="H4" s="10">
+        <v>56256101</v>
+      </c>
+      <c r="I4" s="10">
+        <v>910303.39</v>
+      </c>
+      <c r="J4" s="7">
+        <v>61.8</v>
+      </c>
+      <c r="K4" s="10">
+        <v>23094531</v>
+      </c>
+      <c r="L4" s="10">
+        <v>10231118</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
+        <v>493631</v>
+      </c>
+      <c r="P4" s="10">
+        <v>23424083</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>161</v>
+      </c>
+      <c r="R4" s="7">
+        <v>29.739049999999999</v>
+      </c>
+      <c r="S4" s="10">
+        <v>6966099</v>
+      </c>
+      <c r="T4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5">
+        <v>2021</v>
+      </c>
+      <c r="F5" s="10">
+        <v>20033456.43</v>
+      </c>
+      <c r="G5" s="10">
+        <v>3758718.93</v>
+      </c>
+      <c r="H5" s="10">
+        <v>16274737.5</v>
+      </c>
+      <c r="I5" s="10">
+        <v>261309.55</v>
+      </c>
+      <c r="J5" s="7">
+        <v>62.28</v>
+      </c>
+      <c r="K5" s="10">
+        <v>8621469.8599999994</v>
+      </c>
+      <c r="L5" s="10">
+        <v>4334143.37</v>
+      </c>
+      <c r="M5" s="10">
+        <v>73411994.650000006</v>
+      </c>
+      <c r="N5" s="10">
+        <v>813736.88</v>
+      </c>
+      <c r="O5" s="10">
+        <v>184644.69</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="7">
+        <v>5</v>
+      </c>
+      <c r="S5" s="10">
+        <v>813736.88</v>
+      </c>
+      <c r="T5" t="s">
+        <v>234</v>
+      </c>
+      <c r="U5" s="10">
+        <v>805769001.16999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6">
+        <v>2021</v>
+      </c>
+      <c r="F6" s="10">
+        <v>4384320.3600000003</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>4384320.3600000003</v>
+      </c>
+      <c r="I6" s="10">
+        <v>78512.67</v>
+      </c>
+      <c r="J6" s="7">
+        <v>55.84</v>
+      </c>
+      <c r="K6" s="10">
+        <v>2145084.44</v>
+      </c>
+      <c r="L6" s="10">
+        <v>23680.25</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1295151.8400000001</v>
+      </c>
+      <c r="N6" s="10">
+        <v>201313.99</v>
+      </c>
+      <c r="O6" s="10">
+        <v>104823.95</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="7">
+        <v>4.5916800000000002</v>
+      </c>
+      <c r="S6" s="10">
+        <v>201313.99</v>
+      </c>
+      <c r="T6" t="s">
+        <v>234</v>
+      </c>
+      <c r="U6" s="10">
+        <v>71471165.390000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7">
+        <v>2021</v>
+      </c>
+      <c r="F7" s="10">
+        <v>130451645</v>
+      </c>
+      <c r="G7" s="10">
+        <v>24355774</v>
+      </c>
+      <c r="H7" s="10">
+        <v>106095871</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1715567.49</v>
+      </c>
+      <c r="J7" s="7">
+        <v>61.84</v>
+      </c>
+      <c r="K7" s="10">
+        <v>32169327</v>
+      </c>
+      <c r="L7" s="10">
+        <v>11587974</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>343155</v>
+      </c>
+      <c r="P7" s="10">
+        <v>62681725</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>161</v>
+      </c>
+      <c r="R7" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S7" s="10">
+        <v>19655541</v>
+      </c>
+      <c r="T7" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8">
+        <v>2021</v>
+      </c>
+      <c r="F8" s="10">
+        <v>988467</v>
+      </c>
+      <c r="G8" s="10">
+        <v>186138</v>
+      </c>
+      <c r="H8" s="10">
+        <v>802329</v>
+      </c>
+      <c r="I8" s="10">
+        <v>12917.54</v>
+      </c>
+      <c r="J8" s="7">
+        <v>62.11</v>
+      </c>
+      <c r="K8" s="10">
+        <v>314835</v>
+      </c>
+      <c r="L8" s="10">
+        <v>83849</v>
+      </c>
+      <c r="M8" s="10">
+        <v>36075</v>
+      </c>
+      <c r="N8" s="10">
+        <v>3035352</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="7">
+        <v>4.39072</v>
+      </c>
+      <c r="S8" s="10">
+        <v>35228</v>
+      </c>
+      <c r="T8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U8" s="10">
+        <v>2667782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9">
+        <v>2021</v>
+      </c>
+      <c r="F9" s="10">
+        <v>183078265</v>
+      </c>
+      <c r="G9" s="10">
+        <v>26368630</v>
+      </c>
+      <c r="H9" s="10">
+        <v>156709635</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2511347.14</v>
+      </c>
+      <c r="J9" s="7">
+        <v>62.4</v>
+      </c>
+      <c r="K9" s="10">
+        <v>25430641</v>
+      </c>
+      <c r="L9" s="10">
+        <v>14046338</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>1237063</v>
+      </c>
+      <c r="P9" s="10">
+        <v>118469719</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R9" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S9" s="10">
+        <v>37149367</v>
+      </c>
+      <c r="T9" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10">
+        <v>2021</v>
+      </c>
+      <c r="F10" s="10">
+        <v>671230</v>
+      </c>
+      <c r="G10" s="10">
+        <v>127608</v>
+      </c>
+      <c r="H10" s="10">
+        <v>543622</v>
+      </c>
+      <c r="I10" s="10">
+        <v>8665.81</v>
+      </c>
+      <c r="J10" s="7">
+        <v>62.73</v>
+      </c>
+      <c r="K10" s="10">
+        <v>586569</v>
+      </c>
+      <c r="L10" s="10">
+        <v>108964</v>
+      </c>
+      <c r="M10" s="10">
+        <v>24759</v>
+      </c>
+      <c r="N10" s="10">
+        <v>2082820</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="7">
+        <v>4.3907299999999996</v>
+      </c>
+      <c r="S10" s="10">
+        <v>23869</v>
+      </c>
+      <c r="T10" t="s">
+        <v>48</v>
+      </c>
+      <c r="U10" s="10">
+        <v>2259490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11">
+        <v>2021</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <v>11137607</v>
+      </c>
+      <c r="L11" s="10">
+        <v>1575327</v>
+      </c>
+      <c r="M11" s="10">
+        <v>656727</v>
+      </c>
+      <c r="N11" s="10">
+        <v>55187453</v>
+      </c>
+      <c r="O11" s="10">
+        <v>13768247</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="10">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>48</v>
+      </c>
+      <c r="U11" s="10">
+        <v>54788867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12">
+        <v>2021</v>
+      </c>
+      <c r="F12" s="10">
+        <v>12059923</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2606301</v>
+      </c>
+      <c r="H12" s="10">
+        <v>9453622</v>
+      </c>
+      <c r="I12" s="10">
+        <v>152766.06</v>
+      </c>
+      <c r="J12" s="7">
+        <v>61.88</v>
+      </c>
+      <c r="K12" s="10">
+        <v>4441283</v>
+      </c>
+      <c r="L12" s="10">
+        <v>1384047</v>
+      </c>
+      <c r="M12" s="10">
+        <v>1589</v>
+      </c>
+      <c r="N12" s="10">
+        <v>337276</v>
+      </c>
+      <c r="O12" s="10">
+        <v>56761</v>
+      </c>
+      <c r="P12" s="10">
+        <v>3346188</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>161</v>
+      </c>
+      <c r="R12" s="7">
+        <v>31.357679999999998</v>
+      </c>
+      <c r="S12" s="10">
+        <v>1049287</v>
+      </c>
+      <c r="T12" t="s">
+        <v>48</v>
+      </c>
+      <c r="U12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13">
+        <v>2021</v>
+      </c>
+      <c r="F13" s="10">
+        <v>14336010</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2703830</v>
+      </c>
+      <c r="H13" s="10">
+        <v>11632180</v>
+      </c>
+      <c r="I13" s="10">
+        <v>188574.51</v>
+      </c>
+      <c r="J13" s="7">
+        <v>61.68</v>
+      </c>
+      <c r="K13" s="10">
+        <v>3597369</v>
+      </c>
+      <c r="L13" s="10">
+        <v>655525</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <v>26350</v>
+      </c>
+      <c r="P13" s="10">
+        <v>7405636</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>161</v>
+      </c>
+      <c r="R13" s="7">
+        <v>31.357679999999998</v>
+      </c>
+      <c r="S13" s="10">
+        <v>2322236</v>
+      </c>
+      <c r="T13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14">
+        <v>2021</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>254860</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>161</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>48</v>
+      </c>
+      <c r="U14" s="10">
+        <v>254860</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15">
+        <v>2021</v>
+      </c>
+      <c r="F15" s="10">
+        <v>8345792</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1569109</v>
+      </c>
+      <c r="H15" s="10">
+        <v>6776683</v>
+      </c>
+      <c r="I15" s="10">
+        <v>110238.65</v>
+      </c>
+      <c r="J15" s="7">
+        <v>61.47</v>
+      </c>
+      <c r="K15" s="10">
+        <v>3693741</v>
+      </c>
+      <c r="L15" s="10">
+        <v>3075716</v>
+      </c>
+      <c r="M15" s="10">
+        <v>6662</v>
+      </c>
+      <c r="N15" s="10">
+        <v>1158100</v>
+      </c>
+      <c r="O15" s="10">
+        <v>95481</v>
+      </c>
+      <c r="P15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" s="7">
+        <v>4.3907800000000003</v>
+      </c>
+      <c r="S15" s="10">
+        <v>297549</v>
+      </c>
+      <c r="T15" t="s">
+        <v>48</v>
+      </c>
+      <c r="U15" s="10">
+        <v>1062055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16">
+        <v>2021</v>
+      </c>
+      <c r="F16" s="10">
+        <v>16506045</v>
+      </c>
+      <c r="G16" s="10">
+        <v>3070410</v>
+      </c>
+      <c r="H16" s="10">
+        <v>13435635</v>
+      </c>
+      <c r="I16" s="10">
+        <v>215959.4</v>
+      </c>
+      <c r="J16" s="7">
+        <v>62.21</v>
+      </c>
+      <c r="K16" s="10">
+        <v>5858959</v>
+      </c>
+      <c r="L16" s="10">
+        <v>3166157</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
+        <v>53502</v>
+      </c>
+      <c r="P16" s="10">
+        <v>4464021</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>161</v>
+      </c>
+      <c r="R16" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S16" s="10">
+        <v>1399814</v>
+      </c>
+      <c r="T16" t="s">
+        <v>48</v>
+      </c>
+      <c r="U16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17">
+        <v>2021</v>
+      </c>
+      <c r="F17" s="10">
+        <v>35665104</v>
+      </c>
+      <c r="G17" s="10">
+        <v>6805633</v>
+      </c>
+      <c r="H17" s="10">
+        <v>28859471</v>
+      </c>
+      <c r="I17" s="10">
+        <v>464056.3</v>
+      </c>
+      <c r="J17" s="7">
+        <v>62.19</v>
+      </c>
+      <c r="K17" s="10">
+        <v>10726679</v>
+      </c>
+      <c r="L17" s="10">
+        <v>2580421</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <v>215871</v>
+      </c>
+      <c r="P17" s="10">
+        <v>15768242</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>161</v>
+      </c>
+      <c r="R17" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S17" s="10">
+        <v>4944556</v>
+      </c>
+      <c r="T17" t="s">
+        <v>48</v>
+      </c>
+      <c r="U17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" t="s">
+        <v>302</v>
+      </c>
+      <c r="E18">
+        <v>2021</v>
+      </c>
+      <c r="F18" s="10">
+        <v>5845133951</v>
+      </c>
+      <c r="G18" s="10">
+        <v>2278174066</v>
+      </c>
+      <c r="H18" s="10">
+        <v>3566959885</v>
+      </c>
+      <c r="I18" s="10">
+        <v>65121230.039999999</v>
+      </c>
+      <c r="J18" s="7">
+        <v>54.77</v>
+      </c>
+      <c r="K18" s="10">
+        <v>756671524</v>
+      </c>
+      <c r="L18" s="10">
+        <v>226884098</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
+        <v>10430260</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <v>2572974003</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>161</v>
+      </c>
+      <c r="R18" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S18" s="10">
+        <v>806825212</v>
+      </c>
+      <c r="T18" t="s">
+        <v>48</v>
+      </c>
+      <c r="U18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19">
+        <v>2021</v>
+      </c>
+      <c r="F19" s="10">
+        <v>3149005.1</v>
+      </c>
+      <c r="G19" s="10">
+        <v>509767.78</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2639237.3199999998</v>
+      </c>
+      <c r="I19" s="10">
+        <v>43017.58</v>
+      </c>
+      <c r="J19" s="7">
+        <v>61.35</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1232228.6599999999</v>
+      </c>
+      <c r="L19" s="10">
+        <v>431693.47</v>
+      </c>
+      <c r="M19" s="10">
+        <v>53534.19</v>
+      </c>
+      <c r="N19" s="10">
+        <v>118667.71</v>
+      </c>
+      <c r="O19" s="10">
+        <v>19289.86</v>
+      </c>
+      <c r="P19" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>76</v>
+      </c>
+      <c r="R19" s="7">
+        <v>4.4962900000000001</v>
+      </c>
+      <c r="S19" s="10">
+        <v>118667.71</v>
+      </c>
+      <c r="T19" t="s">
+        <v>234</v>
+      </c>
+      <c r="U19" s="10">
+        <v>2537319.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20">
+        <v>2021</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1892554</v>
+      </c>
+      <c r="G20" s="10">
+        <v>341890</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1550664</v>
+      </c>
+      <c r="I20" s="10">
+        <v>23449.03</v>
+      </c>
+      <c r="J20" s="7">
+        <v>66.13</v>
+      </c>
+      <c r="K20" s="10">
+        <v>1204580</v>
+      </c>
+      <c r="L20" s="10">
+        <v>328840</v>
+      </c>
+      <c r="M20" s="10">
+        <v>34784</v>
+      </c>
+      <c r="N20" s="10">
+        <v>2932411</v>
+      </c>
+      <c r="O20" s="10">
+        <v>8800</v>
+      </c>
+      <c r="P20" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>76</v>
+      </c>
+      <c r="R20" s="7">
+        <v>4.3907600000000002</v>
+      </c>
+      <c r="S20" s="10">
+        <v>68086</v>
+      </c>
+      <c r="T20" t="s">
+        <v>48</v>
+      </c>
+      <c r="U20" s="10">
+        <v>2941151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E21">
+        <v>2021</v>
+      </c>
+      <c r="F21" s="10">
+        <v>49320505</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>49320505</v>
+      </c>
+      <c r="I21" s="10">
+        <v>963703.33</v>
+      </c>
+      <c r="J21" s="7">
+        <v>51.18</v>
+      </c>
+      <c r="K21" s="10">
+        <v>46052200</v>
+      </c>
+      <c r="L21" s="10">
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <v>881409</v>
+      </c>
+      <c r="N21" s="10">
+        <v>74077701</v>
+      </c>
+      <c r="O21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>76</v>
+      </c>
+      <c r="R21" s="7">
+        <v>4.3907699999999998</v>
+      </c>
+      <c r="S21" s="10">
+        <v>2165550</v>
+      </c>
+      <c r="T21" t="s">
+        <v>48</v>
+      </c>
+      <c r="U21" s="10">
+        <v>71690805</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22">
+        <v>2021</v>
+      </c>
+      <c r="F22" s="10">
+        <v>30951515</v>
+      </c>
+      <c r="G22" s="10">
+        <v>5733205</v>
+      </c>
+      <c r="H22" s="10">
+        <v>25218310</v>
+      </c>
+      <c r="I22" s="10">
+        <v>409070.06</v>
+      </c>
+      <c r="J22" s="7">
+        <v>61.65</v>
+      </c>
+      <c r="K22" s="10">
+        <v>7568336</v>
+      </c>
+      <c r="L22" s="10">
+        <v>1826296</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10">
+        <v>69300</v>
+      </c>
+      <c r="P22" s="10">
+        <v>15892978</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>161</v>
+      </c>
+      <c r="R22" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S22" s="10">
+        <v>4983671</v>
+      </c>
+      <c r="T22" t="s">
+        <v>48</v>
+      </c>
+      <c r="U22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23">
+        <v>2021</v>
+      </c>
+      <c r="F23" s="10">
+        <v>32294317</v>
+      </c>
+      <c r="G23" s="10">
+        <v>6306660</v>
+      </c>
+      <c r="H23" s="10">
+        <v>25987657</v>
+      </c>
+      <c r="I23" s="10">
+        <v>421352.7</v>
+      </c>
+      <c r="J23" s="7">
+        <v>61.68</v>
+      </c>
+      <c r="K23" s="10">
+        <v>8576867</v>
+      </c>
+      <c r="L23" s="10">
+        <v>2776269</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
+        <v>0</v>
+      </c>
+      <c r="O23" s="10">
+        <v>311677</v>
+      </c>
+      <c r="P23" s="10">
+        <v>14946198</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>161</v>
+      </c>
+      <c r="R23" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S23" s="10">
+        <v>4686782</v>
+      </c>
+      <c r="T23" t="s">
+        <v>48</v>
+      </c>
+      <c r="U23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E24">
+        <v>2021</v>
+      </c>
+      <c r="F24" s="10">
+        <v>16683302</v>
+      </c>
+      <c r="G24" s="10">
+        <v>3185899</v>
+      </c>
+      <c r="H24" s="10">
+        <v>13497403</v>
+      </c>
+      <c r="I24" s="10">
+        <v>219213.17</v>
+      </c>
+      <c r="J24" s="7">
+        <v>61.57</v>
+      </c>
+      <c r="K24" s="10">
+        <v>7443008</v>
+      </c>
+      <c r="L24" s="10">
+        <v>2442710</v>
+      </c>
+      <c r="M24" s="10">
+        <v>10052</v>
+      </c>
+      <c r="N24" s="10">
+        <v>1773869</v>
+      </c>
+      <c r="O24" s="10">
+        <v>226304</v>
+      </c>
+      <c r="P24" s="10">
+        <v>2054068</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>161</v>
+      </c>
+      <c r="R24" s="7">
+        <v>31.357679999999998</v>
+      </c>
+      <c r="S24" s="10">
+        <v>644108</v>
+      </c>
+      <c r="T24" t="s">
+        <v>48</v>
+      </c>
+      <c r="U24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E25">
+        <v>2021</v>
+      </c>
+      <c r="F25" s="10">
+        <v>19723287</v>
+      </c>
+      <c r="G25" s="10">
+        <v>3761569</v>
+      </c>
+      <c r="H25" s="10">
+        <v>15961718</v>
+      </c>
+      <c r="I25" s="10">
+        <v>257466.82</v>
+      </c>
+      <c r="J25" s="7">
+        <v>62</v>
+      </c>
+      <c r="K25" s="10">
+        <v>17052285</v>
+      </c>
+      <c r="L25" s="10">
+        <v>8230628</v>
+      </c>
+      <c r="M25" s="10">
+        <v>12958</v>
+      </c>
+      <c r="N25" s="10">
+        <v>2270594</v>
+      </c>
+      <c r="O25" s="10">
+        <v>13211495</v>
+      </c>
+      <c r="P25" s="10">
+        <v>1606748</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>76</v>
+      </c>
+      <c r="R25" s="7">
+        <v>4.3907699999999998</v>
+      </c>
+      <c r="S25" s="10">
+        <v>700842</v>
+      </c>
+      <c r="T25" t="s">
+        <v>48</v>
+      </c>
+      <c r="U25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26">
+        <v>2021</v>
+      </c>
+      <c r="F26" s="10">
+        <v>448327</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>448327</v>
+      </c>
+      <c r="I26" s="10">
+        <v>7625.06</v>
+      </c>
+      <c r="J26" s="7">
+        <v>58.8</v>
+      </c>
+      <c r="K26" s="10">
+        <v>194680</v>
+      </c>
+      <c r="L26" s="10">
+        <v>160148</v>
+      </c>
+      <c r="M26" s="10">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
+        <v>0</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
+        <v>93499</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>161</v>
+      </c>
+      <c r="R26" s="7">
+        <v>31.35755</v>
+      </c>
+      <c r="S26" s="10">
+        <v>29319</v>
+      </c>
+      <c r="T26" t="s">
+        <v>48</v>
+      </c>
+      <c r="U26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27">
+        <v>2021</v>
+      </c>
+      <c r="F27" s="10">
+        <v>2153773438</v>
+      </c>
+      <c r="G27" s="10">
+        <v>610780988</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1542992450</v>
+      </c>
+      <c r="I27" s="10">
+        <v>25166225.16</v>
+      </c>
+      <c r="J27" s="7">
+        <v>61.31</v>
+      </c>
+      <c r="K27" s="10">
+        <v>478414798</v>
+      </c>
+      <c r="L27" s="10">
+        <v>131304908</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <v>1769045</v>
+      </c>
+      <c r="O27" s="10">
+        <v>23495</v>
+      </c>
+      <c r="P27" s="10">
+        <v>931527194</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>161</v>
+      </c>
+      <c r="R27" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S27" s="10">
+        <v>292105410</v>
+      </c>
+      <c r="T27" t="s">
+        <v>48</v>
+      </c>
+      <c r="U27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>270</v>
+      </c>
+      <c r="E28">
+        <v>2021</v>
+      </c>
+      <c r="F28" s="10">
+        <v>3759115364</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>3759115364</v>
+      </c>
+      <c r="I28" s="10">
+        <v>62928679.270000003</v>
+      </c>
+      <c r="J28" s="7">
+        <v>59.74</v>
+      </c>
+      <c r="K28" s="10">
+        <v>1166993399</v>
+      </c>
+      <c r="L28" s="10">
+        <v>248898408</v>
+      </c>
+      <c r="M28" s="10">
+        <v>0</v>
+      </c>
+      <c r="N28" s="10">
+        <v>0</v>
+      </c>
+      <c r="O28" s="10">
+        <v>167460542</v>
+      </c>
+      <c r="P28" s="10">
+        <v>2510684099</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>161</v>
+      </c>
+      <c r="R28" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S28" s="10">
+        <v>787292537</v>
+      </c>
+      <c r="T28" t="s">
+        <v>48</v>
+      </c>
+      <c r="U28" s="10">
+        <v>0</v>
+      </c>
+      <c r="V28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29">
+        <v>2021</v>
+      </c>
+      <c r="F29" s="10">
+        <v>261769</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>261769</v>
+      </c>
+      <c r="I29" s="10">
+        <v>5064.7</v>
+      </c>
+      <c r="J29" s="7">
+        <v>51.68</v>
+      </c>
+      <c r="K29" s="10">
+        <v>501144</v>
+      </c>
+      <c r="L29" s="10">
+        <v>529497</v>
+      </c>
+      <c r="M29" s="10">
+        <v>1094</v>
+      </c>
+      <c r="N29" s="10">
+        <v>186856</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>76</v>
+      </c>
+      <c r="R29" s="7">
+        <v>4.3908899999999997</v>
+      </c>
+      <c r="S29" s="10">
+        <v>11494</v>
+      </c>
+      <c r="T29" t="s">
+        <v>48</v>
+      </c>
+      <c r="U29" s="10">
+        <v>956822</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30">
+        <v>2021</v>
+      </c>
+      <c r="F30" s="10">
+        <v>4594017135</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1631114194</v>
+      </c>
+      <c r="H30" s="10">
+        <v>2962902941</v>
+      </c>
+      <c r="I30" s="10">
+        <v>49179870.439999998</v>
+      </c>
+      <c r="J30" s="7">
+        <v>60.25</v>
+      </c>
+      <c r="K30" s="10">
+        <v>1017857523</v>
+      </c>
+      <c r="L30" s="10">
+        <v>89290445</v>
+      </c>
+      <c r="M30" s="10">
+        <v>0</v>
+      </c>
+      <c r="N30" s="10">
+        <v>92938111</v>
+      </c>
+      <c r="O30" s="10">
+        <v>159843</v>
+      </c>
+      <c r="P30" s="10">
+        <v>1762976705</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>161</v>
+      </c>
+      <c r="R30" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S30" s="10">
+        <v>552828770</v>
+      </c>
+      <c r="T30" t="s">
+        <v>48</v>
+      </c>
+      <c r="U30" s="10">
+        <v>0</v>
+      </c>
+      <c r="V30" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31">
+        <v>2021</v>
+      </c>
+      <c r="F31" s="10">
+        <v>32540269</v>
+      </c>
+      <c r="G31" s="10">
+        <v>4768437</v>
+      </c>
+      <c r="H31" s="10">
+        <v>27771832</v>
+      </c>
+      <c r="I31" s="10">
+        <v>456486.61</v>
+      </c>
+      <c r="J31" s="7">
+        <v>60.84</v>
+      </c>
+      <c r="K31" s="10">
+        <v>11716098</v>
+      </c>
+      <c r="L31" s="10">
+        <v>2168561</v>
+      </c>
+      <c r="M31" s="10">
+        <v>7138</v>
+      </c>
+      <c r="N31" s="10">
+        <v>1341005</v>
+      </c>
+      <c r="O31" s="10">
+        <v>72635</v>
+      </c>
+      <c r="P31" s="10">
+        <v>12611665</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>161</v>
+      </c>
+      <c r="R31" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S31" s="10">
+        <v>3954727</v>
+      </c>
+      <c r="T31" t="s">
+        <v>48</v>
+      </c>
+      <c r="U31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32">
+        <v>2021</v>
+      </c>
+      <c r="F32" s="10">
+        <v>22608848</v>
+      </c>
+      <c r="G32" s="10">
+        <v>7527781</v>
+      </c>
+      <c r="H32" s="10">
+        <v>15081067</v>
+      </c>
+      <c r="I32" s="10">
+        <v>275466.69</v>
+      </c>
+      <c r="J32" s="7">
+        <v>54.75</v>
+      </c>
+      <c r="K32" s="10">
+        <v>8935976</v>
+      </c>
+      <c r="L32" s="10">
+        <v>528975</v>
+      </c>
+      <c r="M32" s="10">
+        <v>159474</v>
+      </c>
+      <c r="N32" s="10">
+        <v>13456508</v>
+      </c>
+      <c r="O32" s="10">
+        <v>1981114</v>
+      </c>
+      <c r="P32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>76</v>
+      </c>
+      <c r="R32" s="7">
+        <v>4.3907699999999998</v>
+      </c>
+      <c r="S32" s="10">
+        <v>662175</v>
+      </c>
+      <c r="T32" t="s">
+        <v>48</v>
+      </c>
+      <c r="U32" s="10">
+        <v>6018752</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" t="s">
+        <v>302</v>
+      </c>
+      <c r="E33">
+        <v>2021</v>
+      </c>
+      <c r="F33" s="10">
+        <v>7894636974</v>
+      </c>
+      <c r="G33" s="10">
+        <v>3382555848</v>
+      </c>
+      <c r="H33" s="10">
+        <v>4512081126</v>
+      </c>
+      <c r="I33" s="10">
+        <v>85690464.140000001</v>
+      </c>
+      <c r="J33" s="7">
+        <v>52.66</v>
+      </c>
+      <c r="K33" s="10">
+        <v>770176675</v>
+      </c>
+      <c r="L33" s="10">
+        <v>244169048</v>
+      </c>
+      <c r="M33" s="10">
+        <v>0</v>
+      </c>
+      <c r="N33" s="10">
+        <v>38106468</v>
+      </c>
+      <c r="O33" s="10">
+        <v>4840985</v>
+      </c>
+      <c r="P33" s="10">
+        <v>3464469920</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>161</v>
+      </c>
+      <c r="R33" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S33" s="10">
+        <v>1086377738</v>
+      </c>
+      <c r="T33" t="s">
+        <v>48</v>
+      </c>
+      <c r="U33" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>274</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>324</v>
+      </c>
+      <c r="E34">
+        <v>2021</v>
+      </c>
+      <c r="F34" s="10">
+        <v>7332372058</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>7332372058</v>
+      </c>
+      <c r="I34" s="10">
+        <v>125966576.58</v>
+      </c>
+      <c r="J34" s="7">
+        <v>58.21</v>
+      </c>
+      <c r="K34" s="10">
+        <v>3469700711</v>
+      </c>
+      <c r="L34" s="10">
+        <v>472266218</v>
+      </c>
+      <c r="M34" s="10">
+        <v>0</v>
+      </c>
+      <c r="N34" s="10">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10">
+        <v>27883428</v>
+      </c>
+      <c r="P34" s="10">
+        <v>3418288557</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>161</v>
+      </c>
+      <c r="R34" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S34" s="10">
+        <v>1071896329</v>
+      </c>
+      <c r="T34" t="s">
+        <v>48</v>
+      </c>
+      <c r="U34" s="10">
+        <v>0</v>
+      </c>
+      <c r="V34" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35">
+        <v>2021</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1483868486</v>
+      </c>
+      <c r="G35" s="10">
+        <v>823676796</v>
+      </c>
+      <c r="H35" s="10">
+        <v>660191690</v>
+      </c>
+      <c r="I35" s="10">
+        <v>13104433.58</v>
+      </c>
+      <c r="J35" s="7">
+        <v>50.38</v>
+      </c>
+      <c r="K35" s="10">
+        <v>215620693</v>
+      </c>
+      <c r="L35" s="10">
+        <v>27483540</v>
+      </c>
+      <c r="M35" s="10">
+        <v>1282464</v>
+      </c>
+      <c r="N35" s="10">
+        <v>216721629</v>
+      </c>
+      <c r="O35" s="10">
+        <v>30748684</v>
+      </c>
+      <c r="P35" s="10">
+        <v>229832048</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>161</v>
+      </c>
+      <c r="R35" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S35" s="10">
+        <v>72070021</v>
+      </c>
+      <c r="T35" t="s">
+        <v>48</v>
+      </c>
+      <c r="U35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36">
+        <v>2021</v>
+      </c>
+      <c r="F36" s="10">
+        <v>5402321446</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>5402321446</v>
+      </c>
+      <c r="I36" s="10">
+        <v>100485510.42</v>
+      </c>
+      <c r="J36" s="7">
+        <v>53.76</v>
+      </c>
+      <c r="K36" s="10">
+        <v>3236712208</v>
+      </c>
+      <c r="L36" s="10">
+        <v>1018872793</v>
+      </c>
+      <c r="M36" s="10">
+        <v>51729712</v>
+      </c>
+      <c r="N36" s="10">
+        <v>4368519830</v>
+      </c>
+      <c r="O36" s="10">
+        <v>125442166</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>76</v>
+      </c>
+      <c r="R36" s="7">
+        <v>4.3907699999999998</v>
+      </c>
+      <c r="S36" s="10">
+        <v>237203509</v>
+      </c>
+      <c r="T36" t="s">
+        <v>48</v>
+      </c>
+      <c r="U36" s="10">
+        <v>3148070931</v>
+      </c>
+      <c r="V36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>231</v>
+      </c>
+      <c r="D37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E37">
+        <v>2021</v>
+      </c>
+      <c r="F37" s="10">
+        <v>38567</v>
+      </c>
+      <c r="G37" s="10">
+        <v>7613</v>
+      </c>
+      <c r="H37" s="10">
+        <v>30954</v>
+      </c>
+      <c r="I37" s="10">
+        <v>672.02</v>
+      </c>
+      <c r="J37" s="7">
+        <v>46.06</v>
+      </c>
+      <c r="K37" s="10">
+        <v>234852</v>
+      </c>
+      <c r="L37" s="10">
+        <v>16645</v>
+      </c>
+      <c r="M37" s="10">
+        <v>0</v>
+      </c>
+      <c r="N37" s="10">
+        <v>0</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0</v>
+      </c>
+      <c r="P37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>76</v>
+      </c>
+      <c r="R37" s="7">
+        <v>4.39039</v>
+      </c>
+      <c r="S37" s="10">
+        <v>1359</v>
+      </c>
+      <c r="T37" t="s">
+        <v>48</v>
+      </c>
+      <c r="U37" s="10">
+        <v>220543</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" t="s">
+        <v>270</v>
+      </c>
+      <c r="E38">
+        <v>2021</v>
+      </c>
+      <c r="F38" s="10">
+        <v>976845.35</v>
+      </c>
+      <c r="G38" s="10">
+        <v>144237</v>
+      </c>
+      <c r="H38" s="10">
+        <v>832608.35</v>
+      </c>
+      <c r="I38" s="10">
+        <v>13665.07</v>
+      </c>
+      <c r="J38" s="7">
+        <v>60.93</v>
+      </c>
+      <c r="K38" s="10">
+        <v>611382.85</v>
+      </c>
+      <c r="L38" s="10">
+        <v>84126.74</v>
+      </c>
+      <c r="M38" s="10">
+        <v>313683.57</v>
+      </c>
+      <c r="N38" s="10">
+        <v>35837</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0</v>
+      </c>
+      <c r="P38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>76</v>
+      </c>
+      <c r="R38" s="7">
+        <v>4.3041799999999997</v>
+      </c>
+      <c r="S38" s="10">
+        <v>35837</v>
+      </c>
+      <c r="T38" t="s">
+        <v>234</v>
+      </c>
+      <c r="U38" s="10">
+        <v>17569956.41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39">
+        <v>2021</v>
+      </c>
+      <c r="F39" s="11">
+        <v>2896723927.5799999</v>
+      </c>
+      <c r="G39" s="11">
+        <v>1262232921</v>
+      </c>
+      <c r="H39" s="11">
+        <v>1634491006.5799999</v>
+      </c>
+      <c r="I39" s="11">
+        <v>38975096.259999998</v>
+      </c>
+      <c r="J39" s="7">
+        <v>41.94</v>
+      </c>
+      <c r="K39" s="11">
+        <v>473101243.93000001</v>
+      </c>
+      <c r="L39" s="11">
+        <v>152451634.71000001</v>
+      </c>
+      <c r="M39" s="11">
+        <v>6362871.6900000004</v>
+      </c>
+      <c r="N39" s="11">
+        <v>131133766.81</v>
+      </c>
+      <c r="O39" s="11">
+        <v>0</v>
+      </c>
+      <c r="P39" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>76</v>
+      </c>
+      <c r="R39" s="7">
+        <v>3.2407699999999999</v>
+      </c>
+      <c r="S39" s="11">
+        <v>52970158.810000002</v>
+      </c>
+      <c r="T39" t="s">
+        <v>234</v>
+      </c>
+      <c r="U39" s="11">
+        <v>205862808.47</v>
+      </c>
+      <c r="V39" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40">
+        <v>2021</v>
+      </c>
+      <c r="F40" s="11">
+        <v>3328862156</v>
+      </c>
+      <c r="G40" s="11">
+        <v>1359175085</v>
+      </c>
+      <c r="H40" s="11">
+        <v>1969687071</v>
+      </c>
+      <c r="I40" s="11">
+        <v>36390080.289999999</v>
+      </c>
+      <c r="J40" s="7">
+        <v>54.13</v>
+      </c>
+      <c r="K40" s="11">
+        <v>517257318</v>
+      </c>
+      <c r="L40" s="11">
+        <v>244547243</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>206192189</v>
+      </c>
+      <c r="O40" s="11">
+        <v>21013</v>
+      </c>
+      <c r="P40" s="11">
+        <v>1001711334</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>161</v>
+      </c>
+      <c r="R40" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S40" s="11">
+        <v>314113535</v>
+      </c>
+      <c r="T40" t="s">
+        <v>48</v>
+      </c>
+      <c r="U40" s="11">
+        <v>0</v>
+      </c>
+      <c r="V40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>272</v>
+      </c>
+      <c r="D41" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41">
+        <v>2021</v>
+      </c>
+      <c r="F41" s="11">
+        <v>349821</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>349821</v>
+      </c>
+      <c r="I41" s="11">
+        <v>5855.02</v>
+      </c>
+      <c r="J41" s="7">
+        <v>59.75</v>
+      </c>
+      <c r="K41" s="11">
+        <v>271029</v>
+      </c>
+      <c r="L41" s="11">
+        <v>61154</v>
+      </c>
+      <c r="M41" s="11">
+        <v>9134</v>
+      </c>
+      <c r="N41" s="11">
+        <v>768539</v>
+      </c>
+      <c r="O41" s="11">
+        <v>0</v>
+      </c>
+      <c r="P41" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>76</v>
+      </c>
+      <c r="R41" s="7">
+        <v>4.3908199999999997</v>
+      </c>
+      <c r="S41" s="11">
+        <v>15360</v>
+      </c>
+      <c r="T41" t="s">
+        <v>48</v>
+      </c>
+      <c r="U41" s="11">
+        <v>760035</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>288</v>
+      </c>
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" t="s">
+        <v>270</v>
+      </c>
+      <c r="E42">
+        <v>2021</v>
+      </c>
+      <c r="F42" s="11">
+        <v>153016</v>
+      </c>
+      <c r="G42" s="11">
+        <v>30280</v>
+      </c>
+      <c r="H42" s="11">
+        <v>122736</v>
+      </c>
+      <c r="I42" s="11">
+        <v>1951.88</v>
+      </c>
+      <c r="J42" s="7">
+        <v>62.88</v>
+      </c>
+      <c r="K42" s="11">
+        <v>126986</v>
+      </c>
+      <c r="L42" s="11">
+        <v>3996</v>
+      </c>
+      <c r="M42" s="11">
+        <v>4150</v>
+      </c>
+      <c r="N42" s="11">
+        <v>348992</v>
+      </c>
+      <c r="O42" s="11">
+        <v>0</v>
+      </c>
+      <c r="P42" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>76</v>
+      </c>
+      <c r="R42" s="7">
+        <v>4.39072</v>
+      </c>
+      <c r="S42" s="11">
+        <v>5389</v>
+      </c>
+      <c r="T42" t="s">
+        <v>48</v>
+      </c>
+      <c r="U42" s="11">
+        <v>361388</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43">
+        <v>2021</v>
+      </c>
+      <c r="F43" s="11">
+        <v>503320</v>
+      </c>
+      <c r="G43" s="11">
+        <v>161155</v>
+      </c>
+      <c r="H43" s="11">
+        <v>342165</v>
+      </c>
+      <c r="I43" s="11">
+        <v>6167.75</v>
+      </c>
+      <c r="J43" s="7">
+        <v>55.48</v>
+      </c>
+      <c r="K43" s="11">
+        <v>485342</v>
+      </c>
+      <c r="L43" s="11">
+        <v>360925</v>
+      </c>
+      <c r="M43" s="11">
+        <v>36364</v>
+      </c>
+      <c r="N43" s="11">
+        <v>3056705</v>
+      </c>
+      <c r="O43" s="11">
+        <v>0</v>
+      </c>
+      <c r="P43" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R43" s="7">
+        <v>4.39086</v>
+      </c>
+      <c r="S43" s="11">
+        <v>15024</v>
+      </c>
+      <c r="T43" t="s">
+        <v>48</v>
+      </c>
+      <c r="U43" s="11">
+        <v>3597171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>305</v>
+      </c>
+      <c r="E44">
+        <v>2021</v>
+      </c>
+      <c r="F44" s="11">
+        <v>1460120464.4000001</v>
+      </c>
+      <c r="G44" s="11">
+        <v>667160749.91999996</v>
+      </c>
+      <c r="H44" s="11">
+        <v>792959714.48000002</v>
+      </c>
+      <c r="I44" s="11">
+        <v>14969127.640000001</v>
+      </c>
+      <c r="J44" s="7">
+        <v>52.97</v>
+      </c>
+      <c r="K44" s="11">
+        <v>227504556.93000001</v>
+      </c>
+      <c r="L44" s="11">
+        <v>125115675.36</v>
+      </c>
+      <c r="M44" s="11">
+        <v>96411131.040000007</v>
+      </c>
+      <c r="N44" s="11">
+        <v>36584399.810000002</v>
+      </c>
+      <c r="O44" s="11">
+        <v>15172220.91</v>
+      </c>
+      <c r="P44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>76</v>
+      </c>
+      <c r="R44" s="7">
+        <v>4.6136499999999998</v>
+      </c>
+      <c r="S44" s="11">
+        <v>36584399.810000002</v>
+      </c>
+      <c r="T44" t="s">
+        <v>234</v>
+      </c>
+      <c r="U44" s="11">
+        <v>5181826379.8699999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" t="s">
+        <v>275</v>
+      </c>
+      <c r="D45" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45">
+        <v>2021</v>
+      </c>
+      <c r="F45" s="11">
+        <v>3051435.28</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11">
+        <v>3051435.28</v>
+      </c>
+      <c r="I45" s="11">
+        <v>52574.39</v>
+      </c>
+      <c r="J45" s="7">
+        <v>58.04</v>
+      </c>
+      <c r="K45" s="11">
+        <v>1517945</v>
+      </c>
+      <c r="L45" s="11">
+        <v>1800025.21</v>
+      </c>
+      <c r="M45" s="11">
+        <v>1323421.76</v>
+      </c>
+      <c r="N45" s="11">
+        <v>172967.03</v>
+      </c>
+      <c r="O45" s="11">
+        <v>0</v>
+      </c>
+      <c r="P45" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>76</v>
+      </c>
+      <c r="R45" s="7">
+        <v>5.66838</v>
+      </c>
+      <c r="S45" s="11">
+        <v>172967.03</v>
+      </c>
+      <c r="T45" t="s">
+        <v>234</v>
+      </c>
+      <c r="U45" s="11">
+        <v>169843772.56999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>279</v>
+      </c>
+      <c r="B46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E46">
+        <v>2021</v>
+      </c>
+      <c r="F46" s="11">
+        <v>335043</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <v>335043</v>
+      </c>
+      <c r="I46" s="11">
+        <v>5566.2</v>
+      </c>
+      <c r="J46" s="7">
+        <v>60.19</v>
+      </c>
+      <c r="K46" s="11">
+        <v>252119</v>
+      </c>
+      <c r="L46" s="11">
+        <v>59638</v>
+      </c>
+      <c r="M46" s="11">
+        <v>456</v>
+      </c>
+      <c r="N46" s="11">
+        <v>78330</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>76</v>
+      </c>
+      <c r="R46" s="7">
+        <v>4.3907800000000003</v>
+      </c>
+      <c r="S46" s="11">
+        <v>14711</v>
+      </c>
+      <c r="T46" t="s">
+        <v>48</v>
+      </c>
+      <c r="U46" s="11">
+        <v>55500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>313</v>
+      </c>
+      <c r="D47" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47">
+        <v>2021</v>
+      </c>
+      <c r="F47" s="11">
+        <v>5233355527.0500002</v>
+      </c>
+      <c r="G47" s="11">
+        <v>2456033550.6799998</v>
+      </c>
+      <c r="H47" s="11">
+        <v>2777321976.3699999</v>
+      </c>
+      <c r="I47" s="11">
+        <v>51950139.82</v>
+      </c>
+      <c r="J47" s="7">
+        <v>53.46</v>
+      </c>
+      <c r="K47" s="11">
+        <v>518112906.81</v>
+      </c>
+      <c r="L47" s="11">
+        <v>155025299.71000001</v>
+      </c>
+      <c r="M47" s="11">
+        <v>177319461.41</v>
+      </c>
+      <c r="N47" s="11">
+        <v>127922018.79000001</v>
+      </c>
+      <c r="O47" s="11">
+        <v>0</v>
+      </c>
+      <c r="P47" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>76</v>
+      </c>
+      <c r="R47" s="7">
+        <v>4.60595</v>
+      </c>
+      <c r="S47" s="11">
+        <v>127922018.79000001</v>
+      </c>
+      <c r="T47" t="s">
+        <v>234</v>
+      </c>
+      <c r="U47" s="11">
+        <v>8826777957.6900005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48">
+        <v>2021</v>
+      </c>
+      <c r="F48" s="11">
+        <v>5455226423.1800003</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>5455226423.1800003</v>
+      </c>
+      <c r="I48" s="11">
+        <v>95297459.099999994</v>
+      </c>
+      <c r="J48" s="7">
+        <v>57.24</v>
+      </c>
+      <c r="K48" s="11">
+        <v>1668331020.24</v>
+      </c>
+      <c r="L48" s="11">
+        <v>484096947.50999999</v>
+      </c>
+      <c r="M48" s="11">
+        <v>59812010.299999997</v>
+      </c>
+      <c r="N48" s="11">
+        <v>309737142.31</v>
+      </c>
+      <c r="O48" s="11">
+        <v>24913468.890000001</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>76</v>
+      </c>
+      <c r="R48" s="7">
+        <v>4.6886000000000001</v>
+      </c>
+      <c r="S48" s="11">
+        <v>255773637.31</v>
+      </c>
+      <c r="T48" t="s">
+        <v>234</v>
+      </c>
+      <c r="U48" s="11">
+        <v>1446334538.52</v>
+      </c>
+      <c r="V48" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>264</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" t="s">
+        <v>270</v>
+      </c>
+      <c r="E49">
+        <v>2021</v>
+      </c>
+      <c r="F49" s="10">
+        <v>444812912</v>
+      </c>
+      <c r="G49" s="10">
+        <v>43575385</v>
+      </c>
+      <c r="H49" s="10">
+        <v>401237527</v>
+      </c>
+      <c r="I49" s="10">
+        <v>6369952.2400000002</v>
+      </c>
+      <c r="J49" s="7">
+        <v>62.99</v>
+      </c>
+      <c r="K49" s="10">
+        <v>50757621</v>
+      </c>
+      <c r="L49" s="10">
+        <v>58094419</v>
+      </c>
+      <c r="M49" s="10">
+        <v>0</v>
+      </c>
+      <c r="N49" s="10">
+        <v>0</v>
+      </c>
+      <c r="O49" s="10">
+        <v>3253444</v>
+      </c>
+      <c r="P49" s="10">
+        <v>295638931</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>161</v>
+      </c>
+      <c r="R49" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S49" s="10">
+        <v>92705540</v>
+      </c>
+      <c r="T49" t="s">
+        <v>48</v>
+      </c>
+      <c r="U49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>260</v>
+      </c>
+      <c r="D50" t="s">
+        <v>270</v>
+      </c>
+      <c r="E50">
+        <v>2021</v>
+      </c>
+      <c r="F50" s="10">
+        <v>7918762.6500000004</v>
+      </c>
+      <c r="G50" s="10">
+        <v>2245802.0299999998</v>
+      </c>
+      <c r="H50" s="10">
+        <v>5672960.6200000001</v>
+      </c>
+      <c r="I50" s="10">
+        <v>92686.17</v>
+      </c>
+      <c r="J50" s="7">
+        <v>61.21</v>
+      </c>
+      <c r="K50" s="10">
+        <v>2400514.9900000002</v>
+      </c>
+      <c r="L50" s="10">
+        <v>121682.12</v>
+      </c>
+      <c r="M50" s="10">
+        <v>582306.65</v>
+      </c>
+      <c r="N50" s="10">
+        <v>257162.43</v>
+      </c>
+      <c r="O50" s="10">
+        <v>0</v>
+      </c>
+      <c r="P50" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R50" s="7">
+        <v>4.5331299999999999</v>
+      </c>
+      <c r="S50" s="10">
+        <v>257162.43</v>
+      </c>
+      <c r="T50" t="s">
+        <v>234</v>
+      </c>
+      <c r="U50" s="10">
+        <v>30905725.859999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51">
+        <v>2021</v>
+      </c>
+      <c r="F51" s="10">
+        <v>12054501</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <v>12054501</v>
+      </c>
+      <c r="I51" s="10">
+        <v>214074.85</v>
+      </c>
+      <c r="J51" s="7">
+        <v>56.31</v>
+      </c>
+      <c r="K51" s="10">
+        <v>3954989</v>
+      </c>
+      <c r="L51" s="10">
+        <v>3757421</v>
+      </c>
+      <c r="M51" s="10">
+        <v>71950</v>
+      </c>
+      <c r="N51" s="10">
+        <v>6059702</v>
+      </c>
+      <c r="O51" s="10">
+        <v>0</v>
+      </c>
+      <c r="P51" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>76</v>
+      </c>
+      <c r="R51" s="7">
+        <v>4.3907699999999998</v>
+      </c>
+      <c r="S51" s="10">
+        <v>529285</v>
+      </c>
+      <c r="T51" t="s">
+        <v>48</v>
+      </c>
+      <c r="U51" s="10">
+        <v>1789561</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" t="s">
+        <v>326</v>
+      </c>
+      <c r="D52" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52">
+        <v>2021</v>
+      </c>
+      <c r="F52" s="10">
+        <v>81777861</v>
+      </c>
+      <c r="G52" s="10">
+        <v>15248317</v>
+      </c>
+      <c r="H52" s="10">
+        <v>66529544</v>
+      </c>
+      <c r="I52" s="10">
+        <v>1054368.3999999999</v>
+      </c>
+      <c r="J52" s="7">
+        <v>63.1</v>
+      </c>
+      <c r="K52" s="10">
+        <v>14023569</v>
+      </c>
+      <c r="L52" s="10">
+        <v>10459713</v>
+      </c>
+      <c r="M52" s="10">
+        <v>0</v>
+      </c>
+      <c r="N52" s="10">
+        <v>0</v>
+      </c>
+      <c r="O52" s="10">
+        <v>88335</v>
+      </c>
+      <c r="P52" s="10">
+        <v>42134597</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>161</v>
+      </c>
+      <c r="R52" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S52" s="10">
+        <v>13212436</v>
+      </c>
+      <c r="T52" t="s">
+        <v>48</v>
+      </c>
+      <c r="U52" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53">
+        <v>2021</v>
+      </c>
+      <c r="F53" s="10">
+        <v>7657233</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0</v>
+      </c>
+      <c r="H53" s="10">
+        <v>7657233</v>
+      </c>
+      <c r="I53" s="10">
+        <v>132813.04999999999</v>
+      </c>
+      <c r="J53" s="7">
+        <v>57.65</v>
+      </c>
+      <c r="K53" s="10">
+        <v>3364897</v>
+      </c>
+      <c r="L53" s="10">
+        <v>5987924</v>
+      </c>
+      <c r="M53" s="10">
+        <v>78145</v>
+      </c>
+      <c r="N53" s="10">
+        <v>6611608</v>
+      </c>
+      <c r="O53" s="10">
+        <v>0</v>
+      </c>
+      <c r="P53" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>76</v>
+      </c>
+      <c r="R53" s="7">
+        <v>4.3907600000000002</v>
+      </c>
+      <c r="S53" s="10">
+        <v>336211</v>
+      </c>
+      <c r="T53" t="s">
+        <v>48</v>
+      </c>
+      <c r="U53" s="10">
+        <v>8385341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" t="s">
+        <v>319</v>
+      </c>
+      <c r="E54">
+        <v>2021</v>
+      </c>
+      <c r="F54" s="10">
+        <v>209509125.06</v>
+      </c>
+      <c r="G54" s="10">
+        <v>76407123.769999996</v>
+      </c>
+      <c r="H54" s="10">
+        <v>133102001.29000001</v>
+      </c>
+      <c r="I54" s="10">
+        <v>2620338.02</v>
+      </c>
+      <c r="J54" s="7">
+        <v>50.8</v>
+      </c>
+      <c r="K54" s="10">
+        <v>35849966.100000001</v>
+      </c>
+      <c r="L54" s="10">
+        <v>4758229.88</v>
+      </c>
+      <c r="M54" s="10">
+        <v>417363.56</v>
+      </c>
+      <c r="N54" s="10">
+        <v>4006264.71</v>
+      </c>
+      <c r="O54" s="10">
+        <v>0</v>
+      </c>
+      <c r="P54" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>76</v>
+      </c>
+      <c r="R54" s="7">
+        <v>3.0099200000000002</v>
+      </c>
+      <c r="S54" s="10">
+        <v>4006264.71</v>
+      </c>
+      <c r="T54" t="s">
+        <v>234</v>
+      </c>
+      <c r="U54" s="10">
+        <v>7920781.0800000001</v>
+      </c>
+      <c r="V54" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>280</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" t="s">
+        <v>319</v>
+      </c>
+      <c r="E55">
+        <v>2021</v>
+      </c>
+      <c r="F55" s="10">
+        <v>313422555</v>
+      </c>
+      <c r="G55" s="10">
+        <v>104013693</v>
+      </c>
+      <c r="H55" s="10">
+        <v>209408862</v>
+      </c>
+      <c r="I55" s="10">
+        <v>3262467.54</v>
+      </c>
+      <c r="J55" s="7">
+        <v>64.19</v>
+      </c>
+      <c r="K55" s="10">
+        <v>60532292</v>
+      </c>
+      <c r="L55" s="10">
+        <v>45540181</v>
+      </c>
+      <c r="M55" s="10">
+        <v>0</v>
+      </c>
+      <c r="N55" s="10">
+        <v>7934246</v>
+      </c>
+      <c r="O55" s="10">
+        <v>0</v>
+      </c>
+      <c r="P55" s="10">
+        <v>95402143</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>161</v>
+      </c>
+      <c r="R55" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S55" s="10">
+        <v>29915908</v>
+      </c>
+      <c r="T55" t="s">
+        <v>48</v>
+      </c>
+      <c r="U55" s="10">
+        <v>0</v>
+      </c>
+      <c r="V55" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56">
+        <v>2021</v>
+      </c>
+      <c r="F56" s="10">
+        <v>6873453</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0</v>
+      </c>
+      <c r="H56" s="10">
+        <v>6873453</v>
+      </c>
+      <c r="I56" s="10">
+        <v>111331.63</v>
+      </c>
+      <c r="J56" s="7">
+        <v>61.74</v>
+      </c>
+      <c r="K56" s="10">
+        <v>2220756</v>
+      </c>
+      <c r="L56" s="10">
+        <v>2070505</v>
+      </c>
+      <c r="M56" s="10">
+        <v>25253</v>
+      </c>
+      <c r="N56" s="10">
+        <v>2150228</v>
+      </c>
+      <c r="O56" s="10">
+        <v>0</v>
+      </c>
+      <c r="P56" s="10">
+        <v>406711</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>76</v>
+      </c>
+      <c r="R56" s="7">
+        <v>4.3907800000000003</v>
+      </c>
+      <c r="S56" s="10">
+        <v>301798</v>
+      </c>
+      <c r="T56" t="s">
+        <v>48</v>
+      </c>
+      <c r="U56" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57">
+        <v>2021</v>
+      </c>
+      <c r="F57" s="10">
+        <v>2499449.16</v>
+      </c>
+      <c r="G57" s="10">
+        <v>743711</v>
+      </c>
+      <c r="H57" s="10">
+        <v>1755767.15</v>
+      </c>
+      <c r="I57" s="10">
+        <v>32423.8</v>
+      </c>
+      <c r="J57" s="7">
+        <v>54.15</v>
+      </c>
+      <c r="K57" s="10">
+        <v>1115159.94</v>
+      </c>
+      <c r="L57" s="10">
+        <v>65422.8</v>
+      </c>
+      <c r="M57" s="10">
+        <v>251411.64</v>
+      </c>
+      <c r="N57" s="10">
+        <v>78825.09</v>
+      </c>
+      <c r="O57" s="10">
+        <v>0</v>
+      </c>
+      <c r="P57" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>76</v>
+      </c>
+      <c r="R57" s="7">
+        <v>4.4894999999999996</v>
+      </c>
+      <c r="S57" s="10">
+        <v>78825.09</v>
+      </c>
+      <c r="T57" t="s">
+        <v>234</v>
+      </c>
+      <c r="U57" s="10">
+        <v>13790445.57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>289</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" t="s">
+        <v>270</v>
+      </c>
+      <c r="E58">
+        <v>2021</v>
+      </c>
+      <c r="F58" s="10">
+        <v>1303518</v>
+      </c>
+      <c r="G58" s="10">
+        <v>241960</v>
+      </c>
+      <c r="H58" s="10">
+        <v>1061558</v>
+      </c>
+      <c r="I58" s="10">
+        <v>17269.96</v>
+      </c>
+      <c r="J58" s="7">
+        <v>61.47</v>
+      </c>
+      <c r="K58" s="10">
+        <v>899006</v>
+      </c>
+      <c r="L58" s="10">
+        <v>169277</v>
+      </c>
+      <c r="M58" s="10">
+        <v>18353</v>
+      </c>
+      <c r="N58" s="10">
+        <v>1549264</v>
+      </c>
+      <c r="O58" s="10">
+        <v>6500</v>
+      </c>
+      <c r="P58" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>76</v>
+      </c>
+      <c r="R58" s="7">
+        <v>4.3908100000000001</v>
+      </c>
+      <c r="S58" s="10">
+        <v>46611</v>
+      </c>
+      <c r="T58" t="s">
+        <v>48</v>
+      </c>
+      <c r="U58" s="10">
+        <v>1567842</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" t="s">
+        <v>194</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59">
+        <v>2021</v>
+      </c>
+      <c r="F59" s="10">
+        <v>3119737299.52</v>
+      </c>
+      <c r="G59" s="10">
+        <v>1390546909.24</v>
+      </c>
+      <c r="H59" s="10">
+        <v>1729190390.28</v>
+      </c>
+      <c r="I59" s="10">
+        <v>34434213.369999997</v>
+      </c>
+      <c r="J59" s="7">
+        <v>50.22</v>
+      </c>
+      <c r="K59" s="10">
+        <v>383594275.25999999</v>
+      </c>
+      <c r="L59" s="10">
+        <v>281610611.61000001</v>
+      </c>
+      <c r="M59" s="10">
+        <v>41272662.729999997</v>
+      </c>
+      <c r="N59" s="10">
+        <v>80598736.099999994</v>
+      </c>
+      <c r="O59" s="10">
+        <v>2421532.7999999998</v>
+      </c>
+      <c r="P59" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>76</v>
+      </c>
+      <c r="R59" s="7">
+        <v>4.6610699999999996</v>
+      </c>
+      <c r="S59" s="10">
+        <v>80598736.099999994</v>
+      </c>
+      <c r="T59" t="s">
+        <v>234</v>
+      </c>
+      <c r="U59" s="10">
+        <v>1738841967.9400001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60">
+        <v>2021</v>
+      </c>
+      <c r="F60" s="10">
+        <v>54378104</v>
+      </c>
+      <c r="G60" s="10">
+        <v>18215453</v>
+      </c>
+      <c r="H60" s="10">
+        <v>36162651</v>
+      </c>
+      <c r="I60" s="10">
+        <v>660252.72</v>
+      </c>
+      <c r="J60" s="7">
+        <v>54.77</v>
+      </c>
+      <c r="K60" s="10">
+        <v>16047658</v>
+      </c>
+      <c r="L60" s="10">
+        <v>3051516</v>
+      </c>
+      <c r="M60" s="10">
+        <v>779252</v>
+      </c>
+      <c r="N60" s="10">
+        <v>65623778</v>
+      </c>
+      <c r="O60" s="10">
+        <v>3258283</v>
+      </c>
+      <c r="P60" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>76</v>
+      </c>
+      <c r="R60" s="7">
+        <v>4.3907699999999998</v>
+      </c>
+      <c r="S60" s="10">
+        <v>1587819</v>
+      </c>
+      <c r="T60" t="s">
+        <v>48</v>
+      </c>
+      <c r="U60" s="10">
+        <v>46081270</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" t="s">
+        <v>270</v>
+      </c>
+      <c r="E61">
+        <v>2021</v>
+      </c>
+      <c r="F61" s="10">
+        <v>1148091063</v>
+      </c>
+      <c r="G61" s="10">
+        <v>493373367</v>
+      </c>
+      <c r="H61" s="10">
+        <v>654717696</v>
+      </c>
+      <c r="I61" s="10">
+        <v>12728645.59</v>
+      </c>
+      <c r="J61" s="7">
+        <v>51.44</v>
+      </c>
+      <c r="K61" s="10">
+        <v>144513665</v>
+      </c>
+      <c r="L61" s="10">
+        <v>32292153</v>
+      </c>
+      <c r="M61" s="10">
+        <v>0</v>
+      </c>
+      <c r="N61" s="10">
+        <v>0</v>
+      </c>
+      <c r="O61" s="10">
+        <v>11557644</v>
+      </c>
+      <c r="P61" s="10">
+        <v>489469522</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>161</v>
+      </c>
+      <c r="R61" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S61" s="10">
+        <v>153486335</v>
+      </c>
+      <c r="T61" t="s">
+        <v>48</v>
+      </c>
+      <c r="U61" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" t="s">
+        <v>314</v>
+      </c>
+      <c r="E62">
+        <v>2021</v>
+      </c>
+      <c r="F62" s="10">
+        <v>842846.48</v>
+      </c>
+      <c r="G62" s="10">
+        <v>0</v>
+      </c>
+      <c r="H62" s="10">
+        <v>842846.48</v>
+      </c>
+      <c r="I62" s="10">
+        <v>18126.97</v>
+      </c>
+      <c r="J62" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="K62" s="10">
+        <v>1109254.28</v>
+      </c>
+      <c r="L62" s="10">
+        <v>61813</v>
+      </c>
+      <c r="M62" s="10">
+        <v>537020.02</v>
+      </c>
+      <c r="N62" s="10">
+        <v>37598.89</v>
+      </c>
+      <c r="O62" s="10">
+        <v>0</v>
+      </c>
+      <c r="P62" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>76</v>
+      </c>
+      <c r="R62" s="7">
+        <v>4.4609399999999999</v>
+      </c>
+      <c r="S62" s="10">
+        <v>37598.89</v>
+      </c>
+      <c r="T62" t="s">
+        <v>234</v>
+      </c>
+      <c r="U62" s="10">
+        <v>30203899.07</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63" t="s">
+        <v>319</v>
+      </c>
+      <c r="E63">
+        <v>2021</v>
+      </c>
+      <c r="F63" s="10">
+        <v>655339517</v>
+      </c>
+      <c r="G63" s="10">
+        <v>233731951</v>
+      </c>
+      <c r="H63" s="10">
+        <v>421607566</v>
+      </c>
+      <c r="I63" s="10">
+        <v>7598329.0099999998</v>
+      </c>
+      <c r="J63" s="7">
+        <v>55.49</v>
+      </c>
+      <c r="K63" s="10">
+        <v>147391440</v>
+      </c>
+      <c r="L63" s="10">
+        <v>7877344</v>
+      </c>
+      <c r="M63" s="10">
+        <v>0</v>
+      </c>
+      <c r="N63" s="10">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10">
+        <v>187048</v>
+      </c>
+      <c r="P63" s="10">
+        <v>266525830</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>161</v>
+      </c>
+      <c r="R63" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S63" s="10">
+        <v>83576344</v>
+      </c>
+      <c r="T63" t="s">
+        <v>48</v>
+      </c>
+      <c r="U63" s="10">
+        <v>0</v>
+      </c>
+      <c r="V63" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" t="s">
+        <v>181</v>
+      </c>
+      <c r="E64">
+        <v>2021</v>
+      </c>
+      <c r="F64" s="10">
+        <v>7608606.2699999996</v>
+      </c>
+      <c r="G64" s="10">
+        <v>0</v>
+      </c>
+      <c r="H64" s="10">
+        <v>7608606.2699999996</v>
+      </c>
+      <c r="I64" s="10">
+        <v>153054.88</v>
+      </c>
+      <c r="J64" s="7">
+        <v>49.71</v>
+      </c>
+      <c r="K64" s="10">
+        <v>3114630</v>
+      </c>
+      <c r="L64" s="10">
+        <v>282236.96999999997</v>
+      </c>
+      <c r="M64" s="10">
+        <v>771121.09</v>
+      </c>
+      <c r="N64" s="10">
+        <v>351958.93</v>
+      </c>
+      <c r="O64" s="10">
+        <v>365910.34</v>
+      </c>
+      <c r="P64" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>76</v>
+      </c>
+      <c r="R64" s="7">
+        <v>4.6257999999999999</v>
+      </c>
+      <c r="S64" s="10">
+        <v>351958.93</v>
+      </c>
+      <c r="T64" t="s">
+        <v>234</v>
+      </c>
+      <c r="U64" s="10">
+        <v>40640015.159999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" t="s">
+        <v>270</v>
+      </c>
+      <c r="E65">
+        <v>2021</v>
+      </c>
+      <c r="F65" s="10">
+        <v>1910899</v>
+      </c>
+      <c r="G65" s="10">
+        <v>336502</v>
+      </c>
+      <c r="H65" s="10">
+        <v>1574397</v>
+      </c>
+      <c r="I65" s="10">
+        <v>26416.5</v>
+      </c>
+      <c r="J65" s="7">
+        <v>59.6</v>
+      </c>
+      <c r="K65" s="10">
+        <v>851972</v>
+      </c>
+      <c r="L65" s="10">
+        <v>243240</v>
+      </c>
+      <c r="M65" s="10">
+        <v>0</v>
+      </c>
+      <c r="N65" s="10">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10">
+        <v>0</v>
+      </c>
+      <c r="P65" s="10">
+        <v>479185</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>161</v>
+      </c>
+      <c r="R65" s="7">
+        <v>31.357620000000001</v>
+      </c>
+      <c r="S65" s="10">
+        <v>150261</v>
+      </c>
+      <c r="T65" t="s">
+        <v>48</v>
+      </c>
+      <c r="U65" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>243</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>302</v>
+      </c>
+      <c r="E66">
+        <v>2021</v>
+      </c>
+      <c r="F66" s="10">
+        <v>1781634536.55</v>
+      </c>
+      <c r="G66" s="10">
+        <v>845617214.5</v>
+      </c>
+      <c r="H66" s="10">
+        <v>936017322.04999995</v>
+      </c>
+      <c r="I66" s="10">
+        <v>18889679.559999999</v>
+      </c>
+      <c r="J66" s="7">
+        <v>49.55</v>
+      </c>
+      <c r="K66" s="10">
+        <v>216672382.30000001</v>
+      </c>
+      <c r="L66" s="10">
+        <v>46537927.43</v>
+      </c>
+      <c r="M66" s="10">
+        <v>79166607.209999993</v>
+      </c>
+      <c r="N66" s="10">
+        <v>42812115.850000001</v>
+      </c>
+      <c r="O66" s="10">
+        <v>0</v>
+      </c>
+      <c r="P66" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>76</v>
+      </c>
+      <c r="R66" s="7">
+        <v>4.5738599999999998</v>
+      </c>
+      <c r="S66" s="10">
+        <v>42812115.850000001</v>
+      </c>
+      <c r="T66" t="s">
+        <v>234</v>
+      </c>
+      <c r="U66" s="10">
+        <v>4084516520.5799999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>265</v>
+      </c>
+      <c r="B67" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67">
+        <v>2021</v>
+      </c>
+      <c r="F67" s="10">
+        <v>647983.15</v>
+      </c>
+      <c r="G67" s="10">
+        <v>0</v>
+      </c>
+      <c r="H67" s="10">
+        <v>650200.94999999995</v>
+      </c>
+      <c r="I67" s="10">
+        <v>12282.65</v>
+      </c>
+      <c r="J67" s="7">
+        <v>52.94</v>
+      </c>
+      <c r="K67" s="10">
+        <v>214117</v>
+      </c>
+      <c r="L67" s="10">
+        <v>2137.54</v>
+      </c>
+      <c r="M67" s="10">
+        <v>169049.77</v>
+      </c>
+      <c r="N67" s="10">
+        <v>35102.800000000003</v>
+      </c>
+      <c r="O67" s="10">
+        <v>0</v>
+      </c>
+      <c r="P67" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>76</v>
+      </c>
+      <c r="R67" s="7">
+        <v>5.3987600000000002</v>
+      </c>
+      <c r="S67" s="10">
+        <v>35102.800000000003</v>
+      </c>
+      <c r="T67" t="s">
+        <v>234</v>
+      </c>
+      <c r="U67" s="10">
+        <v>11641054.359999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" t="s">
+        <v>266</v>
+      </c>
+      <c r="D68" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68">
+        <v>2021</v>
+      </c>
+      <c r="F68" s="10">
+        <v>126157834.81</v>
+      </c>
+      <c r="G68" s="10">
+        <v>25643865.170000002</v>
+      </c>
+      <c r="H68" s="10">
+        <v>100513969.64</v>
+      </c>
+      <c r="I68" s="10">
+        <v>2428216.52</v>
+      </c>
+      <c r="J68" s="7">
+        <v>41.39</v>
+      </c>
+      <c r="K68" s="10">
+        <v>45766632.140000001</v>
+      </c>
+      <c r="L68" s="10">
+        <v>3208957.36</v>
+      </c>
+      <c r="M68" s="10">
+        <v>3870071.23</v>
+      </c>
+      <c r="N68" s="10">
+        <v>4652135.99</v>
+      </c>
+      <c r="O68" s="10">
+        <v>219008</v>
+      </c>
+      <c r="P68" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>76</v>
+      </c>
+      <c r="R68" s="7">
+        <v>4.6283500000000002</v>
+      </c>
+      <c r="S68" s="10">
+        <v>4652135.99</v>
+      </c>
+      <c r="T68" t="s">
+        <v>234</v>
+      </c>
+      <c r="U68" s="10">
+        <v>189249103.87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69">
+        <v>2021</v>
+      </c>
+      <c r="F69" s="10">
+        <v>0</v>
+      </c>
+      <c r="G69" s="10">
+        <v>0</v>
+      </c>
+      <c r="H69" s="10">
+        <v>0</v>
+      </c>
+      <c r="I69" s="10">
+        <v>0</v>
+      </c>
+      <c r="J69" s="7">
+        <v>0</v>
+      </c>
+      <c r="K69" s="10">
+        <v>3861</v>
+      </c>
+      <c r="L69" s="10">
+        <v>0</v>
+      </c>
+      <c r="M69" s="10">
+        <v>0</v>
+      </c>
+      <c r="N69" s="10">
+        <v>0</v>
+      </c>
+      <c r="O69" s="10">
+        <v>0</v>
+      </c>
+      <c r="P69" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>76</v>
+      </c>
+      <c r="R69" s="7">
+        <v>0</v>
+      </c>
+      <c r="S69" s="10">
+        <v>0</v>
+      </c>
+      <c r="T69" t="s">
+        <v>234</v>
+      </c>
+      <c r="U69" s="10">
+        <v>2806568.34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70">
+        <v>2021</v>
+      </c>
+      <c r="F70" s="10">
+        <v>8835105339.4699993</v>
+      </c>
+      <c r="G70" s="10">
+        <v>3481688851.3400002</v>
+      </c>
+      <c r="H70" s="10">
+        <v>5353416488.1300001</v>
+      </c>
+      <c r="I70" s="10">
+        <v>94844213.040000007</v>
+      </c>
+      <c r="J70" s="7">
+        <v>56.44</v>
+      </c>
+      <c r="K70" s="10">
+        <v>2603224299.02</v>
+      </c>
+      <c r="L70" s="10">
+        <v>148511769.16999999</v>
+      </c>
+      <c r="M70" s="10">
+        <v>572786483.04999995</v>
+      </c>
+      <c r="N70" s="10">
+        <v>248368428.09999999</v>
+      </c>
+      <c r="O70" s="10">
+        <v>237.94</v>
+      </c>
+      <c r="P70" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>76</v>
+      </c>
+      <c r="R70" s="7">
+        <v>4.6394399999999996</v>
+      </c>
+      <c r="S70" s="10">
+        <v>248368428.09999999</v>
+      </c>
+      <c r="T70" t="s">
+        <v>234</v>
+      </c>
+      <c r="U70" s="10">
+        <v>30749723543.790001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" t="s">
+        <v>270</v>
+      </c>
+      <c r="E71">
+        <v>2021</v>
+      </c>
+      <c r="F71" s="10">
+        <v>911835</v>
+      </c>
+      <c r="G71" s="10">
+        <v>151230</v>
+      </c>
+      <c r="H71" s="10">
+        <v>760605</v>
+      </c>
+      <c r="I71" s="10">
+        <v>12638.79</v>
+      </c>
+      <c r="J71" s="7">
+        <v>60.18</v>
+      </c>
+      <c r="K71" s="10">
+        <v>789421</v>
+      </c>
+      <c r="L71" s="10">
+        <v>797449</v>
+      </c>
+      <c r="M71" s="10">
+        <v>2403</v>
+      </c>
+      <c r="N71" s="10">
+        <v>412223</v>
+      </c>
+      <c r="O71" s="10">
+        <v>0</v>
+      </c>
+      <c r="P71" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>76</v>
+      </c>
+      <c r="R71" s="7">
+        <v>4.39072</v>
+      </c>
+      <c r="S71" s="10">
+        <v>33396</v>
+      </c>
+      <c r="T71" t="s">
+        <v>48</v>
+      </c>
+      <c r="U71" s="10">
+        <v>1240891</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" t="s">
+        <v>270</v>
+      </c>
+      <c r="E72">
+        <v>2021</v>
+      </c>
+      <c r="F72" s="10">
+        <v>5257942.9400000004</v>
+      </c>
+      <c r="G72" s="10">
+        <v>775954</v>
+      </c>
+      <c r="H72" s="10">
+        <v>4481988.9400000004</v>
+      </c>
+      <c r="I72" s="10">
+        <v>74049.52</v>
+      </c>
+      <c r="J72" s="7">
+        <v>60.53</v>
+      </c>
+      <c r="K72" s="10">
+        <v>2396017.0099999998</v>
+      </c>
+      <c r="L72" s="10">
+        <v>454383.69</v>
+      </c>
+      <c r="M72" s="10">
+        <v>561952.37</v>
+      </c>
+      <c r="N72" s="10">
+        <v>204386.32</v>
+      </c>
+      <c r="O72" s="10">
+        <v>0</v>
+      </c>
+      <c r="P72" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>76</v>
+      </c>
+      <c r="R72" s="7">
+        <v>4.5601700000000003</v>
+      </c>
+      <c r="S72" s="10">
+        <v>204386.32</v>
+      </c>
+      <c r="T72" t="s">
+        <v>234</v>
+      </c>
+      <c r="U72" s="10">
+        <v>30724872.449999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" t="s">
+        <v>229</v>
+      </c>
+      <c r="D73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E73">
+        <v>2021</v>
+      </c>
+      <c r="F73" s="10">
+        <v>1043744591.26</v>
+      </c>
+      <c r="G73" s="10">
+        <v>0</v>
+      </c>
+      <c r="H73" s="10">
+        <v>1043744591.26</v>
+      </c>
+      <c r="I73" s="10">
+        <v>20685098.73</v>
+      </c>
+      <c r="J73" s="7">
+        <v>50.46</v>
+      </c>
+      <c r="K73" s="10">
+        <v>363904640.94</v>
+      </c>
+      <c r="L73" s="10">
+        <v>44997140.560000002</v>
+      </c>
+      <c r="M73" s="10">
+        <v>2782045.79</v>
+      </c>
+      <c r="N73" s="10">
+        <v>30857377.870000001</v>
+      </c>
+      <c r="O73" s="10">
+        <v>13125</v>
+      </c>
+      <c r="P73" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>76</v>
+      </c>
+      <c r="R73" s="7">
+        <v>2.95641</v>
+      </c>
+      <c r="S73" s="10">
+        <v>30857377.870000001</v>
+      </c>
+      <c r="T73" t="s">
+        <v>234</v>
+      </c>
+      <c r="U73" s="10">
+        <v>64153280.020000003</v>
+      </c>
+      <c r="V73" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" t="s">
+        <v>229</v>
+      </c>
+      <c r="D74" t="s">
+        <v>270</v>
+      </c>
+      <c r="E74">
+        <v>2021</v>
+      </c>
+      <c r="F74" s="10">
+        <v>1970406028</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0</v>
+      </c>
+      <c r="H74" s="10">
+        <v>1970406028</v>
+      </c>
+      <c r="I74" s="10">
+        <v>30297057.079999998</v>
+      </c>
+      <c r="J74" s="7">
+        <v>65.040000000000006</v>
+      </c>
+      <c r="K74" s="10">
+        <v>505745869</v>
+      </c>
+      <c r="L74" s="10">
+        <v>88469468</v>
+      </c>
+      <c r="M74" s="10">
+        <v>0</v>
+      </c>
+      <c r="N74" s="10">
+        <v>64262341</v>
+      </c>
+      <c r="O74" s="10">
+        <v>47985</v>
+      </c>
+      <c r="P74" s="10">
+        <v>1311976335</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>161</v>
+      </c>
+      <c r="R74" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S74" s="10">
+        <v>411405472</v>
+      </c>
+      <c r="T74" t="s">
+        <v>48</v>
+      </c>
+      <c r="U74" s="10">
+        <v>0</v>
+      </c>
+      <c r="V74" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75">
+        <v>2021</v>
+      </c>
+      <c r="F75" s="10">
+        <v>6624073</v>
+      </c>
+      <c r="G75" s="10">
+        <v>0</v>
+      </c>
+      <c r="H75" s="10">
+        <v>6624073</v>
+      </c>
+      <c r="I75" s="10">
+        <v>103547.38</v>
+      </c>
+      <c r="J75" s="7">
+        <v>63.97</v>
+      </c>
+      <c r="K75" s="10">
+        <v>2352656</v>
+      </c>
+      <c r="L75" s="10">
+        <v>376719</v>
+      </c>
+      <c r="M75" s="10">
+        <v>199268</v>
+      </c>
+      <c r="N75" s="10">
+        <v>16755219</v>
+      </c>
+      <c r="O75" s="10">
+        <v>0</v>
+      </c>
+      <c r="P75" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>76</v>
+      </c>
+      <c r="R75" s="7">
+        <v>4.3907699999999998</v>
+      </c>
+      <c r="S75" s="10">
+        <v>290848</v>
+      </c>
+      <c r="T75" t="s">
+        <v>48</v>
+      </c>
+      <c r="U75" s="10">
+        <v>13059789</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>237</v>
+      </c>
+      <c r="B76" t="s">
+        <v>195</v>
+      </c>
+      <c r="D76" t="s">
+        <v>302</v>
+      </c>
+      <c r="E76">
+        <v>2021</v>
+      </c>
+      <c r="F76" s="10">
+        <v>12229477.140000001</v>
+      </c>
+      <c r="G76" s="10">
+        <v>2227956.2599999998</v>
+      </c>
+      <c r="H76" s="10">
+        <v>10001520.880000001</v>
+      </c>
+      <c r="I76" s="10">
+        <v>168080.99</v>
+      </c>
+      <c r="J76" s="7">
+        <v>59.5</v>
+      </c>
+      <c r="K76" s="10">
+        <v>5347387.5599999996</v>
+      </c>
+      <c r="L76" s="10">
+        <v>270634.87</v>
+      </c>
+      <c r="M76" s="10">
+        <v>773719.99</v>
+      </c>
+      <c r="N76" s="10">
+        <v>484563.67</v>
+      </c>
+      <c r="O76" s="10">
+        <v>271919.34999999998</v>
+      </c>
+      <c r="P76" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>76</v>
+      </c>
+      <c r="R76" s="7">
+        <v>4.8449</v>
+      </c>
+      <c r="S76" s="10">
+        <v>484563.67</v>
+      </c>
+      <c r="T76" t="s">
+        <v>234</v>
+      </c>
+      <c r="U76" s="10">
+        <v>40933998.670000002</v>
+      </c>
+      <c r="V76" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" t="s">
+        <v>270</v>
+      </c>
+      <c r="E77">
+        <v>2021</v>
+      </c>
+      <c r="F77" s="10">
+        <v>798134865</v>
+      </c>
+      <c r="G77" s="10">
+        <v>115607977</v>
+      </c>
+      <c r="H77" s="10">
+        <v>682526888</v>
+      </c>
+      <c r="I77" s="10">
+        <v>10997112.550000001</v>
+      </c>
+      <c r="J77" s="7">
+        <v>62.06</v>
+      </c>
+      <c r="K77" s="10">
+        <v>75522475</v>
+      </c>
+      <c r="L77" s="10">
+        <v>53121009</v>
+      </c>
+      <c r="M77" s="10">
+        <v>0</v>
+      </c>
+      <c r="N77" s="10">
+        <v>0</v>
+      </c>
+      <c r="O77" s="10">
+        <v>5449685</v>
+      </c>
+      <c r="P77" s="10">
+        <v>559333089</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>161</v>
+      </c>
+      <c r="R77" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S77" s="10">
+        <v>175393936</v>
+      </c>
+      <c r="T77" t="s">
+        <v>48</v>
+      </c>
+      <c r="U77" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" t="s">
+        <v>316</v>
+      </c>
+      <c r="E78">
+        <v>2021</v>
+      </c>
+      <c r="F78" s="10">
+        <v>0</v>
+      </c>
+      <c r="G78" s="10">
+        <v>0</v>
+      </c>
+      <c r="H78" s="10">
+        <v>0</v>
+      </c>
+      <c r="I78" s="10">
+        <v>0</v>
+      </c>
+      <c r="J78" s="7">
+        <v>0</v>
+      </c>
+      <c r="K78" s="10">
+        <v>28359.74</v>
+      </c>
+      <c r="L78" s="10">
+        <v>0</v>
+      </c>
+      <c r="M78" s="10">
+        <v>0</v>
+      </c>
+      <c r="N78" s="10">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10">
+        <v>0</v>
+      </c>
+      <c r="P78" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>76</v>
+      </c>
+      <c r="R78" s="7">
+        <v>0</v>
+      </c>
+      <c r="S78" s="10">
+        <v>0</v>
+      </c>
+      <c r="T78" t="s">
+        <v>234</v>
+      </c>
+      <c r="U78" s="10">
+        <v>31577038.670000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" t="s">
+        <v>263</v>
+      </c>
+      <c r="D79" t="s">
+        <v>314</v>
+      </c>
+      <c r="E79">
+        <v>2021</v>
+      </c>
+      <c r="F79" s="10">
+        <v>18475256</v>
+      </c>
+      <c r="G79" s="10">
+        <v>0</v>
+      </c>
+      <c r="H79" s="10">
+        <v>18475256</v>
+      </c>
+      <c r="I79" s="10">
+        <v>383380.95</v>
+      </c>
+      <c r="J79" s="7">
+        <v>48.19</v>
+      </c>
+      <c r="K79" s="10">
+        <v>3294618</v>
+      </c>
+      <c r="L79" s="10">
+        <v>9209216</v>
+      </c>
+      <c r="M79" s="10">
+        <v>109004</v>
+      </c>
+      <c r="N79" s="10">
+        <v>9163263</v>
+      </c>
+      <c r="O79" s="10">
+        <v>0</v>
+      </c>
+      <c r="P79" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>76</v>
+      </c>
+      <c r="R79" s="7">
+        <v>4.3907699999999998</v>
+      </c>
+      <c r="S79" s="10">
+        <v>811206</v>
+      </c>
+      <c r="T79" t="s">
+        <v>48</v>
+      </c>
+      <c r="U79" s="10">
+        <v>3300845</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" t="s">
+        <v>199</v>
+      </c>
+      <c r="E80">
+        <v>2021</v>
+      </c>
+      <c r="F80" s="10">
+        <v>101883855.88</v>
+      </c>
+      <c r="G80" s="10">
+        <v>26502341.559999999</v>
+      </c>
+      <c r="H80" s="10">
+        <v>75381514.319999993</v>
+      </c>
+      <c r="I80" s="10">
+        <v>1953585.95</v>
+      </c>
+      <c r="J80" s="7">
+        <v>38.590000000000003</v>
+      </c>
+      <c r="K80" s="10">
+        <v>40660542.079999998</v>
+      </c>
+      <c r="L80" s="10">
+        <v>19449652</v>
+      </c>
+      <c r="M80" s="10">
+        <v>7827118.1799999997</v>
+      </c>
+      <c r="N80" s="10">
+        <v>3394069.67</v>
+      </c>
+      <c r="O80" s="10">
+        <v>2747129.29</v>
+      </c>
+      <c r="P80" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>76</v>
+      </c>
+      <c r="R80" s="7">
+        <v>4.5025199999999996</v>
+      </c>
+      <c r="S80" s="10">
+        <v>3394069.67</v>
+      </c>
+      <c r="T80" t="s">
+        <v>234</v>
+      </c>
+      <c r="U80" s="10">
+        <v>434572985.98000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" t="s">
+        <v>146</v>
+      </c>
+      <c r="D81" t="s">
+        <v>239</v>
+      </c>
+      <c r="E81">
+        <v>2021</v>
+      </c>
+      <c r="F81" s="10">
+        <v>547642354.5</v>
+      </c>
+      <c r="G81" s="10">
+        <v>219130144.40000001</v>
+      </c>
+      <c r="H81" s="10">
+        <v>328512210.10000002</v>
+      </c>
+      <c r="I81" s="10">
+        <v>6467378.4299999997</v>
+      </c>
+      <c r="J81" s="7">
+        <v>50.8</v>
+      </c>
+      <c r="K81" s="10">
+        <v>97322124.700000003</v>
+      </c>
+      <c r="L81" s="10">
+        <v>72911512.540000007</v>
+      </c>
+      <c r="M81" s="10">
+        <v>30127924.329999998</v>
+      </c>
+      <c r="N81" s="10">
+        <v>15307475.4</v>
+      </c>
+      <c r="O81" s="10">
+        <v>397072.04</v>
+      </c>
+      <c r="P81" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>76</v>
+      </c>
+      <c r="R81" s="7">
+        <v>4.6596399999999996</v>
+      </c>
+      <c r="S81" s="10">
+        <v>15307475.4</v>
+      </c>
+      <c r="T81" t="s">
+        <v>234</v>
+      </c>
+      <c r="U81" s="10">
+        <v>1596260941.9200001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" t="s">
+        <v>181</v>
+      </c>
+      <c r="E82">
+        <v>2021</v>
+      </c>
+      <c r="F82" s="10">
+        <v>46325302.600000001</v>
+      </c>
+      <c r="G82" s="10">
+        <v>0</v>
+      </c>
+      <c r="H82" s="10">
+        <v>46325302.600000001</v>
+      </c>
+      <c r="I82" s="10">
+        <v>1008428.03</v>
+      </c>
+      <c r="J82" s="7">
+        <v>45.94</v>
+      </c>
+      <c r="K82" s="10">
+        <v>7640465</v>
+      </c>
+      <c r="L82" s="10">
+        <v>1620289.12</v>
+      </c>
+      <c r="M82" s="10">
+        <v>332388.17</v>
+      </c>
+      <c r="N82" s="10">
+        <v>1923518.47</v>
+      </c>
+      <c r="O82" s="10">
+        <v>0</v>
+      </c>
+      <c r="P82" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>76</v>
+      </c>
+      <c r="R82" s="7">
+        <v>4.1521999999999997</v>
+      </c>
+      <c r="S82" s="10">
+        <v>1923518.47</v>
+      </c>
+      <c r="T82" t="s">
+        <v>234</v>
+      </c>
+      <c r="U82" s="10">
+        <v>2453740.0499999998</v>
+      </c>
+      <c r="V82" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" t="s">
+        <v>181</v>
+      </c>
+      <c r="E83">
+        <v>2021</v>
+      </c>
+      <c r="F83" s="10">
+        <v>9734414</v>
+      </c>
+      <c r="G83" s="10">
+        <v>0</v>
+      </c>
+      <c r="H83" s="10">
+        <v>9734414</v>
+      </c>
+      <c r="I83" s="10">
+        <v>169476.63</v>
+      </c>
+      <c r="J83" s="7">
+        <v>57.44</v>
+      </c>
+      <c r="K83" s="10">
+        <v>1329037</v>
+      </c>
+      <c r="L83" s="10">
+        <v>3918525</v>
+      </c>
+      <c r="M83" s="10">
+        <v>0</v>
+      </c>
+      <c r="N83" s="10">
+        <v>2457666</v>
+      </c>
+      <c r="O83" s="10">
+        <v>0</v>
+      </c>
+      <c r="P83" s="10">
+        <v>2029186</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>161</v>
+      </c>
+      <c r="R83" s="7">
+        <v>31.357700000000001</v>
+      </c>
+      <c r="S83" s="10">
+        <v>636306</v>
+      </c>
+      <c r="T83" t="s">
+        <v>48</v>
+      </c>
+      <c r="U83" s="10">
+        <v>0</v>
+      </c>
+      <c r="V83" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>270</v>
+      </c>
+      <c r="E84">
+        <v>2021</v>
+      </c>
+      <c r="F84" s="10">
+        <v>728528588.17999995</v>
+      </c>
+      <c r="G84" s="10">
+        <v>308237095.13</v>
+      </c>
+      <c r="H84" s="10">
+        <v>420291493.05000001</v>
+      </c>
+      <c r="I84" s="10">
+        <v>8217653.2000000002</v>
+      </c>
+      <c r="J84" s="7">
+        <v>51.14</v>
+      </c>
+      <c r="K84" s="10">
+        <v>131356933.95999999</v>
+      </c>
+      <c r="L84" s="10">
+        <v>38859248.200000003</v>
+      </c>
+      <c r="M84" s="10">
+        <v>11602575.789999999</v>
+      </c>
+      <c r="N84" s="10">
+        <v>19283553.440000001</v>
+      </c>
+      <c r="O84" s="10">
+        <v>200000</v>
+      </c>
+      <c r="P84" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>76</v>
+      </c>
+      <c r="R84" s="7">
+        <v>4.5881400000000001</v>
+      </c>
+      <c r="S84" s="10">
+        <v>19283553.440000001</v>
+      </c>
+      <c r="T84" t="s">
+        <v>234</v>
+      </c>
+      <c r="U84" s="10">
+        <v>524160506.31999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>306</v>
+      </c>
+      <c r="B85" t="s">
+        <v>307</v>
+      </c>
+      <c r="D85" t="s">
+        <v>317</v>
+      </c>
+      <c r="E85">
+        <v>2021</v>
+      </c>
+      <c r="F85" s="10">
+        <v>26996261.34</v>
+      </c>
+      <c r="G85" s="10">
+        <v>7936692.6500000004</v>
+      </c>
+      <c r="H85" s="10">
+        <v>19059568.690000001</v>
+      </c>
+      <c r="I85" s="10">
+        <v>450370.46</v>
+      </c>
+      <c r="J85" s="7">
+        <v>42.32</v>
+      </c>
+      <c r="K85" s="10">
+        <v>23841767.280000001</v>
+      </c>
+      <c r="L85" s="10">
+        <v>0</v>
+      </c>
+      <c r="M85" s="10">
+        <v>11790861.189999999</v>
+      </c>
+      <c r="N85" s="10">
+        <v>889365.59</v>
+      </c>
+      <c r="O85" s="10">
+        <v>0</v>
+      </c>
+      <c r="P85" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>76</v>
+      </c>
+      <c r="R85" s="7">
+        <v>4.6662400000000002</v>
+      </c>
+      <c r="S85" s="10">
+        <v>889365.59</v>
+      </c>
+      <c r="T85" t="s">
+        <v>234</v>
+      </c>
+      <c r="U85" s="10">
+        <v>664392294.90999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>154</v>
+      </c>
+      <c r="E86">
+        <v>2021</v>
+      </c>
+      <c r="F86" s="10">
+        <v>6161636.75</v>
+      </c>
+      <c r="G86" s="10">
+        <v>0</v>
+      </c>
+      <c r="H86" s="10">
+        <v>6161636.75</v>
+      </c>
+      <c r="I86" s="10">
+        <v>117956.83</v>
+      </c>
+      <c r="J86" s="7">
+        <v>52.24</v>
+      </c>
+      <c r="K86" s="10">
+        <v>1293782</v>
+      </c>
+      <c r="L86" s="10">
+        <v>17049.87</v>
+      </c>
+      <c r="M86" s="10">
+        <v>1114537.22</v>
+      </c>
+      <c r="N86" s="10">
+        <v>278570.02</v>
+      </c>
+      <c r="O86" s="10">
+        <v>0</v>
+      </c>
+      <c r="P86" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>76</v>
+      </c>
+      <c r="R86" s="7">
+        <v>4.5210400000000002</v>
+      </c>
+      <c r="S86" s="10">
+        <v>278570.02</v>
+      </c>
+      <c r="T86" t="s">
+        <v>234</v>
+      </c>
+      <c r="U86" s="10">
+        <v>60017401.530000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>181</v>
+      </c>
+      <c r="E87">
+        <v>2021</v>
+      </c>
+      <c r="F87" s="10">
+        <v>9141636.3900000006</v>
+      </c>
+      <c r="G87" s="10">
+        <v>0</v>
+      </c>
+      <c r="H87" s="10">
+        <v>9141636.3900000006</v>
+      </c>
+      <c r="I87" s="10">
+        <v>189377.41</v>
+      </c>
+      <c r="J87" s="7">
+        <v>48.27</v>
+      </c>
+      <c r="K87" s="10">
+        <v>3216323</v>
+      </c>
+      <c r="L87" s="10">
+        <v>654463.53</v>
+      </c>
+      <c r="M87" s="10">
+        <v>1319326.1499999999</v>
+      </c>
+      <c r="N87" s="10">
+        <v>418374.51</v>
+      </c>
+      <c r="O87" s="10">
+        <v>0</v>
+      </c>
+      <c r="P87" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>76</v>
+      </c>
+      <c r="R87" s="7">
+        <v>4.5765799999999999</v>
+      </c>
+      <c r="S87" s="10">
+        <v>418374.51</v>
+      </c>
+      <c r="T87" t="s">
+        <v>234</v>
+      </c>
+      <c r="U87" s="10">
+        <v>71091347.200000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" t="s">
+        <v>69</v>
+      </c>
+      <c r="D88" t="s">
+        <v>270</v>
+      </c>
+      <c r="E88">
+        <v>2021</v>
+      </c>
+      <c r="F88" s="10">
+        <v>0</v>
+      </c>
+      <c r="G88" s="10">
+        <v>0</v>
+      </c>
+      <c r="H88" s="10">
+        <v>0</v>
+      </c>
+      <c r="I88" s="10">
+        <v>0</v>
+      </c>
+      <c r="J88" s="7">
+        <v>0</v>
+      </c>
+      <c r="K88" s="10">
+        <v>1287224.1000000001</v>
+      </c>
+      <c r="L88" s="10">
+        <v>6320.83</v>
+      </c>
+      <c r="M88" s="10">
+        <v>0</v>
+      </c>
+      <c r="N88" s="10">
+        <v>0</v>
+      </c>
+      <c r="O88" s="10">
+        <v>156042.20000000001</v>
+      </c>
+      <c r="P88" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>76</v>
+      </c>
+      <c r="R88" s="7">
+        <v>0</v>
+      </c>
+      <c r="S88" s="10">
+        <v>0</v>
+      </c>
+      <c r="T88" t="s">
+        <v>234</v>
+      </c>
+      <c r="U88" s="10">
+        <v>562904315.80999994</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" t="s">
+        <v>127</v>
+      </c>
+      <c r="D89" t="s">
+        <v>311</v>
+      </c>
+      <c r="E89">
+        <v>2021</v>
+      </c>
+      <c r="F89" s="10">
+        <v>14793150.359999999</v>
+      </c>
+      <c r="G89" s="10">
+        <v>0</v>
+      </c>
+      <c r="H89" s="10">
+        <v>14793150.359999999</v>
+      </c>
+      <c r="I89" s="10">
+        <v>259906.99</v>
+      </c>
+      <c r="J89" s="7">
+        <v>56.92</v>
+      </c>
+      <c r="K89" s="10">
+        <v>8156328.4900000002</v>
+      </c>
+      <c r="L89" s="10">
+        <v>47775.26</v>
+      </c>
+      <c r="M89" s="10">
+        <v>1760840.17</v>
+      </c>
+      <c r="N89" s="10">
+        <v>696834.71</v>
+      </c>
+      <c r="O89" s="10">
+        <v>0</v>
+      </c>
+      <c r="P89" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>76</v>
+      </c>
+      <c r="R89" s="7">
+        <v>4.7105199999999998</v>
+      </c>
+      <c r="S89" s="10">
+        <v>696834.71</v>
+      </c>
+      <c r="T89" t="s">
+        <v>234</v>
+      </c>
+      <c r="U89" s="10">
+        <v>95314170.599999994</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>245</v>
+      </c>
+      <c r="B90" t="s">
+        <v>257</v>
+      </c>
+      <c r="D90" t="s">
+        <v>270</v>
+      </c>
+      <c r="E90">
+        <v>2021</v>
+      </c>
+      <c r="F90" s="10">
+        <v>1202468636</v>
+      </c>
+      <c r="G90" s="10">
+        <v>491870252</v>
+      </c>
+      <c r="H90" s="10">
+        <v>710598384</v>
+      </c>
+      <c r="I90" s="10">
+        <v>13594732.710000001</v>
+      </c>
+      <c r="J90" s="7">
+        <v>52.27</v>
+      </c>
+      <c r="K90" s="10">
+        <v>137356244</v>
+      </c>
+      <c r="L90" s="10">
+        <v>6193998</v>
+      </c>
+      <c r="M90" s="10">
+        <v>0</v>
+      </c>
+      <c r="N90" s="10">
+        <v>0</v>
+      </c>
+      <c r="O90" s="10">
+        <v>0</v>
+      </c>
+      <c r="P90" s="10">
+        <v>567048142</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>161</v>
+      </c>
+      <c r="R90" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S90" s="10">
+        <v>177813199</v>
+      </c>
+      <c r="T90" t="s">
+        <v>48</v>
+      </c>
+      <c r="U90" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" t="s">
+        <v>270</v>
+      </c>
+      <c r="E91">
+        <v>2021</v>
+      </c>
+      <c r="F91" s="10">
+        <v>138643067</v>
+      </c>
+      <c r="G91" s="10">
+        <v>54014236</v>
+      </c>
+      <c r="H91" s="10">
+        <v>84628831</v>
+      </c>
+      <c r="I91" s="10">
+        <v>1625980.93</v>
+      </c>
+      <c r="J91" s="7">
+        <v>52.05</v>
+      </c>
+      <c r="K91" s="10">
+        <v>23954170</v>
+      </c>
+      <c r="L91" s="10">
+        <v>10014418</v>
+      </c>
+      <c r="M91" s="10">
+        <v>0</v>
+      </c>
+      <c r="N91" s="10">
+        <v>0</v>
+      </c>
+      <c r="O91" s="10">
+        <v>1021244</v>
+      </c>
+      <c r="P91" s="10">
+        <v>51681487</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>161</v>
+      </c>
+      <c r="R91" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S91" s="10">
+        <v>16206120</v>
+      </c>
+      <c r="T91" t="s">
+        <v>48</v>
+      </c>
+      <c r="U91" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>227</v>
+      </c>
+      <c r="B92" t="s">
+        <v>83</v>
+      </c>
+      <c r="D92" t="s">
+        <v>270</v>
+      </c>
+      <c r="E92">
+        <v>2021</v>
+      </c>
+      <c r="F92" s="10">
+        <v>0</v>
+      </c>
+      <c r="G92" s="10">
+        <v>0</v>
+      </c>
+      <c r="H92" s="10">
+        <v>0</v>
+      </c>
+      <c r="I92" s="10">
+        <v>0</v>
+      </c>
+      <c r="J92" s="7">
+        <v>0</v>
+      </c>
+      <c r="K92" s="10">
+        <v>88074.33</v>
+      </c>
+      <c r="L92" s="10">
+        <v>5059.8100000000004</v>
+      </c>
+      <c r="M92" s="10">
+        <v>0</v>
+      </c>
+      <c r="N92" s="10">
+        <v>0</v>
+      </c>
+      <c r="O92" s="10">
+        <v>0</v>
+      </c>
+      <c r="P92" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>76</v>
+      </c>
+      <c r="R92" s="7">
+        <v>0</v>
+      </c>
+      <c r="S92" s="10">
+        <v>0</v>
+      </c>
+      <c r="T92" t="s">
+        <v>234</v>
+      </c>
+      <c r="U92" s="10">
+        <v>148934639.63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>276</v>
+      </c>
+      <c r="B93" t="s">
+        <v>167</v>
+      </c>
+      <c r="D93" t="s">
+        <v>270</v>
+      </c>
+      <c r="E93">
+        <v>2021</v>
+      </c>
+      <c r="F93" s="10">
+        <v>27150202</v>
+      </c>
+      <c r="G93" s="10">
+        <v>5100385</v>
+      </c>
+      <c r="H93" s="10">
+        <v>22049817</v>
+      </c>
+      <c r="I93" s="10">
+        <v>357048.14</v>
+      </c>
+      <c r="J93" s="7">
+        <v>61.76</v>
+      </c>
+      <c r="K93" s="10">
+        <v>7022577</v>
+      </c>
+      <c r="L93" s="10">
+        <v>2773312</v>
+      </c>
+      <c r="M93" s="10">
+        <v>0</v>
+      </c>
+      <c r="N93" s="10">
+        <v>0</v>
+      </c>
+      <c r="O93" s="10">
+        <v>36000</v>
+      </c>
+      <c r="P93" s="10">
+        <v>12289928</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>161</v>
+      </c>
+      <c r="R93" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S93" s="10">
+        <v>3853838</v>
+      </c>
+      <c r="T93" t="s">
+        <v>48</v>
+      </c>
+      <c r="U93" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>209</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>104</v>
+      </c>
+      <c r="E94">
+        <v>2021</v>
+      </c>
+      <c r="F94" s="10">
+        <v>598836299.59000003</v>
+      </c>
+      <c r="G94" s="10">
+        <v>412972953.16000003</v>
+      </c>
+      <c r="H94" s="10">
+        <v>185863346.43000001</v>
+      </c>
+      <c r="I94" s="10">
+        <v>4457879.38</v>
+      </c>
+      <c r="J94" s="7">
+        <v>41.69</v>
+      </c>
+      <c r="K94" s="10">
+        <v>130380117.28</v>
+      </c>
+      <c r="L94" s="10">
+        <v>3595238.65</v>
+      </c>
+      <c r="M94" s="10">
+        <v>62403475.869999997</v>
+      </c>
+      <c r="N94" s="10">
+        <v>8460795.5500000007</v>
+      </c>
+      <c r="O94" s="10">
+        <v>0</v>
+      </c>
+      <c r="P94" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>76</v>
+      </c>
+      <c r="R94" s="7">
+        <v>4.5521599999999998</v>
+      </c>
+      <c r="S94" s="10">
+        <v>8460795.5500000007</v>
+      </c>
+      <c r="T94" t="s">
+        <v>234</v>
+      </c>
+      <c r="U94" s="10">
+        <v>3474775776.27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>244</v>
+      </c>
+      <c r="D95" t="s">
+        <v>270</v>
+      </c>
+      <c r="E95">
+        <v>2021</v>
+      </c>
+      <c r="F95" s="10">
+        <v>1179495333.9400001</v>
+      </c>
+      <c r="G95" s="10">
+        <v>490513953.74000001</v>
+      </c>
+      <c r="H95" s="10">
+        <v>688981380.20000005</v>
+      </c>
+      <c r="I95" s="10">
+        <v>13395337.26</v>
+      </c>
+      <c r="J95" s="7">
+        <v>51.43</v>
+      </c>
+      <c r="K95" s="10">
+        <v>129450658.59999999</v>
+      </c>
+      <c r="L95" s="10">
+        <v>22502281.899999999</v>
+      </c>
+      <c r="M95" s="10">
+        <v>4987471.01</v>
+      </c>
+      <c r="N95" s="10">
+        <v>28404746.5</v>
+      </c>
+      <c r="O95" s="10">
+        <v>0</v>
+      </c>
+      <c r="P95" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>76</v>
+      </c>
+      <c r="R95" s="7">
+        <v>4.1227200000000002</v>
+      </c>
+      <c r="S95" s="10">
+        <v>28404746.5</v>
+      </c>
+      <c r="T95" t="s">
+        <v>234</v>
+      </c>
+      <c r="U95" s="10">
+        <v>42592634.43</v>
+      </c>
+      <c r="V95" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>244</v>
+      </c>
+      <c r="D96" t="s">
+        <v>270</v>
+      </c>
+      <c r="E96">
+        <v>2021</v>
+      </c>
+      <c r="F96" s="10">
+        <v>274937930</v>
+      </c>
+      <c r="G96" s="10">
+        <v>124683989</v>
+      </c>
+      <c r="H96" s="10">
+        <v>150253941</v>
+      </c>
+      <c r="I96" s="10">
+        <v>2728498.31</v>
+      </c>
+      <c r="J96" s="7">
+        <v>55.07</v>
+      </c>
+      <c r="K96" s="10">
+        <v>26623086</v>
+      </c>
+      <c r="L96" s="10">
+        <v>2791386</v>
+      </c>
+      <c r="M96" s="10">
+        <v>0</v>
+      </c>
+      <c r="N96" s="10">
+        <v>42660783</v>
+      </c>
+      <c r="O96" s="10">
+        <v>0</v>
+      </c>
+      <c r="P96" s="10">
+        <v>78178686</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>161</v>
+      </c>
+      <c r="R96" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S96" s="10">
+        <v>24515030</v>
+      </c>
+      <c r="T96" t="s">
+        <v>48</v>
+      </c>
+      <c r="U96" s="10">
+        <v>0</v>
+      </c>
+      <c r="V96" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" t="s">
+        <v>111</v>
+      </c>
+      <c r="D97" t="s">
+        <v>58</v>
+      </c>
+      <c r="E97">
+        <v>2021</v>
+      </c>
+      <c r="F97" s="10">
+        <v>0</v>
+      </c>
+      <c r="G97" s="10">
+        <v>0</v>
+      </c>
+      <c r="H97" s="10">
+        <v>0</v>
+      </c>
+      <c r="I97" s="10">
+        <v>0</v>
+      </c>
+      <c r="J97" s="7">
+        <v>0</v>
+      </c>
+      <c r="K97" s="10">
+        <v>0</v>
+      </c>
+      <c r="L97" s="10">
+        <v>0</v>
+      </c>
+      <c r="M97" s="10">
+        <v>0</v>
+      </c>
+      <c r="N97" s="10">
+        <v>0</v>
+      </c>
+      <c r="O97" s="10">
+        <v>0</v>
+      </c>
+      <c r="P97" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>76</v>
+      </c>
+      <c r="R97" s="7">
+        <v>0</v>
+      </c>
+      <c r="S97" s="10">
+        <v>0</v>
+      </c>
+      <c r="T97" t="s">
+        <v>234</v>
+      </c>
+      <c r="U97" s="10">
+        <v>477291400.99000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E98" s="12">
+        <v>2021</v>
+      </c>
+      <c r="F98" s="13">
+        <v>2671040314.9299998</v>
+      </c>
+      <c r="G98" s="13">
+        <v>1111577672.51</v>
+      </c>
+      <c r="H98" s="13">
+        <v>1559462642.4200001</v>
+      </c>
+      <c r="I98" s="13">
+        <v>34197385.420000002</v>
+      </c>
+      <c r="J98" s="14">
+        <v>45.6</v>
+      </c>
+      <c r="K98" s="13">
+        <v>1675966708.5699999</v>
+      </c>
+      <c r="L98" s="13">
+        <v>374513304.92000002</v>
+      </c>
+      <c r="M98" s="13">
+        <v>415864888.95999998</v>
+      </c>
+      <c r="N98" s="13">
+        <v>73612514.150000006</v>
+      </c>
+      <c r="O98" s="13">
+        <v>23065795.16</v>
+      </c>
+      <c r="P98" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="R98" s="14">
+        <v>4.7203799999999996</v>
+      </c>
+      <c r="S98" s="13">
+        <v>73612514.150000006</v>
+      </c>
+      <c r="T98" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="U98" s="13">
+        <v>23617142529.580002</v>
+      </c>
+      <c r="V98"/>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" t="s">
+        <v>249</v>
+      </c>
+      <c r="D99" t="s">
+        <v>318</v>
+      </c>
+      <c r="E99">
+        <v>2021</v>
+      </c>
+      <c r="F99" s="10">
+        <v>2730296</v>
+      </c>
+      <c r="G99" s="10">
+        <v>44100</v>
+      </c>
+      <c r="H99" s="10">
+        <v>2686196</v>
+      </c>
+      <c r="I99" s="10">
+        <v>43405.82</v>
+      </c>
+      <c r="J99" s="7">
+        <v>61.89</v>
+      </c>
+      <c r="K99" s="10">
+        <v>1750889</v>
+      </c>
+      <c r="L99" s="10">
+        <v>0</v>
+      </c>
+      <c r="M99" s="10">
+        <v>964</v>
+      </c>
+      <c r="N99" s="10">
+        <v>171645</v>
+      </c>
+      <c r="O99" s="10">
+        <v>0</v>
+      </c>
+      <c r="P99" s="10">
+        <v>762698</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>161</v>
+      </c>
+      <c r="R99" s="7">
+        <v>31.35763</v>
+      </c>
+      <c r="S99" s="10">
+        <v>239164</v>
+      </c>
+      <c r="T99" t="s">
+        <v>48</v>
+      </c>
+      <c r="U99" s="10">
+        <v>0</v>
+      </c>
+      <c r="V99" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>246</v>
+      </c>
+      <c r="B100" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" t="s">
+        <v>302</v>
+      </c>
+      <c r="E100">
+        <v>2021</v>
+      </c>
+      <c r="F100" s="10">
+        <v>0</v>
+      </c>
+      <c r="G100" s="10">
+        <v>0</v>
+      </c>
+      <c r="H100" s="10">
+        <v>0</v>
+      </c>
+      <c r="I100" s="10">
+        <v>0</v>
+      </c>
+      <c r="J100" s="7">
+        <v>0</v>
+      </c>
+      <c r="K100" s="10">
+        <v>0</v>
+      </c>
+      <c r="L100" s="10">
+        <v>5483154.0499999998</v>
+      </c>
+      <c r="M100" s="10">
+        <v>0</v>
+      </c>
+      <c r="N100" s="10">
+        <v>0</v>
+      </c>
+      <c r="O100" s="10">
+        <v>6675559.6100000003</v>
+      </c>
+      <c r="P100" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>76</v>
+      </c>
+      <c r="R100" s="7">
+        <v>0</v>
+      </c>
+      <c r="S100" s="10">
+        <v>0</v>
+      </c>
+      <c r="T100" t="s">
+        <v>234</v>
+      </c>
+      <c r="U100" s="10">
+        <v>871047385.26999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>29</v>
+      </c>
+      <c r="B101" t="s">
+        <v>185</v>
+      </c>
+      <c r="D101" t="s">
+        <v>319</v>
+      </c>
+      <c r="E101">
+        <v>2021</v>
+      </c>
+      <c r="F101" s="10">
+        <v>542029996.38999999</v>
+      </c>
+      <c r="G101" s="10">
+        <v>226075614.99000001</v>
+      </c>
+      <c r="H101" s="10">
+        <v>315954381.39999998</v>
+      </c>
+      <c r="I101" s="10">
+        <v>5660794.8200000003</v>
+      </c>
+      <c r="J101" s="7">
+        <v>55.81</v>
+      </c>
+      <c r="K101" s="10">
+        <v>71589645.969999999</v>
+      </c>
+      <c r="L101" s="10">
+        <v>43796368.659999996</v>
+      </c>
+      <c r="M101" s="10">
+        <v>5355356.78</v>
+      </c>
+      <c r="N101" s="10">
+        <v>14302328.470000001</v>
+      </c>
+      <c r="O101" s="10">
+        <v>0</v>
+      </c>
+      <c r="P101" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>76</v>
+      </c>
+      <c r="R101" s="7">
+        <v>4.5267099999999996</v>
+      </c>
+      <c r="S101" s="10">
+        <v>14302328.470000001</v>
+      </c>
+      <c r="T101" t="s">
+        <v>234</v>
+      </c>
+      <c r="U101" s="10">
+        <v>200309504.03</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" t="s">
+        <v>286</v>
+      </c>
+      <c r="D102" t="s">
+        <v>322</v>
+      </c>
+      <c r="E102">
+        <v>2021</v>
+      </c>
+      <c r="F102" s="10">
+        <v>747115257.44000006</v>
+      </c>
+      <c r="G102" s="10">
+        <v>358491959.69999999</v>
+      </c>
+      <c r="H102" s="10">
+        <v>388623297.74000001</v>
+      </c>
+      <c r="I102" s="10">
+        <v>8312036.4199999999</v>
+      </c>
+      <c r="J102" s="7">
+        <v>46.75</v>
+      </c>
+      <c r="K102" s="10">
+        <v>92839632.849999994</v>
+      </c>
+      <c r="L102" s="10">
+        <v>11868423.460000001</v>
+      </c>
+      <c r="M102" s="10">
+        <v>38562062.68</v>
+      </c>
+      <c r="N102" s="10">
+        <v>18336085.239999998</v>
+      </c>
+      <c r="O102" s="10">
+        <v>0</v>
+      </c>
+      <c r="P102" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>76</v>
+      </c>
+      <c r="R102" s="7">
+        <v>4.7182199999999996</v>
+      </c>
+      <c r="S102" s="10">
+        <v>18336085.239999998</v>
+      </c>
+      <c r="T102" t="s">
+        <v>234</v>
+      </c>
+      <c r="U102" s="10">
+        <v>2004537941.96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" t="s">
+        <v>197</v>
+      </c>
+      <c r="D103" t="s">
+        <v>270</v>
+      </c>
+      <c r="E103">
+        <v>2021</v>
+      </c>
+      <c r="F103" s="10">
+        <v>0</v>
+      </c>
+      <c r="G103" s="10">
+        <v>0</v>
+      </c>
+      <c r="H103" s="10">
+        <v>0</v>
+      </c>
+      <c r="I103" s="10">
+        <v>0</v>
+      </c>
+      <c r="J103" s="7">
+        <v>0</v>
+      </c>
+      <c r="K103" s="10">
+        <v>128531.62</v>
+      </c>
+      <c r="L103" s="10">
+        <v>129494.62</v>
+      </c>
+      <c r="M103" s="10">
+        <v>0</v>
+      </c>
+      <c r="N103" s="10">
+        <v>0</v>
+      </c>
+      <c r="O103" s="10">
+        <v>0</v>
+      </c>
+      <c r="P103" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>76</v>
+      </c>
+      <c r="R103" s="7">
+        <v>0</v>
+      </c>
+      <c r="S103" s="10">
+        <v>0</v>
+      </c>
+      <c r="T103" t="s">
+        <v>234</v>
+      </c>
+      <c r="U103" s="10">
+        <v>12914216.15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>233</v>
+      </c>
+      <c r="B104" t="s">
+        <v>271</v>
+      </c>
+      <c r="D104" t="s">
+        <v>270</v>
+      </c>
+      <c r="E104">
+        <v>2021</v>
+      </c>
+      <c r="F104" s="10">
+        <v>45494672</v>
+      </c>
+      <c r="G104" s="10">
+        <v>17034398</v>
+      </c>
+      <c r="H104" s="10">
+        <v>28460274</v>
+      </c>
+      <c r="I104" s="10">
+        <v>568205.22</v>
+      </c>
+      <c r="J104" s="7">
+        <v>50.09</v>
+      </c>
+      <c r="K104" s="10">
+        <v>44756863</v>
+      </c>
+      <c r="L104" s="10">
+        <v>2809719</v>
+      </c>
+      <c r="M104" s="10">
+        <v>638662</v>
+      </c>
+      <c r="N104" s="10">
+        <v>53767765</v>
+      </c>
+      <c r="O104" s="10">
+        <v>0</v>
+      </c>
+      <c r="P104" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>76</v>
+      </c>
+      <c r="R104" s="7">
+        <v>4.3907699999999998</v>
+      </c>
+      <c r="S104" s="10">
+        <v>1249625</v>
+      </c>
+      <c r="T104" t="s">
+        <v>48</v>
+      </c>
+      <c r="U104" s="10">
+        <v>73512735</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>129</v>
+      </c>
+      <c r="D105" t="s">
+        <v>270</v>
+      </c>
+      <c r="E105">
+        <v>2021</v>
+      </c>
+      <c r="F105" s="10">
+        <v>14008302</v>
+      </c>
+      <c r="G105" s="10">
+        <v>5426984</v>
+      </c>
+      <c r="H105" s="10">
+        <v>8581318</v>
+      </c>
+      <c r="I105" s="10">
+        <v>164301.81</v>
+      </c>
+      <c r="J105" s="7">
+        <v>52.23</v>
+      </c>
+      <c r="K105" s="10">
+        <v>3369154</v>
+      </c>
+      <c r="L105" s="10">
+        <v>574093</v>
+      </c>
+      <c r="M105" s="10">
+        <v>0</v>
+      </c>
+      <c r="N105" s="10">
+        <v>0</v>
+      </c>
+      <c r="O105" s="10">
+        <v>0</v>
+      </c>
+      <c r="P105" s="10">
+        <v>4638071</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>161</v>
+      </c>
+      <c r="R105" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S105" s="10">
+        <v>1454392</v>
+      </c>
+      <c r="T105" t="s">
+        <v>48</v>
+      </c>
+      <c r="U105" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" t="s">
+        <v>154</v>
+      </c>
+      <c r="E106">
+        <v>2021</v>
+      </c>
+      <c r="F106" s="10">
+        <v>0</v>
+      </c>
+      <c r="G106" s="10">
+        <v>0</v>
+      </c>
+      <c r="H106" s="10">
+        <v>0</v>
+      </c>
+      <c r="I106" s="10">
+        <v>0</v>
+      </c>
+      <c r="J106" s="7">
+        <v>0</v>
+      </c>
+      <c r="K106" s="10">
+        <v>215676.79999999999</v>
+      </c>
+      <c r="L106" s="10">
+        <v>3639.05</v>
+      </c>
+      <c r="M106" s="10">
+        <v>0</v>
+      </c>
+      <c r="N106" s="10">
+        <v>0</v>
+      </c>
+      <c r="O106" s="10">
+        <v>481500</v>
+      </c>
+      <c r="P106" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>76</v>
+      </c>
+      <c r="R106" s="7">
+        <v>0</v>
+      </c>
+      <c r="S106" s="10">
+        <v>0</v>
+      </c>
+      <c r="T106" t="s">
+        <v>234</v>
+      </c>
+      <c r="U106" s="10">
+        <v>129549271.09</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>235</v>
+      </c>
+      <c r="B107" t="s">
+        <v>192</v>
+      </c>
+      <c r="D107" t="s">
+        <v>239</v>
+      </c>
+      <c r="E107">
+        <v>2021</v>
+      </c>
+      <c r="F107" s="10">
+        <v>278784157.43000001</v>
+      </c>
+      <c r="G107" s="10">
+        <v>125254597.51000001</v>
+      </c>
+      <c r="H107" s="10">
+        <v>153529559.91999999</v>
+      </c>
+      <c r="I107" s="10">
+        <v>3312985.6</v>
+      </c>
+      <c r="J107" s="7">
+        <v>46.34</v>
+      </c>
+      <c r="K107" s="10">
+        <v>58450586.659999996</v>
+      </c>
+      <c r="L107" s="10">
+        <v>6284808.0099999998</v>
+      </c>
+      <c r="M107" s="10">
+        <v>19363090.16</v>
+      </c>
+      <c r="N107" s="10">
+        <v>7217397.1600000001</v>
+      </c>
+      <c r="O107" s="10">
+        <v>3368670.68</v>
+      </c>
+      <c r="P107" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>76</v>
+      </c>
+      <c r="R107" s="7">
+        <v>4.6408699999999996</v>
+      </c>
+      <c r="S107" s="10">
+        <v>7125101.1600000001</v>
+      </c>
+      <c r="T107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U107" s="10">
+        <v>1035652424.13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>145</v>
+      </c>
+      <c r="B108" t="s">
+        <v>39</v>
+      </c>
+      <c r="D108" t="s">
+        <v>208</v>
+      </c>
+      <c r="E108">
+        <v>2021</v>
+      </c>
+      <c r="F108" s="10">
+        <v>164064829.44999999</v>
+      </c>
+      <c r="G108" s="10">
+        <v>17152557.239999998</v>
+      </c>
+      <c r="H108" s="10">
+        <v>146912272.21000001</v>
+      </c>
+      <c r="I108" s="10">
+        <v>3077954.74</v>
+      </c>
+      <c r="J108" s="7">
+        <v>47.73</v>
+      </c>
+      <c r="K108" s="10">
+        <v>49704650.100000001</v>
+      </c>
+      <c r="L108" s="10">
+        <v>7064058.3200000003</v>
+      </c>
+      <c r="M108" s="10">
+        <v>19562381.739999998</v>
+      </c>
+      <c r="N108" s="10">
+        <v>6733910.3799999999</v>
+      </c>
+      <c r="O108" s="10">
+        <v>0</v>
+      </c>
+      <c r="P108" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>76</v>
+      </c>
+      <c r="R108" s="7">
+        <v>4.5836300000000003</v>
+      </c>
+      <c r="S108" s="10">
+        <v>6733910.3799999999</v>
+      </c>
+      <c r="T108" t="s">
+        <v>234</v>
+      </c>
+      <c r="U108" s="10">
+        <v>1052312436.02</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" t="s">
+        <v>270</v>
+      </c>
+      <c r="E109">
+        <v>2021</v>
+      </c>
+      <c r="F109" s="10">
+        <v>0</v>
+      </c>
+      <c r="G109" s="10">
+        <v>0</v>
+      </c>
+      <c r="H109" s="10">
+        <v>0</v>
+      </c>
+      <c r="I109" s="10">
+        <v>0</v>
+      </c>
+      <c r="J109" s="7">
+        <v>0</v>
+      </c>
+      <c r="K109" s="10">
+        <v>34760.42</v>
+      </c>
+      <c r="L109" s="10">
+        <v>6505.86</v>
+      </c>
+      <c r="M109" s="10">
+        <v>0</v>
+      </c>
+      <c r="N109" s="10">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10">
+        <v>0</v>
+      </c>
+      <c r="P109" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>76</v>
+      </c>
+      <c r="R109" s="7">
+        <v>0</v>
+      </c>
+      <c r="S109" s="10">
+        <v>0</v>
+      </c>
+      <c r="T109" t="s">
+        <v>234</v>
+      </c>
+      <c r="U109" s="10">
+        <v>86313626.980000004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>26</v>
+      </c>
+      <c r="B110" t="s">
+        <v>96</v>
+      </c>
+      <c r="D110" t="s">
+        <v>270</v>
+      </c>
+      <c r="E110">
+        <v>2021</v>
+      </c>
+      <c r="F110" s="10">
+        <v>1359628167.49</v>
+      </c>
+      <c r="G110" s="10">
+        <v>603442660.71000004</v>
+      </c>
+      <c r="H110" s="10">
+        <v>756185506.77999997</v>
+      </c>
+      <c r="I110" s="10">
+        <v>14914939.26</v>
+      </c>
+      <c r="J110" s="7">
+        <v>50.7</v>
+      </c>
+      <c r="K110" s="10">
+        <v>147797444.84</v>
+      </c>
+      <c r="L110" s="10">
+        <v>30447891.079999998</v>
+      </c>
+      <c r="M110" s="10">
+        <v>21594065.34</v>
+      </c>
+      <c r="N110" s="10">
+        <v>34919532.020000003</v>
+      </c>
+      <c r="O110" s="10">
+        <v>2500</v>
+      </c>
+      <c r="P110" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>76</v>
+      </c>
+      <c r="R110" s="7">
+        <v>4.6178499999999998</v>
+      </c>
+      <c r="S110" s="10">
+        <v>34919532.020000003</v>
+      </c>
+      <c r="T110" t="s">
+        <v>234</v>
+      </c>
+      <c r="U110" s="10">
+        <v>899017756.22000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" t="s">
+        <v>220</v>
+      </c>
+      <c r="D111" t="s">
+        <v>208</v>
+      </c>
+      <c r="E111">
+        <v>2021</v>
+      </c>
+      <c r="F111" s="10">
+        <v>1102197.5900000001</v>
+      </c>
+      <c r="G111" s="10">
+        <v>0</v>
+      </c>
+      <c r="H111" s="10">
+        <v>1102197.5900000001</v>
+      </c>
+      <c r="I111" s="10">
+        <v>19338.25</v>
+      </c>
+      <c r="J111" s="7">
+        <v>57</v>
+      </c>
+      <c r="K111" s="10">
+        <v>249174</v>
+      </c>
+      <c r="L111" s="10">
+        <v>150597</v>
+      </c>
+      <c r="M111" s="10">
+        <v>37675.53</v>
+      </c>
+      <c r="N111" s="10">
+        <v>50414.47</v>
+      </c>
+      <c r="O111" s="10">
+        <v>0</v>
+      </c>
+      <c r="P111" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>76</v>
+      </c>
+      <c r="R111" s="7">
+        <v>4.5739999999999998</v>
+      </c>
+      <c r="S111" s="10">
+        <v>50414.47</v>
+      </c>
+      <c r="T111" t="s">
+        <v>234</v>
+      </c>
+      <c r="U111" s="10">
+        <v>1768574.16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>290</v>
+      </c>
+      <c r="B112" t="s">
+        <v>278</v>
+      </c>
+      <c r="D112" t="s">
+        <v>182</v>
+      </c>
+      <c r="E112">
+        <v>2021</v>
+      </c>
+      <c r="F112" s="10">
+        <v>86182.080000000002</v>
+      </c>
+      <c r="G112" s="10">
+        <v>49799.45</v>
+      </c>
+      <c r="H112" s="10">
+        <v>36382.629999999997</v>
+      </c>
+      <c r="I112" s="10">
+        <v>1798.35</v>
+      </c>
+      <c r="J112" s="7">
+        <v>20.23</v>
+      </c>
+      <c r="K112" s="10">
+        <v>5815437.2199999997</v>
+      </c>
+      <c r="L112" s="10">
+        <v>1911953.35</v>
+      </c>
+      <c r="M112" s="10">
+        <v>0</v>
+      </c>
+      <c r="N112" s="10">
+        <v>1226.26</v>
+      </c>
+      <c r="O112" s="10">
+        <v>0</v>
+      </c>
+      <c r="P112" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>76</v>
+      </c>
+      <c r="R112" s="7">
+        <v>3.3704499999999999</v>
+      </c>
+      <c r="S112" s="10">
+        <v>1226.26</v>
+      </c>
+      <c r="T112" t="s">
+        <v>234</v>
+      </c>
+      <c r="U112" s="10">
+        <v>718986613.04999995</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" t="s">
+        <v>226</v>
+      </c>
+      <c r="E113">
+        <v>2021</v>
+      </c>
+      <c r="F113" s="10">
+        <v>0</v>
+      </c>
+      <c r="G113" s="10">
+        <v>0</v>
+      </c>
+      <c r="H113" s="10">
+        <v>0</v>
+      </c>
+      <c r="I113" s="10">
+        <v>0</v>
+      </c>
+      <c r="J113" s="7">
+        <v>0</v>
+      </c>
+      <c r="K113" s="10">
+        <v>385429</v>
+      </c>
+      <c r="L113" s="10">
+        <v>0</v>
+      </c>
+      <c r="M113" s="10">
+        <v>0</v>
+      </c>
+      <c r="N113" s="10">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10">
+        <v>0</v>
+      </c>
+      <c r="P113" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>76</v>
+      </c>
+      <c r="R113" s="7">
+        <v>0</v>
+      </c>
+      <c r="S113" s="10">
+        <v>0</v>
+      </c>
+      <c r="T113" t="s">
+        <v>234</v>
+      </c>
+      <c r="U113" s="10">
+        <v>51198663.979999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>283</v>
+      </c>
+      <c r="B114" t="s">
+        <v>251</v>
+      </c>
+      <c r="D114" t="s">
+        <v>270</v>
+      </c>
+      <c r="E114">
+        <v>2021</v>
+      </c>
+      <c r="F114" s="10">
+        <v>359535704</v>
+      </c>
+      <c r="G114" s="10">
+        <v>67220583</v>
+      </c>
+      <c r="H114" s="10">
+        <v>292315121</v>
+      </c>
+      <c r="I114" s="10">
+        <v>4708164.12</v>
+      </c>
+      <c r="J114" s="7">
+        <v>62.09</v>
+      </c>
+      <c r="K114" s="10">
+        <v>71916608</v>
+      </c>
+      <c r="L114" s="10">
+        <v>44391528</v>
+      </c>
+      <c r="M114" s="10">
+        <v>0</v>
+      </c>
+      <c r="N114" s="10">
+        <v>0</v>
+      </c>
+      <c r="O114" s="10">
+        <v>6519659</v>
+      </c>
+      <c r="P114" s="10">
+        <v>182526644</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>161</v>
+      </c>
+      <c r="R114" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S114" s="10">
+        <v>57236139</v>
+      </c>
+      <c r="T114" t="s">
+        <v>48</v>
+      </c>
+      <c r="U114" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>101</v>
+      </c>
+      <c r="B115" t="s">
+        <v>277</v>
+      </c>
+      <c r="D115" t="s">
+        <v>270</v>
+      </c>
+      <c r="E115">
+        <v>2021</v>
+      </c>
+      <c r="F115" s="10">
+        <v>6749516</v>
+      </c>
+      <c r="G115" s="10">
+        <v>1266165</v>
+      </c>
+      <c r="H115" s="10">
+        <v>5483351</v>
+      </c>
+      <c r="I115" s="10">
+        <v>87082.21</v>
+      </c>
+      <c r="J115" s="7">
+        <v>62.97</v>
+      </c>
+      <c r="K115" s="10">
+        <v>2668890</v>
+      </c>
+      <c r="L115" s="10">
+        <v>2513250</v>
+      </c>
+      <c r="M115" s="10">
+        <v>75281</v>
+      </c>
+      <c r="N115" s="10">
+        <v>6352336</v>
+      </c>
+      <c r="O115" s="10">
+        <v>94177</v>
+      </c>
+      <c r="P115" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>76</v>
+      </c>
+      <c r="R115" s="7">
+        <v>4.3907600000000002</v>
+      </c>
+      <c r="S115" s="10">
+        <v>240761</v>
+      </c>
+      <c r="T115" t="s">
+        <v>48</v>
+      </c>
+      <c r="U115" s="10">
+        <v>6032229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>310</v>
+      </c>
+      <c r="B116" t="s">
+        <v>188</v>
+      </c>
+      <c r="D116" t="s">
+        <v>154</v>
+      </c>
+      <c r="E116">
+        <v>2021</v>
+      </c>
+      <c r="F116" s="10">
+        <v>104776818</v>
+      </c>
+      <c r="G116" s="10">
+        <v>889</v>
+      </c>
+      <c r="H116" s="10">
+        <v>104775929</v>
+      </c>
+      <c r="I116" s="10">
+        <v>2077202.11</v>
+      </c>
+      <c r="J116" s="7">
+        <v>50.44</v>
+      </c>
+      <c r="K116" s="10">
+        <v>29200572</v>
+      </c>
+      <c r="L116" s="10">
+        <v>388013</v>
+      </c>
+      <c r="M116" s="10">
+        <v>53555</v>
+      </c>
+      <c r="N116" s="10">
+        <v>9117535</v>
+      </c>
+      <c r="O116" s="10">
+        <v>59118</v>
+      </c>
+      <c r="P116" s="10">
+        <v>66075372</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>161</v>
+      </c>
+      <c r="R116" s="7">
+        <v>31.357690000000002</v>
+      </c>
+      <c r="S116" s="10">
+        <v>20719710</v>
+      </c>
+      <c r="T116" t="s">
+        <v>48</v>
+      </c>
+      <c r="U116" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>320</v>
+      </c>
+      <c r="B117" t="s">
+        <v>321</v>
+      </c>
+      <c r="D117" t="s">
+        <v>270</v>
+      </c>
+      <c r="E117">
+        <v>2021</v>
+      </c>
+      <c r="F117" s="10">
+        <v>0</v>
+      </c>
+      <c r="G117" s="10">
+        <v>0</v>
+      </c>
+      <c r="H117" s="10">
+        <v>0</v>
+      </c>
+      <c r="I117" s="10">
+        <v>0</v>
+      </c>
+      <c r="J117" s="7">
+        <v>0</v>
+      </c>
+      <c r="K117" s="10">
+        <v>488306.1</v>
+      </c>
+      <c r="L117" s="10">
+        <v>1161405.33</v>
+      </c>
+      <c r="M117" s="10">
+        <v>1434122.16</v>
+      </c>
+      <c r="N117" s="10">
+        <v>0</v>
+      </c>
+      <c r="O117" s="10">
+        <v>0</v>
+      </c>
+      <c r="P117" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>76</v>
+      </c>
+      <c r="R117" s="7">
+        <v>0</v>
+      </c>
+      <c r="S117" s="10">
+        <v>0</v>
+      </c>
+      <c r="T117" t="s">
+        <v>234</v>
+      </c>
+      <c r="U117" s="10">
+        <v>80969006.109999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/royalty_data.xlsx
+++ b/royalty_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="33120" windowHeight="18000" activeTab="7"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="33120" windowHeight="18000" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Report Parameters" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="2020 Royalty Data" sheetId="7" r:id="rId7"/>
     <sheet name="2021 Royalty Data" sheetId="9" r:id="rId8"/>
     <sheet name="2022 Royalty Data" sheetId="10" r:id="rId9"/>
+    <sheet name="2023 Royalty Data" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2016 Royalty Data'!$A$1:$V$1</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5023" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5625" uniqueCount="327">
   <si>
     <t>Cold Lake</t>
   </si>
@@ -1060,6 +1061,9 @@
   <si>
     <t>Project achieved payout in reporting year, therefore has both pre and post payout periods reported.  Project is subject to the Bitumen Valuation Methodology (BVM) in one or more production months.</t>
   </si>
+  <si>
+    <t>CALTEX TRILOGY INC.</t>
+  </si>
 </sst>
 </file>
 
@@ -1511,6 +1515,8490 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:V114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="38" style="6" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="21" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="38" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="21" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="526" max="526" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="528" max="528" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="529" max="529" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="530" max="530" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="531" max="531" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="532" max="532" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="533" max="533" width="38" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="21" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="781" max="781" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="782" max="782" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="784" max="784" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="785" max="785" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="786" max="786" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="787" max="787" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="788" max="788" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="789" max="789" width="38" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="21" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1037" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="1038" max="1038" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1039" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="1040" max="1040" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1041" max="1041" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1042" max="1042" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1043" max="1043" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1044" max="1044" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1045" max="1045" width="38" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="21" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1293" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="1294" max="1294" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1295" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="1296" max="1296" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1297" max="1297" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1298" max="1298" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1299" max="1299" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1300" max="1300" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1301" max="1301" width="38" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="21" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1549" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="1550" max="1550" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1551" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="1552" max="1552" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1553" max="1553" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1554" max="1554" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1555" max="1555" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1556" max="1556" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1557" max="1557" width="38" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="21" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1805" max="1805" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="1806" max="1806" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="1807" max="1807" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="1808" max="1808" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1809" max="1809" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1810" max="1810" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1811" max="1811" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="1812" max="1812" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1813" max="1813" width="38" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="21" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2061" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="2062" max="2062" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2063" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="2064" max="2064" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2065" max="2065" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2066" max="2066" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2067" max="2067" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2068" max="2068" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="2069" max="2069" width="38" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="21" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2317" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="2318" max="2318" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2319" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="2320" max="2320" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2321" max="2321" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2322" max="2322" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2323" max="2323" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2324" max="2324" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="2325" max="2325" width="38" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="21" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2573" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="2574" max="2574" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2575" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="2576" max="2576" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2577" max="2577" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2578" max="2578" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2579" max="2579" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2580" max="2580" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="2581" max="2581" width="38" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="21" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="2829" max="2829" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="2830" max="2830" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2831" max="2831" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="2832" max="2832" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2833" max="2833" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2834" max="2834" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2835" max="2835" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="2836" max="2836" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="2837" max="2837" width="38" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="21" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3085" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="3086" max="3086" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3087" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3088" max="3088" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3089" max="3089" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3090" max="3090" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3091" max="3091" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="3092" max="3092" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3093" max="3093" width="38" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="21" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3341" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="3342" max="3342" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3343" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3344" max="3344" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3345" max="3345" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3346" max="3346" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3347" max="3347" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="3348" max="3348" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3349" max="3349" width="38" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="21" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3597" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="3598" max="3598" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3599" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3600" max="3600" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3601" max="3601" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3602" max="3602" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3603" max="3603" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="3604" max="3604" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3605" max="3605" width="38" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="21" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="3853" max="3853" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="3854" max="3854" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="3855" max="3855" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3856" max="3856" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3857" max="3857" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3858" max="3858" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3859" max="3859" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="3860" max="3860" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3861" max="3861" width="38" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="21" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4109" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="4110" max="4110" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4111" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="4112" max="4112" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4113" max="4113" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="4114" max="4114" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4115" max="4115" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4116" max="4116" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="4117" max="4117" width="38" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="21" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4365" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="4366" max="4366" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4367" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="4368" max="4368" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4369" max="4369" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="4370" max="4370" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4371" max="4371" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4372" max="4372" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="4373" max="4373" width="38" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="21" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4621" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="4622" max="4622" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4623" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="4624" max="4624" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4625" max="4625" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="4626" max="4626" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4627" max="4627" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4628" max="4628" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="4629" max="4629" width="38" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="21" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="4877" max="4877" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="4878" max="4878" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="4879" max="4879" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="4880" max="4880" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4881" max="4881" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="4882" max="4882" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4883" max="4883" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="4884" max="4884" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="4885" max="4885" width="38" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="21" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5133" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="5134" max="5134" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5135" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="5136" max="5136" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5137" max="5137" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5138" max="5138" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5139" max="5139" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="5140" max="5140" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5141" max="5141" width="38" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="21" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5389" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="5390" max="5390" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5391" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="5392" max="5392" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5393" max="5393" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5394" max="5394" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5395" max="5395" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="5396" max="5396" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5397" max="5397" width="38" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="21" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5645" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="5646" max="5646" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5647" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="5648" max="5648" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5649" max="5649" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5650" max="5650" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5651" max="5651" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="5652" max="5652" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5653" max="5653" width="38" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="21" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5901" max="5901" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="5902" max="5902" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="5903" max="5903" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="5904" max="5904" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5905" max="5905" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5906" max="5906" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5907" max="5907" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="5908" max="5908" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5909" max="5909" width="38" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="21" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6157" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="6158" max="6158" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6159" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="6160" max="6160" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6161" max="6161" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="6162" max="6162" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6163" max="6163" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="6164" max="6164" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="6165" max="6165" width="38" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="21" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6413" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="6414" max="6414" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6415" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="6416" max="6416" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6417" max="6417" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="6418" max="6418" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6419" max="6419" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="6420" max="6420" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="6421" max="6421" width="38" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="21" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6669" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="6670" max="6670" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6671" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="6672" max="6672" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6673" max="6673" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="6674" max="6674" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6675" max="6675" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="6676" max="6676" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="6677" max="6677" width="38" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="21" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="6925" max="6925" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="6926" max="6926" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="6927" max="6927" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="6928" max="6928" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6929" max="6929" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="6930" max="6930" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6931" max="6931" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="6932" max="6932" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="6933" max="6933" width="38" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="21" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7181" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="7182" max="7182" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7183" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="7184" max="7184" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7185" max="7185" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="7186" max="7186" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7187" max="7187" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="7188" max="7188" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7189" max="7189" width="38" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="21" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7437" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="7438" max="7438" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7439" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="7440" max="7440" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7441" max="7441" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="7442" max="7442" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7443" max="7443" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="7444" max="7444" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7445" max="7445" width="38" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="21" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7693" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="7694" max="7694" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7695" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="7696" max="7696" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7697" max="7697" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="7698" max="7698" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7699" max="7699" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="7700" max="7700" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7701" max="7701" width="38" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="21" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="7949" max="7949" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="7950" max="7950" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="7951" max="7951" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="7952" max="7952" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7953" max="7953" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="7954" max="7954" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7955" max="7955" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="7956" max="7956" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7957" max="7957" width="38" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="21" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8205" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="8206" max="8206" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8207" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="8208" max="8208" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8209" max="8209" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="8210" max="8210" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8211" max="8211" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="8212" max="8212" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8213" max="8213" width="38" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="21" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8461" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="8462" max="8462" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8463" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="8464" max="8464" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8465" max="8465" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="8466" max="8466" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8467" max="8467" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="8468" max="8468" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8469" max="8469" width="38" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="21" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8717" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="8718" max="8718" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8719" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="8720" max="8720" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8721" max="8721" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="8722" max="8722" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8723" max="8723" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="8724" max="8724" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8725" max="8725" width="38" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="21" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="8973" max="8973" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="8974" max="8974" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="8975" max="8975" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="8976" max="8976" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8977" max="8977" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="8978" max="8978" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8979" max="8979" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="8980" max="8980" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8981" max="8981" width="38" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="21" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9229" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="9230" max="9230" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9231" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="9232" max="9232" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9233" max="9233" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9234" max="9234" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9235" max="9235" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="9236" max="9236" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="9237" max="9237" width="38" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="21" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9485" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="9486" max="9486" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9487" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="9488" max="9488" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9489" max="9489" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9490" max="9490" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9491" max="9491" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="9492" max="9492" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="9493" max="9493" width="38" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="21" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9741" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="9742" max="9742" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9743" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="9744" max="9744" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9745" max="9745" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9746" max="9746" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9747" max="9747" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="9748" max="9748" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="9749" max="9749" width="38" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="21" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="9997" max="9997" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="9998" max="9998" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="9999" max="9999" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="10000" max="10000" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="10001" max="10001" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="10002" max="10002" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="10003" max="10003" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10004" max="10004" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="10005" max="10005" width="38" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="21" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10253" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="10254" max="10254" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10255" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="10256" max="10256" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="10257" max="10257" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="10258" max="10258" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="10259" max="10259" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10260" max="10260" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="10261" max="10261" width="38" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="21" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10509" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="10510" max="10510" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10511" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="10512" max="10512" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="10513" max="10513" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="10514" max="10514" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="10515" max="10515" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10516" max="10516" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="10517" max="10517" width="38" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="21" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10765" max="10765" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="10766" max="10766" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="10767" max="10767" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="10768" max="10768" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="10769" max="10769" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="10770" max="10770" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="10771" max="10771" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10772" max="10772" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="10773" max="10773" width="38" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="21" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11021" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="11022" max="11022" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11023" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="11024" max="11024" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="11025" max="11025" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="11026" max="11026" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="11027" max="11027" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="11028" max="11028" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="11029" max="11029" width="38" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="21" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11277" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="11278" max="11278" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11279" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="11280" max="11280" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="11281" max="11281" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="11282" max="11282" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="11283" max="11283" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="11284" max="11284" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="11285" max="11285" width="38" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="21" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11533" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="11534" max="11534" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11535" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="11536" max="11536" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="11537" max="11537" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="11538" max="11538" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="11539" max="11539" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="11540" max="11540" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="11541" max="11541" width="38" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="21" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="11789" max="11789" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="11790" max="11790" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="11791" max="11791" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="11792" max="11792" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="11793" max="11793" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="11794" max="11794" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="11795" max="11795" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="11796" max="11796" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="11797" max="11797" width="38" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="21" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12045" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="12046" max="12046" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12047" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="12048" max="12048" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12049" max="12049" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="12050" max="12050" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12051" max="12051" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="12052" max="12052" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="12053" max="12053" width="38" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="21" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12301" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="12302" max="12302" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12303" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="12304" max="12304" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12305" max="12305" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="12306" max="12306" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12307" max="12307" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="12308" max="12308" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="12309" max="12309" width="38" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="21" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12557" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="12558" max="12558" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12559" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="12560" max="12560" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12561" max="12561" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="12562" max="12562" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12563" max="12563" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="12564" max="12564" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="12565" max="12565" width="38" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="21" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="12813" max="12813" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="12814" max="12814" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="12815" max="12815" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="12816" max="12816" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12817" max="12817" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="12818" max="12818" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12819" max="12819" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="12820" max="12820" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="12821" max="12821" width="38" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="21" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13069" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="13070" max="13070" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13071" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="13072" max="13072" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13073" max="13073" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="13074" max="13074" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13075" max="13075" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="13076" max="13076" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="13077" max="13077" width="38" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="21" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13325" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="13326" max="13326" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13327" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="13328" max="13328" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13329" max="13329" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="13330" max="13330" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13331" max="13331" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="13332" max="13332" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="13333" max="13333" width="38" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="21" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13581" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="13582" max="13582" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13583" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="13584" max="13584" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13585" max="13585" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="13586" max="13586" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13587" max="13587" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="13588" max="13588" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="13589" max="13589" width="38" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="21" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="13837" max="13837" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="13838" max="13838" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="13839" max="13839" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="13840" max="13840" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13841" max="13841" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="13842" max="13842" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13843" max="13843" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="13844" max="13844" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="13845" max="13845" width="38" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="21" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14093" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="14094" max="14094" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14095" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="14096" max="14096" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="14097" max="14097" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="14098" max="14098" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="14099" max="14099" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="14100" max="14100" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="14101" max="14101" width="38" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="21" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14349" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="14350" max="14350" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14351" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="14352" max="14352" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="14353" max="14353" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="14354" max="14354" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="14355" max="14355" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="14356" max="14356" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="14357" max="14357" width="38" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="21" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14605" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="14606" max="14606" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14607" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="14608" max="14608" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="14609" max="14609" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="14610" max="14610" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="14611" max="14611" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="14612" max="14612" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="14613" max="14613" width="38" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="21" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="14861" max="14861" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="14862" max="14862" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="14863" max="14863" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="14864" max="14864" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="14865" max="14865" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="14866" max="14866" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="14867" max="14867" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="14868" max="14868" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="14869" max="14869" width="38" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="21" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15117" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="15118" max="15118" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15119" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="15120" max="15120" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="15121" max="15121" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="15122" max="15122" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="15123" max="15123" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="15124" max="15124" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="15125" max="15125" width="38" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="21" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15373" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="15374" max="15374" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15375" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="15376" max="15376" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="15377" max="15377" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="15378" max="15378" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="15379" max="15379" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="15380" max="15380" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="15381" max="15381" width="38" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="21" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15629" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="15630" max="15630" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15631" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="15632" max="15632" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="15633" max="15633" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="15634" max="15634" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="15635" max="15635" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="15636" max="15636" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="15637" max="15637" width="38" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="21" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="15885" max="15885" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="15886" max="15886" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="15887" max="15887" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="15888" max="15888" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="15889" max="15889" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="15890" max="15890" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="15891" max="15891" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="15892" max="15892" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="15893" max="15893" width="38" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="21" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16141" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="16142" max="16142" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16143" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="16144" max="16144" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="16145" max="16145" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="16146" max="16146" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="16147" max="16147" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="16148" max="16148" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="16149" max="16149" width="38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+      <c r="F2" s="6">
+        <v>25837164.73</v>
+      </c>
+      <c r="G2" s="6">
+        <v>9097452.25</v>
+      </c>
+      <c r="H2" s="6">
+        <v>16739712.48</v>
+      </c>
+      <c r="I2" s="6">
+        <v>268884.27</v>
+      </c>
+      <c r="J2" s="7">
+        <v>62.26</v>
+      </c>
+      <c r="K2" s="6">
+        <v>37590026.5</v>
+      </c>
+      <c r="L2" s="6">
+        <v>4048846.12</v>
+      </c>
+      <c r="M2" s="6">
+        <v>935783096.05999994</v>
+      </c>
+      <c r="N2" s="6">
+        <v>836985.61</v>
+      </c>
+      <c r="O2" s="6">
+        <v>13590212.210000001</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="7">
+        <v>5</v>
+      </c>
+      <c r="S2" s="6">
+        <v>836985.61</v>
+      </c>
+      <c r="T2" t="s">
+        <v>234</v>
+      </c>
+      <c r="U2" s="6">
+        <v>10299745144.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+      <c r="F3" s="6">
+        <v>229424335.52000001</v>
+      </c>
+      <c r="G3" s="6">
+        <v>65475546.049999997</v>
+      </c>
+      <c r="H3" s="6">
+        <v>163948789.47</v>
+      </c>
+      <c r="I3" s="6">
+        <v>2268273.42</v>
+      </c>
+      <c r="J3" s="7">
+        <v>72.28</v>
+      </c>
+      <c r="K3" s="6">
+        <v>168034391.34999999</v>
+      </c>
+      <c r="L3" s="6">
+        <v>66288832.789999999</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1145929647.03</v>
+      </c>
+      <c r="N3" s="6">
+        <v>4650117.37</v>
+      </c>
+      <c r="O3" s="6">
+        <v>173267958.24000001</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="7">
+        <v>2.8363200000000002</v>
+      </c>
+      <c r="S3" s="6">
+        <v>4650117.37</v>
+      </c>
+      <c r="T3" t="s">
+        <v>234</v>
+      </c>
+      <c r="U3" s="6">
+        <v>12535377347.91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+      <c r="F4" s="6">
+        <v>88564066</v>
+      </c>
+      <c r="G4" s="6">
+        <v>14525368</v>
+      </c>
+      <c r="H4" s="6">
+        <v>74038698</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1012370.81</v>
+      </c>
+      <c r="J4" s="7">
+        <v>73.13</v>
+      </c>
+      <c r="K4" s="6">
+        <v>26970238</v>
+      </c>
+      <c r="L4" s="6">
+        <v>16051177</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>386462</v>
+      </c>
+      <c r="P4" s="6">
+        <v>31403745</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>161</v>
+      </c>
+      <c r="R4" s="7">
+        <v>29.84422</v>
+      </c>
+      <c r="S4" s="6">
+        <v>9372203</v>
+      </c>
+      <c r="T4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+      <c r="F5" s="6">
+        <v>23525957.300000001</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4613171.47</v>
+      </c>
+      <c r="H5" s="6">
+        <v>18912785.829999998</v>
+      </c>
+      <c r="I5" s="6">
+        <v>259418.71</v>
+      </c>
+      <c r="J5" s="7">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="K5" s="6">
+        <v>9937863.7100000009</v>
+      </c>
+      <c r="L5" s="6">
+        <v>3264146.25</v>
+      </c>
+      <c r="M5" s="6">
+        <v>87239541.180000007</v>
+      </c>
+      <c r="N5" s="6">
+        <v>945639.28</v>
+      </c>
+      <c r="O5" s="6">
+        <v>53055</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="7">
+        <v>5</v>
+      </c>
+      <c r="S5" s="6">
+        <v>945639.28</v>
+      </c>
+      <c r="T5" t="s">
+        <v>234</v>
+      </c>
+      <c r="U5" s="6">
+        <v>956835002.70000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4270186.0999999996</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4270186.0999999996</v>
+      </c>
+      <c r="I6" s="6">
+        <v>65965.75</v>
+      </c>
+      <c r="J6" s="7">
+        <v>64.73</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3101659.7</v>
+      </c>
+      <c r="L6" s="6">
+        <v>640278.98</v>
+      </c>
+      <c r="M6" s="6">
+        <v>2299929.2200000002</v>
+      </c>
+      <c r="N6" s="6">
+        <v>304302.65000000002</v>
+      </c>
+      <c r="O6" s="6">
+        <v>147492.22</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="7">
+        <v>7.12622</v>
+      </c>
+      <c r="S6" s="6">
+        <v>304302.65000000002</v>
+      </c>
+      <c r="T6" t="s">
+        <v>234</v>
+      </c>
+      <c r="U6" s="6">
+        <v>72729665.870000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+      <c r="F7" s="6">
+        <v>194310118</v>
+      </c>
+      <c r="G7" s="6">
+        <v>35629791</v>
+      </c>
+      <c r="H7" s="6">
+        <v>158680327</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2184616.7599999998</v>
+      </c>
+      <c r="J7" s="7">
+        <v>72.64</v>
+      </c>
+      <c r="K7" s="6">
+        <v>37986463</v>
+      </c>
+      <c r="L7" s="6">
+        <v>41382809</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>3502522</v>
+      </c>
+      <c r="P7" s="6">
+        <v>82813577</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>161</v>
+      </c>
+      <c r="R7" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S7" s="6">
+        <v>30302763</v>
+      </c>
+      <c r="T7" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+      <c r="F8" s="6">
+        <v>526813</v>
+      </c>
+      <c r="G8" s="6">
+        <v>111466</v>
+      </c>
+      <c r="H8" s="6">
+        <v>415347</v>
+      </c>
+      <c r="I8" s="6">
+        <v>6119.93</v>
+      </c>
+      <c r="J8" s="7">
+        <v>67.87</v>
+      </c>
+      <c r="K8" s="6">
+        <v>327644</v>
+      </c>
+      <c r="L8" s="6">
+        <v>56112</v>
+      </c>
+      <c r="M8" s="6">
+        <v>65391</v>
+      </c>
+      <c r="N8" s="6">
+        <v>2392848</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="7">
+        <v>7.1821900000000003</v>
+      </c>
+      <c r="S8" s="6">
+        <v>29831</v>
+      </c>
+      <c r="T8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U8" s="6">
+        <v>2426648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9" s="6">
+        <v>186782944</v>
+      </c>
+      <c r="G9" s="6">
+        <v>28917324</v>
+      </c>
+      <c r="H9" s="6">
+        <v>157865620</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2156176.64</v>
+      </c>
+      <c r="J9" s="7">
+        <v>73.22</v>
+      </c>
+      <c r="K9" s="6">
+        <v>29298327</v>
+      </c>
+      <c r="L9" s="6">
+        <v>15085090</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>-350</v>
+      </c>
+      <c r="P9" s="6">
+        <v>113481853</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R9" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S9" s="6">
+        <v>41524758</v>
+      </c>
+      <c r="T9" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10">
+        <v>2023</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5736842</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1131312</v>
+      </c>
+      <c r="H10" s="6">
+        <v>4605530</v>
+      </c>
+      <c r="I10" s="6">
+        <v>63326.74</v>
+      </c>
+      <c r="J10" s="7">
+        <v>72.73</v>
+      </c>
+      <c r="K10" s="6">
+        <v>983164</v>
+      </c>
+      <c r="L10" s="6">
+        <v>635345</v>
+      </c>
+      <c r="M10" s="6">
+        <v>121612</v>
+      </c>
+      <c r="N10" s="6">
+        <v>4520480</v>
+      </c>
+      <c r="O10" s="6">
+        <v>40000</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="7">
+        <v>7.18215</v>
+      </c>
+      <c r="S10" s="6">
+        <v>330776</v>
+      </c>
+      <c r="T10" t="s">
+        <v>48</v>
+      </c>
+      <c r="U10" s="6">
+        <v>1615071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11">
+        <v>2023</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>13389445</v>
+      </c>
+      <c r="L11" s="6">
+        <v>3296911</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>54683840</v>
+      </c>
+      <c r="O11" s="6">
+        <v>17229614</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>161</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>48</v>
+      </c>
+      <c r="U11" s="6">
+        <v>54140582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12">
+        <v>2023</v>
+      </c>
+      <c r="F12" s="6">
+        <v>15991625</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3390625</v>
+      </c>
+      <c r="H12" s="6">
+        <v>12601000</v>
+      </c>
+      <c r="I12" s="6">
+        <v>174007.11</v>
+      </c>
+      <c r="J12" s="7">
+        <v>72.42</v>
+      </c>
+      <c r="K12" s="6">
+        <v>5605070</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1954087</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>73882</v>
+      </c>
+      <c r="P12" s="6">
+        <v>5115725</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>161</v>
+      </c>
+      <c r="R12" s="7">
+        <v>36.591549999999998</v>
+      </c>
+      <c r="S12" s="6">
+        <v>1871923</v>
+      </c>
+      <c r="T12" t="s">
+        <v>48</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13">
+        <v>2023</v>
+      </c>
+      <c r="F13" s="6">
+        <v>15829243</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3034565</v>
+      </c>
+      <c r="H13" s="6">
+        <v>12794678</v>
+      </c>
+      <c r="I13" s="6">
+        <v>175498.4</v>
+      </c>
+      <c r="J13" s="7">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="K13" s="6">
+        <v>4108702</v>
+      </c>
+      <c r="L13" s="6">
+        <v>3068316</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>111459</v>
+      </c>
+      <c r="P13" s="6">
+        <v>5729119</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>161</v>
+      </c>
+      <c r="R13" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S13" s="6">
+        <v>2096373</v>
+      </c>
+      <c r="T13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14">
+        <v>2023</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>254860</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>161</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>48</v>
+      </c>
+      <c r="U14" s="6">
+        <v>254860</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15">
+        <v>2023</v>
+      </c>
+      <c r="F15" s="6">
+        <v>5641931</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1105493</v>
+      </c>
+      <c r="H15" s="6">
+        <v>4536438</v>
+      </c>
+      <c r="I15" s="6">
+        <v>62694.36</v>
+      </c>
+      <c r="J15" s="7">
+        <v>72.36</v>
+      </c>
+      <c r="K15" s="6">
+        <v>3263107</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1143572</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>593379</v>
+      </c>
+      <c r="O15" s="6">
+        <v>215280</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" s="7">
+        <v>7.18215</v>
+      </c>
+      <c r="S15" s="6">
+        <v>325814</v>
+      </c>
+      <c r="T15" t="s">
+        <v>48</v>
+      </c>
+      <c r="U15" s="6">
+        <v>248340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16">
+        <v>2023</v>
+      </c>
+      <c r="F16" s="6">
+        <v>15426952</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2993003</v>
+      </c>
+      <c r="H16" s="6">
+        <v>12433949</v>
+      </c>
+      <c r="I16" s="6">
+        <v>171459.34</v>
+      </c>
+      <c r="J16" s="7">
+        <v>72.52</v>
+      </c>
+      <c r="K16" s="6">
+        <v>5042384</v>
+      </c>
+      <c r="L16" s="6">
+        <v>2916100</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>111393</v>
+      </c>
+      <c r="P16" s="6">
+        <v>4586858</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>161</v>
+      </c>
+      <c r="R16" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S16" s="6">
+        <v>1678402</v>
+      </c>
+      <c r="T16" t="s">
+        <v>48</v>
+      </c>
+      <c r="U16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17">
+        <v>2023</v>
+      </c>
+      <c r="F17" s="6">
+        <v>35330174</v>
+      </c>
+      <c r="G17" s="6">
+        <v>6752116</v>
+      </c>
+      <c r="H17" s="6">
+        <v>28578058</v>
+      </c>
+      <c r="I17" s="6">
+        <v>391185.34</v>
+      </c>
+      <c r="J17" s="7">
+        <v>73.06</v>
+      </c>
+      <c r="K17" s="6">
+        <v>11911046</v>
+      </c>
+      <c r="L17" s="6">
+        <v>7830721</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>496179</v>
+      </c>
+      <c r="P17" s="6">
+        <v>9332470</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>161</v>
+      </c>
+      <c r="R17" s="7">
+        <v>36.591529999999999</v>
+      </c>
+      <c r="S17" s="6">
+        <v>3414894</v>
+      </c>
+      <c r="T17" t="s">
+        <v>48</v>
+      </c>
+      <c r="U17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" t="s">
+        <v>302</v>
+      </c>
+      <c r="E18">
+        <v>2023</v>
+      </c>
+      <c r="F18" s="6">
+        <v>7082785338</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2898112762</v>
+      </c>
+      <c r="H18" s="6">
+        <v>4184672576</v>
+      </c>
+      <c r="I18" s="6">
+        <v>67551762.780000001</v>
+      </c>
+      <c r="J18" s="7">
+        <v>61.95</v>
+      </c>
+      <c r="K18" s="6">
+        <v>736117140</v>
+      </c>
+      <c r="L18" s="6">
+        <v>691070032</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>2757485404</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>161</v>
+      </c>
+      <c r="R18" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S18" s="6">
+        <v>1009006375</v>
+      </c>
+      <c r="T18" t="s">
+        <v>48</v>
+      </c>
+      <c r="U18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19">
+        <v>2023</v>
+      </c>
+      <c r="F19" s="6">
+        <v>5772866.2699999996</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1121125.03</v>
+      </c>
+      <c r="H19" s="6">
+        <v>4651741.24</v>
+      </c>
+      <c r="I19" s="6">
+        <v>64663.86</v>
+      </c>
+      <c r="J19" s="7">
+        <v>71.94</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1526693.24</v>
+      </c>
+      <c r="L19" s="6">
+        <v>577671.79</v>
+      </c>
+      <c r="M19" s="6">
+        <v>57101.64</v>
+      </c>
+      <c r="N19" s="6">
+        <v>334960.03000000003</v>
+      </c>
+      <c r="O19" s="6">
+        <v>15286.54</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>76</v>
+      </c>
+      <c r="R19" s="7">
+        <v>7.2007500000000002</v>
+      </c>
+      <c r="S19" s="6">
+        <v>334960.03000000003</v>
+      </c>
+      <c r="T19" t="s">
+        <v>234</v>
+      </c>
+      <c r="U19" s="6">
+        <v>533152.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20">
+        <v>2023</v>
+      </c>
+      <c r="F20" s="6">
+        <v>257426</v>
+      </c>
+      <c r="G20" s="6">
+        <v>66064</v>
+      </c>
+      <c r="H20" s="6">
+        <v>191362</v>
+      </c>
+      <c r="I20" s="6">
+        <v>2717.03</v>
+      </c>
+      <c r="J20" s="7">
+        <v>70.430000000000007</v>
+      </c>
+      <c r="K20" s="6">
+        <v>832470</v>
+      </c>
+      <c r="L20" s="6">
+        <v>743285</v>
+      </c>
+      <c r="M20" s="6">
+        <v>111454</v>
+      </c>
+      <c r="N20" s="6">
+        <v>4004703</v>
+      </c>
+      <c r="O20" s="6">
+        <v>4845</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>76</v>
+      </c>
+      <c r="R20" s="7">
+        <v>7.1821999999999999</v>
+      </c>
+      <c r="S20" s="6">
+        <v>13744</v>
+      </c>
+      <c r="T20" t="s">
+        <v>48</v>
+      </c>
+      <c r="U20" s="6">
+        <v>5495705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E21">
+        <v>2023</v>
+      </c>
+      <c r="F21" s="6">
+        <v>119128745</v>
+      </c>
+      <c r="G21" s="6">
+        <v>45920611</v>
+      </c>
+      <c r="H21" s="6">
+        <v>73208134</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1385376.95</v>
+      </c>
+      <c r="J21" s="7">
+        <v>52.84</v>
+      </c>
+      <c r="K21" s="6">
+        <v>54512375</v>
+      </c>
+      <c r="L21" s="6">
+        <v>8397729</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1175899</v>
+      </c>
+      <c r="N21" s="6">
+        <v>50563315</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>76</v>
+      </c>
+      <c r="R21" s="7">
+        <v>7.18215</v>
+      </c>
+      <c r="S21" s="6">
+        <v>5257918</v>
+      </c>
+      <c r="T21" t="s">
+        <v>48</v>
+      </c>
+      <c r="U21" s="6">
+        <v>41441184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22">
+        <v>2023</v>
+      </c>
+      <c r="F22" s="6">
+        <v>27784959</v>
+      </c>
+      <c r="G22" s="6">
+        <v>5356468</v>
+      </c>
+      <c r="H22" s="6">
+        <v>22428491</v>
+      </c>
+      <c r="I22" s="6">
+        <v>305790.11</v>
+      </c>
+      <c r="J22" s="7">
+        <v>73.349999999999994</v>
+      </c>
+      <c r="K22" s="6">
+        <v>6819519</v>
+      </c>
+      <c r="L22" s="6">
+        <v>2225099</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>723827</v>
+      </c>
+      <c r="P22" s="6">
+        <v>14107700</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>161</v>
+      </c>
+      <c r="R22" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S22" s="6">
+        <v>5162225</v>
+      </c>
+      <c r="T22" t="s">
+        <v>48</v>
+      </c>
+      <c r="U22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23">
+        <v>2023</v>
+      </c>
+      <c r="F23" s="6">
+        <v>24889836</v>
+      </c>
+      <c r="G23" s="6">
+        <v>5285412</v>
+      </c>
+      <c r="H23" s="6">
+        <v>19604424</v>
+      </c>
+      <c r="I23" s="6">
+        <v>272112.87</v>
+      </c>
+      <c r="J23" s="7">
+        <v>72.05</v>
+      </c>
+      <c r="K23" s="6">
+        <v>9800122</v>
+      </c>
+      <c r="L23" s="6">
+        <v>5200594</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
+        <v>506758</v>
+      </c>
+      <c r="P23" s="6">
+        <v>5110466</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>161</v>
+      </c>
+      <c r="R23" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S23" s="6">
+        <v>1869998</v>
+      </c>
+      <c r="T23" t="s">
+        <v>48</v>
+      </c>
+      <c r="U23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E24">
+        <v>2023</v>
+      </c>
+      <c r="F24" s="6">
+        <v>12945010</v>
+      </c>
+      <c r="G24" s="6">
+        <v>2546050</v>
+      </c>
+      <c r="H24" s="6">
+        <v>10398960</v>
+      </c>
+      <c r="I24" s="6">
+        <v>142982.1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>72.73</v>
+      </c>
+      <c r="K24" s="6">
+        <v>7197408</v>
+      </c>
+      <c r="L24" s="6">
+        <v>4154089</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>625547</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>76</v>
+      </c>
+      <c r="R24" s="7">
+        <v>7.18215</v>
+      </c>
+      <c r="S24" s="6">
+        <v>746869</v>
+      </c>
+      <c r="T24" t="s">
+        <v>48</v>
+      </c>
+      <c r="U24" s="6">
+        <v>326990</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E25">
+        <v>2023</v>
+      </c>
+      <c r="F25" s="6">
+        <v>19341491</v>
+      </c>
+      <c r="G25" s="6">
+        <v>3803501</v>
+      </c>
+      <c r="H25" s="6">
+        <v>15537990</v>
+      </c>
+      <c r="I25" s="6">
+        <v>212681.09</v>
+      </c>
+      <c r="J25" s="7">
+        <v>73.06</v>
+      </c>
+      <c r="K25" s="6">
+        <v>20156252</v>
+      </c>
+      <c r="L25" s="6">
+        <v>3902347</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <v>16484411</v>
+      </c>
+      <c r="P25" s="6">
+        <v>7963802</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>161</v>
+      </c>
+      <c r="R25" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S25" s="6">
+        <v>2914078</v>
+      </c>
+      <c r="T25" t="s">
+        <v>48</v>
+      </c>
+      <c r="U25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26">
+        <v>2023</v>
+      </c>
+      <c r="F26" s="6">
+        <v>401534</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>401534</v>
+      </c>
+      <c r="I26" s="6">
+        <v>6041.28</v>
+      </c>
+      <c r="J26" s="7">
+        <v>66.47</v>
+      </c>
+      <c r="K26" s="6">
+        <v>301009</v>
+      </c>
+      <c r="L26" s="6">
+        <v>45480</v>
+      </c>
+      <c r="M26" s="6">
+        <v>17302</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1264817</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>76</v>
+      </c>
+      <c r="R26" s="7">
+        <v>7.1822100000000004</v>
+      </c>
+      <c r="S26" s="6">
+        <v>28839</v>
+      </c>
+      <c r="T26" t="s">
+        <v>48</v>
+      </c>
+      <c r="U26" s="6">
+        <v>1227074</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27">
+        <v>2023</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2877623065</v>
+      </c>
+      <c r="G27" s="6">
+        <v>817947089</v>
+      </c>
+      <c r="H27" s="6">
+        <v>2059675976</v>
+      </c>
+      <c r="I27" s="6">
+        <v>28412985.760000002</v>
+      </c>
+      <c r="J27" s="7">
+        <v>72.489999999999995</v>
+      </c>
+      <c r="K27" s="6">
+        <v>614712711</v>
+      </c>
+      <c r="L27" s="6">
+        <v>249643648</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <v>8575</v>
+      </c>
+      <c r="P27" s="6">
+        <v>1195328192</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>161</v>
+      </c>
+      <c r="R27" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S27" s="6">
+        <v>437388994</v>
+      </c>
+      <c r="T27" t="s">
+        <v>48</v>
+      </c>
+      <c r="U27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>270</v>
+      </c>
+      <c r="E28">
+        <v>2023</v>
+      </c>
+      <c r="F28" s="6">
+        <v>4467749781</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>4467749781</v>
+      </c>
+      <c r="I28" s="6">
+        <v>67348475.519999996</v>
+      </c>
+      <c r="J28" s="7">
+        <v>66.34</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1338391671</v>
+      </c>
+      <c r="L28" s="6">
+        <v>575175947</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <v>165598161</v>
+      </c>
+      <c r="P28" s="6">
+        <v>2719780324</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>161</v>
+      </c>
+      <c r="R28" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S28" s="6">
+        <v>995209505</v>
+      </c>
+      <c r="T28" t="s">
+        <v>48</v>
+      </c>
+      <c r="U28" s="6">
+        <v>0</v>
+      </c>
+      <c r="V28" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29">
+        <v>2023</v>
+      </c>
+      <c r="F29" s="6">
+        <v>649520</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>649520</v>
+      </c>
+      <c r="I29" s="6">
+        <v>8877.86</v>
+      </c>
+      <c r="J29" s="7">
+        <v>73.16</v>
+      </c>
+      <c r="K29" s="6">
+        <v>977778</v>
+      </c>
+      <c r="L29" s="6">
+        <v>337112</v>
+      </c>
+      <c r="M29" s="6">
+        <v>28873</v>
+      </c>
+      <c r="N29" s="6">
+        <v>1110098</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>76</v>
+      </c>
+      <c r="R29" s="7">
+        <v>7.1822299999999997</v>
+      </c>
+      <c r="S29" s="6">
+        <v>46650</v>
+      </c>
+      <c r="T29" t="s">
+        <v>48</v>
+      </c>
+      <c r="U29" s="6">
+        <v>1804341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30">
+        <v>2023</v>
+      </c>
+      <c r="F30" s="6">
+        <v>5112328521</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1727174598</v>
+      </c>
+      <c r="H30" s="6">
+        <v>3385153923</v>
+      </c>
+      <c r="I30" s="6">
+        <v>48900009.810000002</v>
+      </c>
+      <c r="J30" s="7">
+        <v>69.23</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1064542897</v>
+      </c>
+      <c r="L30" s="6">
+        <v>248112843</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>558306</v>
+      </c>
+      <c r="P30" s="6">
+        <v>2073056489</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>161</v>
+      </c>
+      <c r="R30" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S30" s="6">
+        <v>758563294</v>
+      </c>
+      <c r="T30" t="s">
+        <v>48</v>
+      </c>
+      <c r="U30" s="6">
+        <v>0</v>
+      </c>
+      <c r="V30" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31">
+        <v>2023</v>
+      </c>
+      <c r="F31" s="6">
+        <v>35671849</v>
+      </c>
+      <c r="G31" s="6">
+        <v>5424421</v>
+      </c>
+      <c r="H31" s="6">
+        <v>30247428</v>
+      </c>
+      <c r="I31" s="6">
+        <v>416620.24</v>
+      </c>
+      <c r="J31" s="7">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="K31" s="6">
+        <v>15283629</v>
+      </c>
+      <c r="L31" s="6">
+        <v>9700211</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6">
+        <v>198480</v>
+      </c>
+      <c r="O31" s="6">
+        <v>261005</v>
+      </c>
+      <c r="P31" s="6">
+        <v>5326113</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>76</v>
+      </c>
+      <c r="R31" s="7">
+        <v>7.18215</v>
+      </c>
+      <c r="S31" s="6">
+        <v>2172416</v>
+      </c>
+      <c r="T31" t="s">
+        <v>48</v>
+      </c>
+      <c r="U31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32">
+        <v>2023</v>
+      </c>
+      <c r="F32" s="6">
+        <v>18903495</v>
+      </c>
+      <c r="G32" s="6">
+        <v>6018430</v>
+      </c>
+      <c r="H32" s="6">
+        <v>12923694</v>
+      </c>
+      <c r="I32" s="6">
+        <v>206149.01</v>
+      </c>
+      <c r="J32" s="7">
+        <v>62.69</v>
+      </c>
+      <c r="K32" s="6">
+        <v>12135900</v>
+      </c>
+      <c r="L32" s="6">
+        <v>4470198</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <v>2995327</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>76</v>
+      </c>
+      <c r="R32" s="7">
+        <v>7.18215</v>
+      </c>
+      <c r="S32" s="6">
+        <v>928199</v>
+      </c>
+      <c r="T32" t="s">
+        <v>48</v>
+      </c>
+      <c r="U32" s="6">
+        <v>725706</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" t="s">
+        <v>302</v>
+      </c>
+      <c r="E33">
+        <v>2023</v>
+      </c>
+      <c r="F33" s="6">
+        <v>9189551507</v>
+      </c>
+      <c r="G33" s="6">
+        <v>4027766161</v>
+      </c>
+      <c r="H33" s="6">
+        <v>5161785346</v>
+      </c>
+      <c r="I33" s="6">
+        <v>85820799.900000006</v>
+      </c>
+      <c r="J33" s="7">
+        <v>60.15</v>
+      </c>
+      <c r="K33" s="6">
+        <v>708875783</v>
+      </c>
+      <c r="L33" s="6">
+        <v>616034390</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>1295186</v>
+      </c>
+      <c r="P33" s="6">
+        <v>3838170359</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>161</v>
+      </c>
+      <c r="R33" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S33" s="6">
+        <v>1404445642</v>
+      </c>
+      <c r="T33" t="s">
+        <v>48</v>
+      </c>
+      <c r="U33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>274</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>323</v>
+      </c>
+      <c r="E34">
+        <v>2023</v>
+      </c>
+      <c r="F34" s="6">
+        <v>8486161290</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>8486161290</v>
+      </c>
+      <c r="I34" s="6">
+        <v>132029008.31999999</v>
+      </c>
+      <c r="J34" s="7">
+        <v>64.27</v>
+      </c>
+      <c r="K34" s="6">
+        <v>4130198069</v>
+      </c>
+      <c r="L34" s="6">
+        <v>953054032</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
+        <v>24350037</v>
+      </c>
+      <c r="P34" s="6">
+        <v>3427259226</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>161</v>
+      </c>
+      <c r="R34" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S34" s="6">
+        <v>1254086931</v>
+      </c>
+      <c r="T34" t="s">
+        <v>48</v>
+      </c>
+      <c r="U34" s="6">
+        <v>0</v>
+      </c>
+      <c r="V34" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35">
+        <v>2023</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1600567760</v>
+      </c>
+      <c r="G35" s="6">
+        <v>919228437</v>
+      </c>
+      <c r="H35" s="6">
+        <v>681339323</v>
+      </c>
+      <c r="I35" s="6">
+        <v>12252048.029999999</v>
+      </c>
+      <c r="J35" s="7">
+        <v>55.61</v>
+      </c>
+      <c r="K35" s="6">
+        <v>227519560</v>
+      </c>
+      <c r="L35" s="6">
+        <v>105556808</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <v>348262955</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>161</v>
+      </c>
+      <c r="R35" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S35" s="6">
+        <v>127434778</v>
+      </c>
+      <c r="T35" t="s">
+        <v>48</v>
+      </c>
+      <c r="U35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36">
+        <v>2023</v>
+      </c>
+      <c r="F36" s="6">
+        <v>5297898383</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>5297898383</v>
+      </c>
+      <c r="I36" s="6">
+        <v>90587439.989999995</v>
+      </c>
+      <c r="J36" s="7">
+        <v>58.48</v>
+      </c>
+      <c r="K36" s="6">
+        <v>3884445702</v>
+      </c>
+      <c r="L36" s="6">
+        <v>1223874382</v>
+      </c>
+      <c r="M36" s="6">
+        <v>25682398</v>
+      </c>
+      <c r="N36" s="6">
+        <v>1578950315</v>
+      </c>
+      <c r="O36" s="6">
+        <v>97971671</v>
+      </c>
+      <c r="P36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>76</v>
+      </c>
+      <c r="R36" s="7">
+        <v>7.18215</v>
+      </c>
+      <c r="S36" s="6">
+        <v>380503009</v>
+      </c>
+      <c r="T36" t="s">
+        <v>48</v>
+      </c>
+      <c r="U36" s="6">
+        <v>1317082743</v>
+      </c>
+      <c r="V36" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>231</v>
+      </c>
+      <c r="D37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E37">
+        <v>2023</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1037504</v>
+      </c>
+      <c r="G37" s="6">
+        <v>198927</v>
+      </c>
+      <c r="H37" s="6">
+        <v>838577</v>
+      </c>
+      <c r="I37" s="6">
+        <v>11440.73</v>
+      </c>
+      <c r="J37" s="7">
+        <v>73.3</v>
+      </c>
+      <c r="K37" s="6">
+        <v>550980</v>
+      </c>
+      <c r="L37" s="6">
+        <v>279618</v>
+      </c>
+      <c r="M37" s="6">
+        <v>12344</v>
+      </c>
+      <c r="N37" s="6">
+        <v>505030</v>
+      </c>
+      <c r="O37" s="6">
+        <v>0</v>
+      </c>
+      <c r="P37" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>76</v>
+      </c>
+      <c r="R37" s="7">
+        <v>7.1821700000000002</v>
+      </c>
+      <c r="S37" s="6">
+        <v>60228</v>
+      </c>
+      <c r="T37" t="s">
+        <v>48</v>
+      </c>
+      <c r="U37" s="6">
+        <v>509395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" t="s">
+        <v>270</v>
+      </c>
+      <c r="E38">
+        <v>2023</v>
+      </c>
+      <c r="F38" s="6">
+        <v>7307.26</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1217</v>
+      </c>
+      <c r="H38" s="6">
+        <v>6090.26</v>
+      </c>
+      <c r="I38" s="6">
+        <v>91.87</v>
+      </c>
+      <c r="J38" s="7">
+        <v>66.290000000000006</v>
+      </c>
+      <c r="K38" s="6">
+        <v>209940.76</v>
+      </c>
+      <c r="L38" s="6">
+        <v>18146</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6">
+        <v>525.38</v>
+      </c>
+      <c r="O38" s="6">
+        <v>0</v>
+      </c>
+      <c r="P38" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>76</v>
+      </c>
+      <c r="R38" s="7">
+        <v>8.6265599999999996</v>
+      </c>
+      <c r="S38" s="6">
+        <v>525.38</v>
+      </c>
+      <c r="T38" t="s">
+        <v>234</v>
+      </c>
+      <c r="U38" s="6">
+        <v>18552050.84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39">
+        <v>2023</v>
+      </c>
+      <c r="F39" s="6">
+        <v>7412135061</v>
+      </c>
+      <c r="G39" s="6">
+        <v>2849337232</v>
+      </c>
+      <c r="H39" s="6">
+        <v>4562797829</v>
+      </c>
+      <c r="I39" s="6">
+        <v>79378377.519999996</v>
+      </c>
+      <c r="J39" s="7">
+        <v>57.48</v>
+      </c>
+      <c r="K39" s="6">
+        <v>1159138880</v>
+      </c>
+      <c r="L39" s="6">
+        <v>233843335</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
+        <v>21943</v>
+      </c>
+      <c r="P39" s="6">
+        <v>3169837557</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>161</v>
+      </c>
+      <c r="R39" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S39" s="6">
+        <v>1159892378</v>
+      </c>
+      <c r="T39" t="s">
+        <v>48</v>
+      </c>
+      <c r="U39" s="6">
+        <v>0</v>
+      </c>
+      <c r="V39" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40">
+        <v>2023</v>
+      </c>
+      <c r="F40" s="6">
+        <v>284279</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>284279</v>
+      </c>
+      <c r="I40" s="6">
+        <v>4576.42</v>
+      </c>
+      <c r="J40" s="7">
+        <v>62.12</v>
+      </c>
+      <c r="K40" s="6">
+        <v>283980</v>
+      </c>
+      <c r="L40" s="6">
+        <v>251573</v>
+      </c>
+      <c r="M40" s="6">
+        <v>26719</v>
+      </c>
+      <c r="N40" s="6">
+        <v>984509</v>
+      </c>
+      <c r="O40" s="6">
+        <v>0</v>
+      </c>
+      <c r="P40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>76</v>
+      </c>
+      <c r="R40" s="7">
+        <v>7.1820300000000001</v>
+      </c>
+      <c r="S40" s="6">
+        <v>20417</v>
+      </c>
+      <c r="T40" t="s">
+        <v>48</v>
+      </c>
+      <c r="U40" s="6">
+        <v>1262502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>288</v>
+      </c>
+      <c r="B41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" t="s">
+        <v>270</v>
+      </c>
+      <c r="E41">
+        <v>2023</v>
+      </c>
+      <c r="F41" s="6">
+        <v>128164</v>
+      </c>
+      <c r="G41" s="6">
+        <v>25433</v>
+      </c>
+      <c r="H41" s="6">
+        <v>102731</v>
+      </c>
+      <c r="I41" s="6">
+        <v>1486.88</v>
+      </c>
+      <c r="J41" s="7">
+        <v>69.09</v>
+      </c>
+      <c r="K41" s="6">
+        <v>169384</v>
+      </c>
+      <c r="L41" s="6">
+        <v>64103</v>
+      </c>
+      <c r="M41" s="6">
+        <v>12669</v>
+      </c>
+      <c r="N41" s="6">
+        <v>462155</v>
+      </c>
+      <c r="O41" s="6">
+        <v>3484</v>
+      </c>
+      <c r="P41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>76</v>
+      </c>
+      <c r="R41" s="7">
+        <v>7.1818600000000004</v>
+      </c>
+      <c r="S41" s="6">
+        <v>7378</v>
+      </c>
+      <c r="T41" t="s">
+        <v>48</v>
+      </c>
+      <c r="U41" s="6">
+        <v>602096</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42">
+        <v>2023</v>
+      </c>
+      <c r="F42" s="6">
+        <v>364860</v>
+      </c>
+      <c r="G42" s="6">
+        <v>120872</v>
+      </c>
+      <c r="H42" s="6">
+        <v>243988</v>
+      </c>
+      <c r="I42" s="6">
+        <v>4023.95</v>
+      </c>
+      <c r="J42" s="7">
+        <v>60.63</v>
+      </c>
+      <c r="K42" s="6">
+        <v>821272</v>
+      </c>
+      <c r="L42" s="6">
+        <v>114840</v>
+      </c>
+      <c r="M42" s="6">
+        <v>113442</v>
+      </c>
+      <c r="N42" s="6">
+        <v>4054070</v>
+      </c>
+      <c r="O42" s="6">
+        <v>0</v>
+      </c>
+      <c r="P42" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>76</v>
+      </c>
+      <c r="R42" s="7">
+        <v>7.1823199999999998</v>
+      </c>
+      <c r="S42" s="6">
+        <v>17524</v>
+      </c>
+      <c r="T42" t="s">
+        <v>48</v>
+      </c>
+      <c r="U42" s="6">
+        <v>4859636</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" t="s">
+        <v>305</v>
+      </c>
+      <c r="E43">
+        <v>2023</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2592717160.0100002</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1180404523.8699999</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1412312636.1400001</v>
+      </c>
+      <c r="I43" s="6">
+        <v>24194942.699999999</v>
+      </c>
+      <c r="J43" s="7">
+        <v>58.37</v>
+      </c>
+      <c r="K43" s="6">
+        <v>319925353.77999997</v>
+      </c>
+      <c r="L43" s="6">
+        <v>274593036.42000002</v>
+      </c>
+      <c r="M43" s="6">
+        <v>146894345.72999999</v>
+      </c>
+      <c r="N43" s="6">
+        <v>101584078.05</v>
+      </c>
+      <c r="O43" s="6">
+        <v>3350836.49</v>
+      </c>
+      <c r="P43" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R43" s="7">
+        <v>7.1927500000000002</v>
+      </c>
+      <c r="S43" s="6">
+        <v>101584078.05</v>
+      </c>
+      <c r="T43" t="s">
+        <v>234</v>
+      </c>
+      <c r="U43" s="6">
+        <v>4208033902.1399999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" t="s">
+        <v>275</v>
+      </c>
+      <c r="D44" t="s">
+        <v>181</v>
+      </c>
+      <c r="E44">
+        <v>2023</v>
+      </c>
+      <c r="F44" s="6">
+        <v>32318268.699999999</v>
+      </c>
+      <c r="G44" s="6">
+        <v>14328534.720000001</v>
+      </c>
+      <c r="H44" s="6">
+        <v>17994490.960000001</v>
+      </c>
+      <c r="I44" s="6">
+        <v>331362.18</v>
+      </c>
+      <c r="J44" s="7">
+        <v>54.3</v>
+      </c>
+      <c r="K44" s="6">
+        <v>5692714.7199999997</v>
+      </c>
+      <c r="L44" s="6">
+        <v>5356312.59</v>
+      </c>
+      <c r="M44" s="6">
+        <v>5988557.9100000001</v>
+      </c>
+      <c r="N44" s="6">
+        <v>1290042.5</v>
+      </c>
+      <c r="O44" s="6">
+        <v>340161.08</v>
+      </c>
+      <c r="P44" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>76</v>
+      </c>
+      <c r="R44" s="7">
+        <v>7.1691000000000003</v>
+      </c>
+      <c r="S44" s="6">
+        <v>1290042.5</v>
+      </c>
+      <c r="T44" t="s">
+        <v>234</v>
+      </c>
+      <c r="U44" s="6">
+        <v>184822475.37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>279</v>
+      </c>
+      <c r="B45" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" t="s">
+        <v>232</v>
+      </c>
+      <c r="E45">
+        <v>2023</v>
+      </c>
+      <c r="F45" s="6">
+        <v>495501</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6">
+        <v>495501</v>
+      </c>
+      <c r="I45" s="6">
+        <v>6951.15</v>
+      </c>
+      <c r="J45" s="7">
+        <v>71.28</v>
+      </c>
+      <c r="K45" s="6">
+        <v>340110</v>
+      </c>
+      <c r="L45" s="6">
+        <v>33600</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0</v>
+      </c>
+      <c r="P45" s="6">
+        <v>121791</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>161</v>
+      </c>
+      <c r="R45" s="7">
+        <v>36.591369999999998</v>
+      </c>
+      <c r="S45" s="6">
+        <v>44565</v>
+      </c>
+      <c r="T45" t="s">
+        <v>48</v>
+      </c>
+      <c r="U45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>313</v>
+      </c>
+      <c r="D46" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46">
+        <v>2023</v>
+      </c>
+      <c r="F46" s="6">
+        <v>5521047624.6099997</v>
+      </c>
+      <c r="G46" s="6">
+        <v>2465451161.1799998</v>
+      </c>
+      <c r="H46" s="6">
+        <v>3055596463.4299998</v>
+      </c>
+      <c r="I46" s="6">
+        <v>50816762.280000001</v>
+      </c>
+      <c r="J46" s="7">
+        <v>60.13</v>
+      </c>
+      <c r="K46" s="6">
+        <v>465813427.72000003</v>
+      </c>
+      <c r="L46" s="6">
+        <v>166538206.34999999</v>
+      </c>
+      <c r="M46" s="6">
+        <v>153508978.02000001</v>
+      </c>
+      <c r="N46" s="6">
+        <v>219915429.56</v>
+      </c>
+      <c r="O46" s="6">
+        <v>1172516.26</v>
+      </c>
+      <c r="P46" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>76</v>
+      </c>
+      <c r="R46" s="7">
+        <v>7.1971400000000001</v>
+      </c>
+      <c r="S46" s="6">
+        <v>219915429.56</v>
+      </c>
+      <c r="T46" t="s">
+        <v>234</v>
+      </c>
+      <c r="U46" s="6">
+        <v>3598608132.4200001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>254</v>
+      </c>
+      <c r="D47" t="s">
+        <v>270</v>
+      </c>
+      <c r="E47">
+        <v>2023</v>
+      </c>
+      <c r="F47" s="6">
+        <v>6176361882</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6">
+        <v>6176361882</v>
+      </c>
+      <c r="I47" s="6">
+        <v>97183718.260000005</v>
+      </c>
+      <c r="J47" s="7">
+        <v>63.55</v>
+      </c>
+      <c r="K47" s="6">
+        <v>2128086807</v>
+      </c>
+      <c r="L47" s="6">
+        <v>878138774</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
+      <c r="N47" s="6">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6">
+        <v>43369936</v>
+      </c>
+      <c r="P47" s="6">
+        <v>3213506237</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>161</v>
+      </c>
+      <c r="R47" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S47" s="6">
+        <v>1175871420</v>
+      </c>
+      <c r="T47" t="s">
+        <v>48</v>
+      </c>
+      <c r="U47" s="6">
+        <v>0</v>
+      </c>
+      <c r="V47" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>264</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48">
+        <v>2023</v>
+      </c>
+      <c r="F48" s="6">
+        <v>465836094</v>
+      </c>
+      <c r="G48" s="6">
+        <v>66226649</v>
+      </c>
+      <c r="H48" s="6">
+        <v>399609445</v>
+      </c>
+      <c r="I48" s="6">
+        <v>5440842.2999999998</v>
+      </c>
+      <c r="J48" s="7">
+        <v>73.45</v>
+      </c>
+      <c r="K48" s="6">
+        <v>64347017</v>
+      </c>
+      <c r="L48" s="6">
+        <v>68774597</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6">
+        <v>0</v>
+      </c>
+      <c r="O48" s="6">
+        <v>5647052</v>
+      </c>
+      <c r="P48" s="6">
+        <v>272134883</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>161</v>
+      </c>
+      <c r="R48" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S48" s="6">
+        <v>99578345</v>
+      </c>
+      <c r="T48" t="s">
+        <v>48</v>
+      </c>
+      <c r="U48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>260</v>
+      </c>
+      <c r="D49" t="s">
+        <v>270</v>
+      </c>
+      <c r="E49">
+        <v>2023</v>
+      </c>
+      <c r="F49" s="6">
+        <v>7499317.9299999997</v>
+      </c>
+      <c r="G49" s="6">
+        <v>2065500.53</v>
+      </c>
+      <c r="H49" s="6">
+        <v>5433817.4000000004</v>
+      </c>
+      <c r="I49" s="6">
+        <v>73486.350000000006</v>
+      </c>
+      <c r="J49" s="7">
+        <v>73.94</v>
+      </c>
+      <c r="K49" s="6">
+        <v>2341710.0099999998</v>
+      </c>
+      <c r="L49" s="6">
+        <v>1207466.95</v>
+      </c>
+      <c r="M49" s="6">
+        <v>858167.15</v>
+      </c>
+      <c r="N49" s="6">
+        <v>385184.21</v>
+      </c>
+      <c r="O49" s="6">
+        <v>0</v>
+      </c>
+      <c r="P49" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>76</v>
+      </c>
+      <c r="R49" s="7">
+        <v>7.0886500000000003</v>
+      </c>
+      <c r="S49" s="6">
+        <v>385184.21</v>
+      </c>
+      <c r="T49" t="s">
+        <v>234</v>
+      </c>
+      <c r="U49" s="6">
+        <v>26606681.66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>287</v>
+      </c>
+      <c r="B50" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50">
+        <v>2023</v>
+      </c>
+      <c r="F50" s="6">
+        <v>22798614</v>
+      </c>
+      <c r="G50" s="6">
+        <v>4537616</v>
+      </c>
+      <c r="H50" s="6">
+        <v>18260998</v>
+      </c>
+      <c r="I50" s="6">
+        <v>302133</v>
+      </c>
+      <c r="J50" s="7">
+        <v>60.44</v>
+      </c>
+      <c r="K50" s="6">
+        <v>7178706</v>
+      </c>
+      <c r="L50" s="6">
+        <v>8599502</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6">
+        <v>0</v>
+      </c>
+      <c r="O50" s="6">
+        <v>0</v>
+      </c>
+      <c r="P50" s="6">
+        <v>2482790</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R50" s="7">
+        <v>7.18215</v>
+      </c>
+      <c r="S50" s="6">
+        <v>1311532</v>
+      </c>
+      <c r="T50" t="s">
+        <v>48</v>
+      </c>
+      <c r="U50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D51" t="s">
+        <v>270</v>
+      </c>
+      <c r="E51">
+        <v>2023</v>
+      </c>
+      <c r="F51" s="6">
+        <v>89881821</v>
+      </c>
+      <c r="G51" s="6">
+        <v>17840099</v>
+      </c>
+      <c r="H51" s="6">
+        <v>72041722</v>
+      </c>
+      <c r="I51" s="6">
+        <v>995665.27</v>
+      </c>
+      <c r="J51" s="7">
+        <v>72.36</v>
+      </c>
+      <c r="K51" s="6">
+        <v>15317071</v>
+      </c>
+      <c r="L51" s="6">
+        <v>9216333</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0</v>
+      </c>
+      <c r="N51" s="6">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6">
+        <v>206368</v>
+      </c>
+      <c r="P51" s="6">
+        <v>47714686</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>161</v>
+      </c>
+      <c r="R51" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S51" s="6">
+        <v>17459538</v>
+      </c>
+      <c r="T51" t="s">
+        <v>48</v>
+      </c>
+      <c r="U51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52">
+        <v>2023</v>
+      </c>
+      <c r="F52" s="6">
+        <v>26201624</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6">
+        <v>26201624</v>
+      </c>
+      <c r="I52" s="6">
+        <v>400645.24</v>
+      </c>
+      <c r="J52" s="7">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="K52" s="6">
+        <v>8918486</v>
+      </c>
+      <c r="L52" s="6">
+        <v>10406817</v>
+      </c>
+      <c r="M52" s="6">
+        <v>34579</v>
+      </c>
+      <c r="N52" s="6">
+        <v>3531496</v>
+      </c>
+      <c r="O52" s="6">
+        <v>0</v>
+      </c>
+      <c r="P52" s="6">
+        <v>3310246</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>76</v>
+      </c>
+      <c r="R52" s="7">
+        <v>7.18215</v>
+      </c>
+      <c r="S52" s="6">
+        <v>1881840</v>
+      </c>
+      <c r="T52" t="s">
+        <v>48</v>
+      </c>
+      <c r="U52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>280</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" t="s">
+        <v>319</v>
+      </c>
+      <c r="E53">
+        <v>2023</v>
+      </c>
+      <c r="F53" s="6">
+        <v>798330437</v>
+      </c>
+      <c r="G53" s="6">
+        <v>287421934</v>
+      </c>
+      <c r="H53" s="6">
+        <v>510908503</v>
+      </c>
+      <c r="I53" s="6">
+        <v>7530492.5499999998</v>
+      </c>
+      <c r="J53" s="7">
+        <v>67.849999999999994</v>
+      </c>
+      <c r="K53" s="6">
+        <v>137488945</v>
+      </c>
+      <c r="L53" s="6">
+        <v>67700356</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6">
+        <v>0</v>
+      </c>
+      <c r="O53" s="6">
+        <v>0</v>
+      </c>
+      <c r="P53" s="6">
+        <v>305719202</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>161</v>
+      </c>
+      <c r="R53" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S53" s="6">
+        <v>111867364</v>
+      </c>
+      <c r="T53" t="s">
+        <v>48</v>
+      </c>
+      <c r="U53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54">
+        <v>2023</v>
+      </c>
+      <c r="F54" s="6">
+        <v>3787305</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6">
+        <v>3787305</v>
+      </c>
+      <c r="I54" s="6">
+        <v>57104.87</v>
+      </c>
+      <c r="J54" s="7">
+        <v>66.319999999999993</v>
+      </c>
+      <c r="K54" s="6">
+        <v>1718382</v>
+      </c>
+      <c r="L54" s="6">
+        <v>303298</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0</v>
+      </c>
+      <c r="N54" s="6">
+        <v>0</v>
+      </c>
+      <c r="O54" s="6">
+        <v>0</v>
+      </c>
+      <c r="P54" s="6">
+        <v>1765625</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>161</v>
+      </c>
+      <c r="R54" s="7">
+        <v>36.591520000000003</v>
+      </c>
+      <c r="S54" s="6">
+        <v>646069</v>
+      </c>
+      <c r="T54" t="s">
+        <v>48</v>
+      </c>
+      <c r="U54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55">
+        <v>2023</v>
+      </c>
+      <c r="F55" s="6">
+        <v>1421225.65</v>
+      </c>
+      <c r="G55" s="6">
+        <v>441149</v>
+      </c>
+      <c r="H55" s="6">
+        <v>980076.65</v>
+      </c>
+      <c r="I55" s="6">
+        <v>15408.05</v>
+      </c>
+      <c r="J55" s="7">
+        <v>63.61</v>
+      </c>
+      <c r="K55" s="6">
+        <v>1095055</v>
+      </c>
+      <c r="L55" s="6">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>440927.87</v>
+      </c>
+      <c r="N55" s="6">
+        <v>70063.34</v>
+      </c>
+      <c r="O55" s="6">
+        <v>0</v>
+      </c>
+      <c r="P55" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>76</v>
+      </c>
+      <c r="R55" s="7">
+        <v>7.1487600000000002</v>
+      </c>
+      <c r="S55" s="6">
+        <v>70063.34</v>
+      </c>
+      <c r="T55" t="s">
+        <v>234</v>
+      </c>
+      <c r="U55" s="6">
+        <v>14080908.01</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>289</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" t="s">
+        <v>270</v>
+      </c>
+      <c r="E56">
+        <v>2023</v>
+      </c>
+      <c r="F56" s="6">
+        <v>773369</v>
+      </c>
+      <c r="G56" s="6">
+        <v>149396</v>
+      </c>
+      <c r="H56" s="6">
+        <v>623973</v>
+      </c>
+      <c r="I56" s="6">
+        <v>8371.33</v>
+      </c>
+      <c r="J56" s="7">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="K56" s="6">
+        <v>978611</v>
+      </c>
+      <c r="L56" s="6">
+        <v>371207</v>
+      </c>
+      <c r="M56" s="6">
+        <v>64297</v>
+      </c>
+      <c r="N56" s="6">
+        <v>2359848</v>
+      </c>
+      <c r="O56" s="6">
+        <v>50434</v>
+      </c>
+      <c r="P56" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>76</v>
+      </c>
+      <c r="R56" s="7">
+        <v>7.1821999999999999</v>
+      </c>
+      <c r="S56" s="6">
+        <v>44815</v>
+      </c>
+      <c r="T56" t="s">
+        <v>48</v>
+      </c>
+      <c r="U56" s="6">
+        <v>3099556</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57">
+        <v>2023</v>
+      </c>
+      <c r="F57" s="6">
+        <v>907079600.47000003</v>
+      </c>
+      <c r="G57" s="6">
+        <v>495282928.32999998</v>
+      </c>
+      <c r="H57" s="6">
+        <v>411796672.13999999</v>
+      </c>
+      <c r="I57" s="6">
+        <v>9596255.8200000003</v>
+      </c>
+      <c r="J57" s="7">
+        <v>42.91</v>
+      </c>
+      <c r="K57" s="6">
+        <v>179504153.18000001</v>
+      </c>
+      <c r="L57" s="6">
+        <v>93239201.379999995</v>
+      </c>
+      <c r="M57" s="6">
+        <v>867972.64</v>
+      </c>
+      <c r="N57" s="6">
+        <v>29093831.93</v>
+      </c>
+      <c r="O57" s="6">
+        <v>486308.32</v>
+      </c>
+      <c r="P57" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>76</v>
+      </c>
+      <c r="R57" s="7">
+        <v>7.0651000000000002</v>
+      </c>
+      <c r="S57" s="6">
+        <v>29093831.93</v>
+      </c>
+      <c r="T57" t="s">
+        <v>234</v>
+      </c>
+      <c r="U57" s="6">
+        <v>54479308.850000001</v>
+      </c>
+      <c r="V57" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <v>2023</v>
+      </c>
+      <c r="F58" s="6">
+        <v>3066495746</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1157474174</v>
+      </c>
+      <c r="H58" s="6">
+        <v>1909021572</v>
+      </c>
+      <c r="I58" s="6">
+        <v>27365828.379999999</v>
+      </c>
+      <c r="J58" s="7">
+        <v>69.760000000000005</v>
+      </c>
+      <c r="K58" s="6">
+        <v>305603205</v>
+      </c>
+      <c r="L58" s="6">
+        <v>331960819</v>
+      </c>
+      <c r="M58" s="6">
+        <v>0</v>
+      </c>
+      <c r="N58" s="6">
+        <v>54615507</v>
+      </c>
+      <c r="O58" s="6">
+        <v>231276</v>
+      </c>
+      <c r="P58" s="6">
+        <v>1217073317</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>161</v>
+      </c>
+      <c r="R58" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S58" s="6">
+        <v>445345870</v>
+      </c>
+      <c r="T58" t="s">
+        <v>48</v>
+      </c>
+      <c r="U58" s="6">
+        <v>0</v>
+      </c>
+      <c r="V58" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59">
+        <v>2023</v>
+      </c>
+      <c r="F59" s="6">
+        <v>57557911</v>
+      </c>
+      <c r="G59" s="6">
+        <v>18644919</v>
+      </c>
+      <c r="H59" s="6">
+        <v>38943738</v>
+      </c>
+      <c r="I59" s="6">
+        <v>633268.02</v>
+      </c>
+      <c r="J59" s="7">
+        <v>61.5</v>
+      </c>
+      <c r="K59" s="6">
+        <v>22654999</v>
+      </c>
+      <c r="L59" s="6">
+        <v>470056</v>
+      </c>
+      <c r="M59" s="6">
+        <v>79507</v>
+      </c>
+      <c r="N59" s="6">
+        <v>8253991</v>
+      </c>
+      <c r="O59" s="6">
+        <v>7919848</v>
+      </c>
+      <c r="P59" s="6">
+        <v>15374287</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>161</v>
+      </c>
+      <c r="R59" s="7">
+        <v>36.620449999999998</v>
+      </c>
+      <c r="S59" s="6">
+        <v>5630133</v>
+      </c>
+      <c r="T59" t="s">
+        <v>48</v>
+      </c>
+      <c r="U59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" t="s">
+        <v>270</v>
+      </c>
+      <c r="E60">
+        <v>2023</v>
+      </c>
+      <c r="F60" s="6">
+        <v>1369847633</v>
+      </c>
+      <c r="G60" s="6">
+        <v>590987174</v>
+      </c>
+      <c r="H60" s="6">
+        <v>778860459</v>
+      </c>
+      <c r="I60" s="6">
+        <v>13229560.529999999</v>
+      </c>
+      <c r="J60" s="7">
+        <v>58.87</v>
+      </c>
+      <c r="K60" s="6">
+        <v>161414404</v>
+      </c>
+      <c r="L60" s="6">
+        <v>81601367</v>
+      </c>
+      <c r="M60" s="6">
+        <v>0</v>
+      </c>
+      <c r="N60" s="6">
+        <v>0</v>
+      </c>
+      <c r="O60" s="6">
+        <v>10820748</v>
+      </c>
+      <c r="P60" s="6">
+        <v>546665436</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>161</v>
+      </c>
+      <c r="R60" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S60" s="6">
+        <v>200033302</v>
+      </c>
+      <c r="T60" t="s">
+        <v>48</v>
+      </c>
+      <c r="U60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>210</v>
+      </c>
+      <c r="B61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>314</v>
+      </c>
+      <c r="E61">
+        <v>2023</v>
+      </c>
+      <c r="F61" s="6">
+        <v>166667.67000000001</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0</v>
+      </c>
+      <c r="H61" s="6">
+        <v>166667.67000000001</v>
+      </c>
+      <c r="I61" s="6">
+        <v>3472.11</v>
+      </c>
+      <c r="J61" s="7">
+        <v>48</v>
+      </c>
+      <c r="K61" s="6">
+        <v>1532264.34</v>
+      </c>
+      <c r="L61" s="6">
+        <v>176705</v>
+      </c>
+      <c r="M61" s="6">
+        <v>1043940.53</v>
+      </c>
+      <c r="N61" s="6">
+        <v>11195.66</v>
+      </c>
+      <c r="O61" s="6">
+        <v>0</v>
+      </c>
+      <c r="P61" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>76</v>
+      </c>
+      <c r="R61" s="7">
+        <v>6.7173600000000002</v>
+      </c>
+      <c r="S61" s="6">
+        <v>11195.66</v>
+      </c>
+      <c r="T61" t="s">
+        <v>234</v>
+      </c>
+      <c r="U61" s="6">
+        <v>33851421.039999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" t="s">
+        <v>222</v>
+      </c>
+      <c r="D62" t="s">
+        <v>319</v>
+      </c>
+      <c r="E62">
+        <v>2023</v>
+      </c>
+      <c r="F62" s="6">
+        <v>730644340</v>
+      </c>
+      <c r="G62" s="6">
+        <v>315387176</v>
+      </c>
+      <c r="H62" s="6">
+        <v>415257164</v>
+      </c>
+      <c r="I62" s="6">
+        <v>6617385.9199999999</v>
+      </c>
+      <c r="J62" s="7">
+        <v>62.75</v>
+      </c>
+      <c r="K62" s="6">
+        <v>132065575</v>
+      </c>
+      <c r="L62" s="6">
+        <v>56800529</v>
+      </c>
+      <c r="M62" s="6">
+        <v>0</v>
+      </c>
+      <c r="N62" s="6">
+        <v>0</v>
+      </c>
+      <c r="O62" s="6">
+        <v>0</v>
+      </c>
+      <c r="P62" s="6">
+        <v>226391060</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>161</v>
+      </c>
+      <c r="R62" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S62" s="6">
+        <v>82839975</v>
+      </c>
+      <c r="T62" t="s">
+        <v>48</v>
+      </c>
+      <c r="U62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" t="s">
+        <v>181</v>
+      </c>
+      <c r="E63">
+        <v>2023</v>
+      </c>
+      <c r="F63" s="6">
+        <v>5930760</v>
+      </c>
+      <c r="G63" s="6">
+        <v>67042.86</v>
+      </c>
+      <c r="H63" s="6">
+        <v>5863717.1399999997</v>
+      </c>
+      <c r="I63" s="6">
+        <v>109609.42</v>
+      </c>
+      <c r="J63" s="7">
+        <v>53.5</v>
+      </c>
+      <c r="K63" s="6">
+        <v>3332406.99</v>
+      </c>
+      <c r="L63" s="6">
+        <v>271527.65999999997</v>
+      </c>
+      <c r="M63" s="6">
+        <v>1070557.3500000001</v>
+      </c>
+      <c r="N63" s="6">
+        <v>424742.45</v>
+      </c>
+      <c r="O63" s="6">
+        <v>464668.18</v>
+      </c>
+      <c r="P63" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>76</v>
+      </c>
+      <c r="R63" s="7">
+        <v>7.2435700000000001</v>
+      </c>
+      <c r="S63" s="6">
+        <v>424742.45</v>
+      </c>
+      <c r="T63" t="s">
+        <v>234</v>
+      </c>
+      <c r="U63" s="6">
+        <v>32295232.899999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" t="s">
+        <v>270</v>
+      </c>
+      <c r="E64">
+        <v>2023</v>
+      </c>
+      <c r="F64" s="6">
+        <v>1025488</v>
+      </c>
+      <c r="G64" s="6">
+        <v>203866</v>
+      </c>
+      <c r="H64" s="6">
+        <v>821622</v>
+      </c>
+      <c r="I64" s="6">
+        <v>11272.73</v>
+      </c>
+      <c r="J64" s="7">
+        <v>72.89</v>
+      </c>
+      <c r="K64" s="6">
+        <v>842008</v>
+      </c>
+      <c r="L64" s="6">
+        <v>200308</v>
+      </c>
+      <c r="M64" s="6">
+        <v>2178</v>
+      </c>
+      <c r="N64" s="6">
+        <v>324588</v>
+      </c>
+      <c r="O64" s="6">
+        <v>32685</v>
+      </c>
+      <c r="P64" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>76</v>
+      </c>
+      <c r="R64" s="7">
+        <v>7.1821299999999999</v>
+      </c>
+      <c r="S64" s="6">
+        <v>59010</v>
+      </c>
+      <c r="T64" t="s">
+        <v>48</v>
+      </c>
+      <c r="U64" s="6">
+        <v>514775</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>243</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
+        <v>302</v>
+      </c>
+      <c r="E65">
+        <v>2023</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1942675897.8099999</v>
+      </c>
+      <c r="G65" s="6">
+        <v>894193881.01999998</v>
+      </c>
+      <c r="H65" s="6">
+        <v>1048482016.79</v>
+      </c>
+      <c r="I65" s="6">
+        <v>17707844.710000001</v>
+      </c>
+      <c r="J65" s="7">
+        <v>59.21</v>
+      </c>
+      <c r="K65" s="6">
+        <v>280407138.63999999</v>
+      </c>
+      <c r="L65" s="6">
+        <v>360503813.04000002</v>
+      </c>
+      <c r="M65" s="6">
+        <v>109681310</v>
+      </c>
+      <c r="N65" s="6">
+        <v>75294657.230000004</v>
+      </c>
+      <c r="O65" s="6">
+        <v>0</v>
+      </c>
+      <c r="P65" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>76</v>
+      </c>
+      <c r="R65" s="7">
+        <v>7.1813000000000002</v>
+      </c>
+      <c r="S65" s="6">
+        <v>75294657.230000004</v>
+      </c>
+      <c r="T65" t="s">
+        <v>234</v>
+      </c>
+      <c r="U65" s="6">
+        <v>3248533089</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" t="s">
+        <v>181</v>
+      </c>
+      <c r="E66">
+        <v>2023</v>
+      </c>
+      <c r="F66" s="6">
+        <v>1369566.6</v>
+      </c>
+      <c r="G66" s="6">
+        <v>493346.29</v>
+      </c>
+      <c r="H66" s="6">
+        <v>881381.51</v>
+      </c>
+      <c r="I66" s="6">
+        <v>16059.31</v>
+      </c>
+      <c r="J66" s="7">
+        <v>54.88</v>
+      </c>
+      <c r="K66" s="6">
+        <v>455361.25</v>
+      </c>
+      <c r="L66" s="6">
+        <v>1828.25</v>
+      </c>
+      <c r="M66" s="6">
+        <v>362182.1</v>
+      </c>
+      <c r="N66" s="6">
+        <v>63394.91</v>
+      </c>
+      <c r="O66" s="6">
+        <v>0</v>
+      </c>
+      <c r="P66" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>76</v>
+      </c>
+      <c r="R66" s="7">
+        <v>7.1926800000000002</v>
+      </c>
+      <c r="S66" s="6">
+        <v>63394.91</v>
+      </c>
+      <c r="T66" t="s">
+        <v>234</v>
+      </c>
+      <c r="U66" s="6">
+        <v>11255944.65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="s">
+        <v>266</v>
+      </c>
+      <c r="D67" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67">
+        <v>2023</v>
+      </c>
+      <c r="F67" s="6">
+        <v>247108220.28999999</v>
+      </c>
+      <c r="G67" s="6">
+        <v>52096712.130000003</v>
+      </c>
+      <c r="H67" s="6">
+        <v>195011508.16</v>
+      </c>
+      <c r="I67" s="6">
+        <v>3553585.17</v>
+      </c>
+      <c r="J67" s="7">
+        <v>54.88</v>
+      </c>
+      <c r="K67" s="6">
+        <v>58355033.170000002</v>
+      </c>
+      <c r="L67" s="6">
+        <v>55351103.859999999</v>
+      </c>
+      <c r="M67" s="6">
+        <v>4045298.13</v>
+      </c>
+      <c r="N67" s="6">
+        <v>13927319.92</v>
+      </c>
+      <c r="O67" s="6">
+        <v>349208</v>
+      </c>
+      <c r="P67" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>76</v>
+      </c>
+      <c r="R67" s="7">
+        <v>7.1417900000000003</v>
+      </c>
+      <c r="S67" s="6">
+        <v>13927319.92</v>
+      </c>
+      <c r="T67" t="s">
+        <v>234</v>
+      </c>
+      <c r="U67" s="6">
+        <v>85766176.400000006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68">
+        <v>2023</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0</v>
+      </c>
+      <c r="J68" s="7">
+        <v>0</v>
+      </c>
+      <c r="K68" s="6">
+        <v>3329</v>
+      </c>
+      <c r="L68" s="6">
+        <v>0</v>
+      </c>
+      <c r="M68" s="6">
+        <v>0</v>
+      </c>
+      <c r="N68" s="6">
+        <v>0</v>
+      </c>
+      <c r="O68" s="6">
+        <v>0</v>
+      </c>
+      <c r="P68" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>76</v>
+      </c>
+      <c r="R68" s="7">
+        <v>0</v>
+      </c>
+      <c r="S68" s="6">
+        <v>0</v>
+      </c>
+      <c r="T68" t="s">
+        <v>234</v>
+      </c>
+      <c r="U68" s="6">
+        <v>2812798.34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69">
+        <v>2023</v>
+      </c>
+      <c r="F69" s="6">
+        <v>10547875606.07</v>
+      </c>
+      <c r="G69" s="6">
+        <v>4060131587.1900001</v>
+      </c>
+      <c r="H69" s="6">
+        <v>6487744018.8800001</v>
+      </c>
+      <c r="I69" s="6">
+        <v>97491416.840000004</v>
+      </c>
+      <c r="J69" s="7">
+        <v>66.55</v>
+      </c>
+      <c r="K69" s="6">
+        <v>2954569440.0300002</v>
+      </c>
+      <c r="L69" s="6">
+        <v>365920398.24000001</v>
+      </c>
+      <c r="M69" s="6">
+        <v>905656774.26999998</v>
+      </c>
+      <c r="N69" s="6">
+        <v>470409203.97000003</v>
+      </c>
+      <c r="O69" s="6">
+        <v>790841.79</v>
+      </c>
+      <c r="P69" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>76</v>
+      </c>
+      <c r="R69" s="7">
+        <v>7.2507400000000004</v>
+      </c>
+      <c r="S69" s="6">
+        <v>470409203.97000003</v>
+      </c>
+      <c r="T69" t="s">
+        <v>234</v>
+      </c>
+      <c r="U69" s="6">
+        <v>26924324615.599998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" t="s">
+        <v>270</v>
+      </c>
+      <c r="E70">
+        <v>2023</v>
+      </c>
+      <c r="F70" s="6">
+        <v>854614</v>
+      </c>
+      <c r="G70" s="6">
+        <v>145352</v>
+      </c>
+      <c r="H70" s="6">
+        <v>709262</v>
+      </c>
+      <c r="I70" s="6">
+        <v>10353.42</v>
+      </c>
+      <c r="J70" s="7">
+        <v>68.510000000000005</v>
+      </c>
+      <c r="K70" s="6">
+        <v>570011</v>
+      </c>
+      <c r="L70" s="6">
+        <v>458587</v>
+      </c>
+      <c r="M70" s="6">
+        <v>26228</v>
+      </c>
+      <c r="N70" s="6">
+        <v>1035232</v>
+      </c>
+      <c r="O70" s="6">
+        <v>80000</v>
+      </c>
+      <c r="P70" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>76</v>
+      </c>
+      <c r="R70" s="7">
+        <v>7.1821099999999998</v>
+      </c>
+      <c r="S70" s="6">
+        <v>50940</v>
+      </c>
+      <c r="T70" t="s">
+        <v>48</v>
+      </c>
+      <c r="U70" s="6">
+        <v>1300796</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" t="s">
+        <v>270</v>
+      </c>
+      <c r="E71">
+        <v>2023</v>
+      </c>
+      <c r="F71" s="6">
+        <v>3405585.81</v>
+      </c>
+      <c r="G71" s="6">
+        <v>539805</v>
+      </c>
+      <c r="H71" s="6">
+        <v>2865780.81</v>
+      </c>
+      <c r="I71" s="6">
+        <v>40595.03</v>
+      </c>
+      <c r="J71" s="7">
+        <v>70.59</v>
+      </c>
+      <c r="K71" s="6">
+        <v>2607177.6800000002</v>
+      </c>
+      <c r="L71" s="6">
+        <v>247194.07</v>
+      </c>
+      <c r="M71" s="6">
+        <v>1009274.8</v>
+      </c>
+      <c r="N71" s="6">
+        <v>205502.98</v>
+      </c>
+      <c r="O71" s="6">
+        <v>0</v>
+      </c>
+      <c r="P71" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>76</v>
+      </c>
+      <c r="R71" s="7">
+        <v>7.1709199999999997</v>
+      </c>
+      <c r="S71" s="6">
+        <v>205502.98</v>
+      </c>
+      <c r="T71" t="s">
+        <v>234</v>
+      </c>
+      <c r="U71" s="6">
+        <v>32031821.870000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72" t="s">
+        <v>270</v>
+      </c>
+      <c r="E72">
+        <v>2023</v>
+      </c>
+      <c r="F72" s="6">
+        <v>2992139851</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0</v>
+      </c>
+      <c r="H72" s="6">
+        <v>2992139851</v>
+      </c>
+      <c r="I72" s="6">
+        <v>44693446.490000002</v>
+      </c>
+      <c r="J72" s="7">
+        <v>66.95</v>
+      </c>
+      <c r="K72" s="6">
+        <v>956759669</v>
+      </c>
+      <c r="L72" s="6">
+        <v>154861946</v>
+      </c>
+      <c r="M72" s="6">
+        <v>0</v>
+      </c>
+      <c r="N72" s="6">
+        <v>0</v>
+      </c>
+      <c r="O72" s="6">
+        <v>4744072</v>
+      </c>
+      <c r="P72" s="6">
+        <v>1885262308</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>161</v>
+      </c>
+      <c r="R72" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S72" s="6">
+        <v>689846512</v>
+      </c>
+      <c r="T72" t="s">
+        <v>48</v>
+      </c>
+      <c r="U72" s="6">
+        <v>0</v>
+      </c>
+      <c r="V72" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73">
+        <v>2023</v>
+      </c>
+      <c r="F73" s="6">
+        <v>5674863</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0</v>
+      </c>
+      <c r="H73" s="6">
+        <v>5674863</v>
+      </c>
+      <c r="I73" s="6">
+        <v>82872.63</v>
+      </c>
+      <c r="J73" s="7">
+        <v>68.48</v>
+      </c>
+      <c r="K73" s="6">
+        <v>3207727</v>
+      </c>
+      <c r="L73" s="6">
+        <v>8788057</v>
+      </c>
+      <c r="M73" s="6">
+        <v>272823</v>
+      </c>
+      <c r="N73" s="6">
+        <v>10407128</v>
+      </c>
+      <c r="O73" s="6">
+        <v>0</v>
+      </c>
+      <c r="P73" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>76</v>
+      </c>
+      <c r="R73" s="7">
+        <v>7.18215</v>
+      </c>
+      <c r="S73" s="6">
+        <v>407577</v>
+      </c>
+      <c r="T73" t="s">
+        <v>48</v>
+      </c>
+      <c r="U73" s="6">
+        <v>17000872</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>237</v>
+      </c>
+      <c r="B74" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" t="s">
+        <v>302</v>
+      </c>
+      <c r="E74">
+        <v>2023</v>
+      </c>
+      <c r="F74" s="6">
+        <v>14249017.970000001</v>
+      </c>
+      <c r="G74" s="6">
+        <v>2826934.72</v>
+      </c>
+      <c r="H74" s="6">
+        <v>11422083.25</v>
+      </c>
+      <c r="I74" s="6">
+        <v>172914.76</v>
+      </c>
+      <c r="J74" s="7">
+        <v>66.06</v>
+      </c>
+      <c r="K74" s="6">
+        <v>7352766.1900000004</v>
+      </c>
+      <c r="L74" s="6">
+        <v>0</v>
+      </c>
+      <c r="M74" s="6">
+        <v>1201447.27</v>
+      </c>
+      <c r="N74" s="6">
+        <v>822020.63</v>
+      </c>
+      <c r="O74" s="6">
+        <v>414136.7</v>
+      </c>
+      <c r="P74" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>76</v>
+      </c>
+      <c r="R74" s="7">
+        <v>7.1967699999999999</v>
+      </c>
+      <c r="S74" s="6">
+        <v>822020.63</v>
+      </c>
+      <c r="T74" t="s">
+        <v>234</v>
+      </c>
+      <c r="U74" s="6">
+        <v>35870294.890000001</v>
+      </c>
+      <c r="V74" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" t="s">
+        <v>270</v>
+      </c>
+      <c r="E75">
+        <v>2023</v>
+      </c>
+      <c r="F75" s="6">
+        <v>827669528</v>
+      </c>
+      <c r="G75" s="6">
+        <v>128683001</v>
+      </c>
+      <c r="H75" s="6">
+        <v>698986527</v>
+      </c>
+      <c r="I75" s="6">
+        <v>9607269.9299999997</v>
+      </c>
+      <c r="J75" s="7">
+        <v>72.760000000000005</v>
+      </c>
+      <c r="K75" s="6">
+        <v>94893529</v>
+      </c>
+      <c r="L75" s="6">
+        <v>66356221</v>
+      </c>
+      <c r="M75" s="6">
+        <v>0</v>
+      </c>
+      <c r="N75" s="6">
+        <v>0</v>
+      </c>
+      <c r="O75" s="6">
+        <v>8354744</v>
+      </c>
+      <c r="P75" s="6">
+        <v>546091521</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>161</v>
+      </c>
+      <c r="R75" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S75" s="6">
+        <v>199823297</v>
+      </c>
+      <c r="T75" t="s">
+        <v>48</v>
+      </c>
+      <c r="U75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" t="s">
+        <v>316</v>
+      </c>
+      <c r="E76">
+        <v>2023</v>
+      </c>
+      <c r="F76" s="6">
+        <v>0</v>
+      </c>
+      <c r="G76" s="6">
+        <v>0</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7">
+        <v>0</v>
+      </c>
+      <c r="K76" s="6">
+        <v>20380.05</v>
+      </c>
+      <c r="L76" s="6">
+        <v>91739.24</v>
+      </c>
+      <c r="M76" s="6">
+        <v>0</v>
+      </c>
+      <c r="N76" s="6">
+        <v>0</v>
+      </c>
+      <c r="O76" s="6">
+        <v>0</v>
+      </c>
+      <c r="P76" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>76</v>
+      </c>
+      <c r="R76" s="7">
+        <v>0</v>
+      </c>
+      <c r="S76" s="6">
+        <v>0</v>
+      </c>
+      <c r="T76" t="s">
+        <v>234</v>
+      </c>
+      <c r="U76" s="6">
+        <v>31743629.300000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" t="s">
+        <v>263</v>
+      </c>
+      <c r="D77" t="s">
+        <v>314</v>
+      </c>
+      <c r="E77">
+        <v>2023</v>
+      </c>
+      <c r="F77" s="6">
+        <v>38906669</v>
+      </c>
+      <c r="G77" s="6">
+        <v>0</v>
+      </c>
+      <c r="H77" s="6">
+        <v>38906669</v>
+      </c>
+      <c r="I77" s="6">
+        <v>758031.91</v>
+      </c>
+      <c r="J77" s="7">
+        <v>51.33</v>
+      </c>
+      <c r="K77" s="6">
+        <v>8252707</v>
+      </c>
+      <c r="L77" s="6">
+        <v>18386801</v>
+      </c>
+      <c r="M77" s="6">
+        <v>0</v>
+      </c>
+      <c r="N77" s="6">
+        <v>0</v>
+      </c>
+      <c r="O77" s="6">
+        <v>0</v>
+      </c>
+      <c r="P77" s="6">
+        <v>12267161</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>161</v>
+      </c>
+      <c r="R77" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S77" s="6">
+        <v>4488743</v>
+      </c>
+      <c r="T77" t="s">
+        <v>48</v>
+      </c>
+      <c r="U77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" t="s">
+        <v>123</v>
+      </c>
+      <c r="D78" t="s">
+        <v>199</v>
+      </c>
+      <c r="E78">
+        <v>2023</v>
+      </c>
+      <c r="F78" s="6">
+        <v>146750232.38999999</v>
+      </c>
+      <c r="G78" s="6">
+        <v>37685034.350000001</v>
+      </c>
+      <c r="H78" s="6">
+        <v>109065198.04000001</v>
+      </c>
+      <c r="I78" s="6">
+        <v>2071773.08</v>
+      </c>
+      <c r="J78" s="7">
+        <v>52.64</v>
+      </c>
+      <c r="K78" s="6">
+        <v>60575159.439999998</v>
+      </c>
+      <c r="L78" s="6">
+        <v>46116847.869999997</v>
+      </c>
+      <c r="M78" s="6">
+        <v>14327343.83</v>
+      </c>
+      <c r="N78" s="6">
+        <v>7762392.3200000003</v>
+      </c>
+      <c r="O78" s="6">
+        <v>1299036.6599999999</v>
+      </c>
+      <c r="P78" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>76</v>
+      </c>
+      <c r="R78" s="7">
+        <v>7.1172000000000004</v>
+      </c>
+      <c r="S78" s="6">
+        <v>7762392.3200000003</v>
+      </c>
+      <c r="T78" t="s">
+        <v>234</v>
+      </c>
+      <c r="U78" s="6">
+        <v>467300939.27999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" t="s">
+        <v>146</v>
+      </c>
+      <c r="D79" t="s">
+        <v>239</v>
+      </c>
+      <c r="E79">
+        <v>2023</v>
+      </c>
+      <c r="F79" s="6">
+        <v>825714535.25</v>
+      </c>
+      <c r="G79" s="6">
+        <v>364919681.02999997</v>
+      </c>
+      <c r="H79" s="6">
+        <v>460794854.22000003</v>
+      </c>
+      <c r="I79" s="6">
+        <v>8211932.8399999999</v>
+      </c>
+      <c r="J79" s="7">
+        <v>56.11</v>
+      </c>
+      <c r="K79" s="6">
+        <v>114265379.73</v>
+      </c>
+      <c r="L79" s="6">
+        <v>88166969.269999996</v>
+      </c>
+      <c r="M79" s="6">
+        <v>41230244.82</v>
+      </c>
+      <c r="N79" s="6">
+        <v>33234578.289999999</v>
+      </c>
+      <c r="O79" s="6">
+        <v>-4713.5</v>
+      </c>
+      <c r="P79" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>76</v>
+      </c>
+      <c r="R79" s="7">
+        <v>7.2124499999999996</v>
+      </c>
+      <c r="S79" s="6">
+        <v>33234578.289999999</v>
+      </c>
+      <c r="T79" t="s">
+        <v>234</v>
+      </c>
+      <c r="U79" s="6">
+        <v>1168378657.03</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" t="s">
+        <v>181</v>
+      </c>
+      <c r="E80">
+        <v>2023</v>
+      </c>
+      <c r="F80" s="6">
+        <v>67446267</v>
+      </c>
+      <c r="G80" s="6">
+        <v>3165651</v>
+      </c>
+      <c r="H80" s="6">
+        <v>64280616</v>
+      </c>
+      <c r="I80" s="6">
+        <v>1189660.6299999999</v>
+      </c>
+      <c r="J80" s="7">
+        <v>54.03</v>
+      </c>
+      <c r="K80" s="6">
+        <v>14865631</v>
+      </c>
+      <c r="L80" s="6">
+        <v>25627211</v>
+      </c>
+      <c r="M80" s="6">
+        <v>0</v>
+      </c>
+      <c r="N80" s="6">
+        <v>0</v>
+      </c>
+      <c r="O80" s="6">
+        <v>81156</v>
+      </c>
+      <c r="P80" s="6">
+        <v>23868930</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>161</v>
+      </c>
+      <c r="R80" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S80" s="6">
+        <v>8734009</v>
+      </c>
+      <c r="T80" t="s">
+        <v>48</v>
+      </c>
+      <c r="U80" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>270</v>
+      </c>
+      <c r="E81">
+        <v>2023</v>
+      </c>
+      <c r="F81" s="6">
+        <v>1101292083.4100001</v>
+      </c>
+      <c r="G81" s="6">
+        <v>470635575.80000001</v>
+      </c>
+      <c r="H81" s="6">
+        <v>630656507.61000001</v>
+      </c>
+      <c r="I81" s="6">
+        <v>10516017.85</v>
+      </c>
+      <c r="J81" s="7">
+        <v>59.97</v>
+      </c>
+      <c r="K81" s="6">
+        <v>195691462.06999999</v>
+      </c>
+      <c r="L81" s="6">
+        <v>127984428.56999999</v>
+      </c>
+      <c r="M81" s="6">
+        <v>10114212.449999999</v>
+      </c>
+      <c r="N81" s="6">
+        <v>45582105.700000003</v>
+      </c>
+      <c r="O81" s="6">
+        <v>4331028.5599999996</v>
+      </c>
+      <c r="P81" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>76</v>
+      </c>
+      <c r="R81" s="7">
+        <v>7.2277199999999997</v>
+      </c>
+      <c r="S81" s="6">
+        <v>45582105.700000003</v>
+      </c>
+      <c r="T81" t="s">
+        <v>234</v>
+      </c>
+      <c r="U81" s="6">
+        <v>114409554.04000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>306</v>
+      </c>
+      <c r="B82" t="s">
+        <v>307</v>
+      </c>
+      <c r="D82" t="s">
+        <v>317</v>
+      </c>
+      <c r="E82">
+        <v>2023</v>
+      </c>
+      <c r="F82" s="6">
+        <v>3023049.47</v>
+      </c>
+      <c r="G82" s="6">
+        <v>1502820.49</v>
+      </c>
+      <c r="H82" s="6">
+        <v>1520228.98</v>
+      </c>
+      <c r="I82" s="6">
+        <v>78520.22</v>
+      </c>
+      <c r="J82" s="7">
+        <v>19.36</v>
+      </c>
+      <c r="K82" s="6">
+        <v>0</v>
+      </c>
+      <c r="L82" s="6">
+        <v>0</v>
+      </c>
+      <c r="M82" s="6">
+        <v>22047359.309999999</v>
+      </c>
+      <c r="N82" s="6">
+        <v>106120.59</v>
+      </c>
+      <c r="O82" s="6">
+        <v>0</v>
+      </c>
+      <c r="P82" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>76</v>
+      </c>
+      <c r="R82" s="7">
+        <v>6.9805700000000002</v>
+      </c>
+      <c r="S82" s="6">
+        <v>106120.59</v>
+      </c>
+      <c r="T82" t="s">
+        <v>234</v>
+      </c>
+      <c r="U82" s="6">
+        <v>698692550.26999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>154</v>
+      </c>
+      <c r="E83">
+        <v>2023</v>
+      </c>
+      <c r="F83" s="6">
+        <v>21680220.350000001</v>
+      </c>
+      <c r="G83" s="6">
+        <v>4145573</v>
+      </c>
+      <c r="H83" s="6">
+        <v>17534647.350000001</v>
+      </c>
+      <c r="I83" s="6">
+        <v>291240.33</v>
+      </c>
+      <c r="J83" s="7">
+        <v>60.21</v>
+      </c>
+      <c r="K83" s="6">
+        <v>3070617</v>
+      </c>
+      <c r="L83" s="6">
+        <v>7849125</v>
+      </c>
+      <c r="M83" s="6">
+        <v>1986580.47</v>
+      </c>
+      <c r="N83" s="6">
+        <v>1304653.51</v>
+      </c>
+      <c r="O83" s="6">
+        <v>0</v>
+      </c>
+      <c r="P83" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>76</v>
+      </c>
+      <c r="R83" s="7">
+        <v>7.4404300000000001</v>
+      </c>
+      <c r="S83" s="6">
+        <v>1304653.51</v>
+      </c>
+      <c r="T83" t="s">
+        <v>234</v>
+      </c>
+      <c r="U83" s="6">
+        <v>60265873.869999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>181</v>
+      </c>
+      <c r="E84">
+        <v>2023</v>
+      </c>
+      <c r="F84" s="6">
+        <v>6797665.6900000004</v>
+      </c>
+      <c r="G84" s="6">
+        <v>71471.31</v>
+      </c>
+      <c r="H84" s="6">
+        <v>6726194.3799999999</v>
+      </c>
+      <c r="I84" s="6">
+        <v>131463.34</v>
+      </c>
+      <c r="J84" s="7">
+        <v>51.16</v>
+      </c>
+      <c r="K84" s="6">
+        <v>4394995.68</v>
+      </c>
+      <c r="L84" s="6">
+        <v>313659.58</v>
+      </c>
+      <c r="M84" s="6">
+        <v>2093334.46</v>
+      </c>
+      <c r="N84" s="6">
+        <v>476667.15</v>
+      </c>
+      <c r="O84" s="6">
+        <v>71774.289999999994</v>
+      </c>
+      <c r="P84" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>76</v>
+      </c>
+      <c r="R84" s="7">
+        <v>7.0867300000000002</v>
+      </c>
+      <c r="S84" s="6">
+        <v>476667.15</v>
+      </c>
+      <c r="T84" t="s">
+        <v>234</v>
+      </c>
+      <c r="U84" s="6">
+        <v>65138609.57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" t="s">
+        <v>69</v>
+      </c>
+      <c r="D85" t="s">
+        <v>270</v>
+      </c>
+      <c r="E85">
+        <v>2023</v>
+      </c>
+      <c r="F85" s="6">
+        <v>0</v>
+      </c>
+      <c r="G85" s="6">
+        <v>0</v>
+      </c>
+      <c r="H85" s="6">
+        <v>0</v>
+      </c>
+      <c r="I85" s="6">
+        <v>0</v>
+      </c>
+      <c r="J85" s="7">
+        <v>0</v>
+      </c>
+      <c r="K85" s="6">
+        <v>1094105.7</v>
+      </c>
+      <c r="L85" s="6">
+        <v>5375.45</v>
+      </c>
+      <c r="M85" s="6">
+        <v>0</v>
+      </c>
+      <c r="N85" s="6">
+        <v>0</v>
+      </c>
+      <c r="O85" s="6">
+        <v>201322.61</v>
+      </c>
+      <c r="P85" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>76</v>
+      </c>
+      <c r="R85" s="7">
+        <v>0</v>
+      </c>
+      <c r="S85" s="6">
+        <v>0</v>
+      </c>
+      <c r="T85" t="s">
+        <v>234</v>
+      </c>
+      <c r="U85" s="6">
+        <v>565000095.04999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" t="s">
+        <v>311</v>
+      </c>
+      <c r="E86">
+        <v>2023</v>
+      </c>
+      <c r="F86" s="6">
+        <v>12687398.67</v>
+      </c>
+      <c r="G86" s="6">
+        <v>0</v>
+      </c>
+      <c r="H86" s="6">
+        <v>12687398.67</v>
+      </c>
+      <c r="I86" s="6">
+        <v>220321.88</v>
+      </c>
+      <c r="J86" s="7">
+        <v>57.59</v>
+      </c>
+      <c r="K86" s="6">
+        <v>7547397.96</v>
+      </c>
+      <c r="L86" s="6">
+        <v>-600000</v>
+      </c>
+      <c r="M86" s="6">
+        <v>2735007.22</v>
+      </c>
+      <c r="N86" s="6">
+        <v>914058.91</v>
+      </c>
+      <c r="O86" s="6">
+        <v>0</v>
+      </c>
+      <c r="P86" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>76</v>
+      </c>
+      <c r="R86" s="7">
+        <v>7.2044600000000001</v>
+      </c>
+      <c r="S86" s="6">
+        <v>914058.91</v>
+      </c>
+      <c r="T86" t="s">
+        <v>234</v>
+      </c>
+      <c r="U86" s="6">
+        <v>83789569.530000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>245</v>
+      </c>
+      <c r="B87" t="s">
+        <v>257</v>
+      </c>
+      <c r="D87" t="s">
+        <v>270</v>
+      </c>
+      <c r="E87">
+        <v>2023</v>
+      </c>
+      <c r="F87" s="6">
+        <v>1249082437</v>
+      </c>
+      <c r="G87" s="6">
+        <v>526645807</v>
+      </c>
+      <c r="H87" s="6">
+        <v>722436630</v>
+      </c>
+      <c r="I87" s="6">
+        <v>12223169.34</v>
+      </c>
+      <c r="J87" s="7">
+        <v>59.1</v>
+      </c>
+      <c r="K87" s="6">
+        <v>166649221</v>
+      </c>
+      <c r="L87" s="6">
+        <v>104445161</v>
+      </c>
+      <c r="M87" s="6">
+        <v>0</v>
+      </c>
+      <c r="N87" s="6">
+        <v>0</v>
+      </c>
+      <c r="O87" s="6">
+        <v>0</v>
+      </c>
+      <c r="P87" s="6">
+        <v>451342248</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>161</v>
+      </c>
+      <c r="R87" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S87" s="6">
+        <v>165153079</v>
+      </c>
+      <c r="T87" t="s">
+        <v>48</v>
+      </c>
+      <c r="U87" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>248</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" t="s">
+        <v>270</v>
+      </c>
+      <c r="E88">
+        <v>2023</v>
+      </c>
+      <c r="F88" s="6">
+        <v>113991599</v>
+      </c>
+      <c r="G88" s="6">
+        <v>44280380</v>
+      </c>
+      <c r="H88" s="6">
+        <v>69711219</v>
+      </c>
+      <c r="I88" s="6">
+        <v>1151055.24</v>
+      </c>
+      <c r="J88" s="7">
+        <v>60.56</v>
+      </c>
+      <c r="K88" s="6">
+        <v>27296251</v>
+      </c>
+      <c r="L88" s="6">
+        <v>22009203</v>
+      </c>
+      <c r="M88" s="6">
+        <v>0</v>
+      </c>
+      <c r="N88" s="6">
+        <v>0</v>
+      </c>
+      <c r="O88" s="6">
+        <v>881280</v>
+      </c>
+      <c r="P88" s="6">
+        <v>21287045</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>161</v>
+      </c>
+      <c r="R88" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S88" s="6">
+        <v>7789258</v>
+      </c>
+      <c r="T88" t="s">
+        <v>48</v>
+      </c>
+      <c r="U88" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>227</v>
+      </c>
+      <c r="B89" t="s">
+        <v>83</v>
+      </c>
+      <c r="D89" t="s">
+        <v>270</v>
+      </c>
+      <c r="E89">
+        <v>2023</v>
+      </c>
+      <c r="F89" s="6">
+        <v>0</v>
+      </c>
+      <c r="G89" s="6">
+        <v>0</v>
+      </c>
+      <c r="H89" s="6">
+        <v>0</v>
+      </c>
+      <c r="I89" s="6">
+        <v>0</v>
+      </c>
+      <c r="J89" s="7">
+        <v>0</v>
+      </c>
+      <c r="K89" s="6">
+        <v>80420.47</v>
+      </c>
+      <c r="L89" s="6">
+        <v>5060</v>
+      </c>
+      <c r="M89" s="6">
+        <v>0</v>
+      </c>
+      <c r="N89" s="6">
+        <v>0</v>
+      </c>
+      <c r="O89" s="6">
+        <v>0</v>
+      </c>
+      <c r="P89" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>76</v>
+      </c>
+      <c r="R89" s="7">
+        <v>0</v>
+      </c>
+      <c r="S89" s="6">
+        <v>0</v>
+      </c>
+      <c r="T89" t="s">
+        <v>234</v>
+      </c>
+      <c r="U89" s="6">
+        <v>148291089.50999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>276</v>
+      </c>
+      <c r="B90" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" t="s">
+        <v>270</v>
+      </c>
+      <c r="E90">
+        <v>2023</v>
+      </c>
+      <c r="F90" s="6">
+        <v>27768409</v>
+      </c>
+      <c r="G90" s="6">
+        <v>5291806</v>
+      </c>
+      <c r="H90" s="6">
+        <v>22476603</v>
+      </c>
+      <c r="I90" s="6">
+        <v>304782.7</v>
+      </c>
+      <c r="J90" s="7">
+        <v>73.75</v>
+      </c>
+      <c r="K90" s="6">
+        <v>8481012</v>
+      </c>
+      <c r="L90" s="6">
+        <v>2048668</v>
+      </c>
+      <c r="M90" s="6">
+        <v>0</v>
+      </c>
+      <c r="N90" s="6">
+        <v>0</v>
+      </c>
+      <c r="O90" s="6">
+        <v>63593</v>
+      </c>
+      <c r="P90" s="6">
+        <v>12010516</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>161</v>
+      </c>
+      <c r="R90" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S90" s="6">
+        <v>4394833</v>
+      </c>
+      <c r="T90" t="s">
+        <v>48</v>
+      </c>
+      <c r="U90" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>209</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>104</v>
+      </c>
+      <c r="E91">
+        <v>2023</v>
+      </c>
+      <c r="F91" s="6">
+        <v>602806810.59000003</v>
+      </c>
+      <c r="G91" s="6">
+        <v>441985939.80000001</v>
+      </c>
+      <c r="H91" s="6">
+        <v>160820870.78999999</v>
+      </c>
+      <c r="I91" s="6">
+        <v>3570241.63</v>
+      </c>
+      <c r="J91" s="7">
+        <v>45.04</v>
+      </c>
+      <c r="K91" s="6">
+        <v>135040330.44</v>
+      </c>
+      <c r="L91" s="6">
+        <v>16575990.699999999</v>
+      </c>
+      <c r="M91" s="6">
+        <v>114630817.73</v>
+      </c>
+      <c r="N91" s="6">
+        <v>11405569.43</v>
+      </c>
+      <c r="O91" s="6">
+        <v>0</v>
+      </c>
+      <c r="P91" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>76</v>
+      </c>
+      <c r="R91" s="7">
+        <v>7.0921000000000003</v>
+      </c>
+      <c r="S91" s="6">
+        <v>11405569.43</v>
+      </c>
+      <c r="T91" t="s">
+        <v>234</v>
+      </c>
+      <c r="U91" s="6">
+        <v>3631505811.6700001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
+        <v>244</v>
+      </c>
+      <c r="D92" t="s">
+        <v>270</v>
+      </c>
+      <c r="E92">
+        <v>2023</v>
+      </c>
+      <c r="F92" s="6">
+        <v>1657745857</v>
+      </c>
+      <c r="G92" s="6">
+        <v>709525450</v>
+      </c>
+      <c r="H92" s="6">
+        <v>948220407</v>
+      </c>
+      <c r="I92" s="6">
+        <v>15952797.82</v>
+      </c>
+      <c r="J92" s="7">
+        <v>59.44</v>
+      </c>
+      <c r="K92" s="6">
+        <v>172681754</v>
+      </c>
+      <c r="L92" s="6">
+        <v>28610692</v>
+      </c>
+      <c r="M92" s="6">
+        <v>0</v>
+      </c>
+      <c r="N92" s="6">
+        <v>0</v>
+      </c>
+      <c r="O92" s="6">
+        <v>0</v>
+      </c>
+      <c r="P92" s="6">
+        <v>746927961</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>161</v>
+      </c>
+      <c r="R92" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S92" s="6">
+        <v>273312444</v>
+      </c>
+      <c r="T92" t="s">
+        <v>48</v>
+      </c>
+      <c r="U92" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" t="s">
+        <v>58</v>
+      </c>
+      <c r="E93">
+        <v>2023</v>
+      </c>
+      <c r="F93" s="6">
+        <v>0</v>
+      </c>
+      <c r="G93" s="6">
+        <v>0</v>
+      </c>
+      <c r="H93" s="6">
+        <v>0</v>
+      </c>
+      <c r="I93" s="6">
+        <v>0</v>
+      </c>
+      <c r="J93" s="7">
+        <v>0</v>
+      </c>
+      <c r="K93" s="6">
+        <v>0</v>
+      </c>
+      <c r="L93" s="6">
+        <v>0</v>
+      </c>
+      <c r="M93" s="6">
+        <v>0</v>
+      </c>
+      <c r="N93" s="6">
+        <v>0</v>
+      </c>
+      <c r="O93" s="6">
+        <v>0</v>
+      </c>
+      <c r="P93" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>76</v>
+      </c>
+      <c r="R93" s="7">
+        <v>0</v>
+      </c>
+      <c r="S93" s="6">
+        <v>0</v>
+      </c>
+      <c r="T93" t="s">
+        <v>234</v>
+      </c>
+      <c r="U93" s="6">
+        <v>477291400.99000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>238</v>
+      </c>
+      <c r="B94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D94" t="s">
+        <v>268</v>
+      </c>
+      <c r="E94">
+        <v>2023</v>
+      </c>
+      <c r="F94" s="6">
+        <v>4953060200.6700001</v>
+      </c>
+      <c r="G94" s="6">
+        <v>1711629675.3900001</v>
+      </c>
+      <c r="H94" s="6">
+        <v>3241430525.2800002</v>
+      </c>
+      <c r="I94" s="6">
+        <v>53696974.579999998</v>
+      </c>
+      <c r="J94" s="7">
+        <v>60.37</v>
+      </c>
+      <c r="K94" s="6">
+        <v>2405492437.4099998</v>
+      </c>
+      <c r="L94" s="6">
+        <v>664050997.30999994</v>
+      </c>
+      <c r="M94" s="6">
+        <v>773303761.23000002</v>
+      </c>
+      <c r="N94" s="6">
+        <v>238992075.66999999</v>
+      </c>
+      <c r="O94" s="6">
+        <v>15392569.779999999</v>
+      </c>
+      <c r="P94" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>76</v>
+      </c>
+      <c r="R94" s="7">
+        <v>7.3730399999999996</v>
+      </c>
+      <c r="S94" s="6">
+        <v>238992075.66999999</v>
+      </c>
+      <c r="T94" t="s">
+        <v>234</v>
+      </c>
+      <c r="U94" s="6">
+        <v>24384613507.139999</v>
+      </c>
+      <c r="V94" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" t="s">
+        <v>249</v>
+      </c>
+      <c r="D95" t="s">
+        <v>318</v>
+      </c>
+      <c r="E95">
+        <v>2023</v>
+      </c>
+      <c r="F95" s="6">
+        <v>5295089</v>
+      </c>
+      <c r="G95" s="6">
+        <v>0</v>
+      </c>
+      <c r="H95" s="6">
+        <v>5295089</v>
+      </c>
+      <c r="I95" s="6">
+        <v>78739.199999999997</v>
+      </c>
+      <c r="J95" s="7">
+        <v>67.25</v>
+      </c>
+      <c r="K95" s="6">
+        <v>3478601</v>
+      </c>
+      <c r="L95" s="6">
+        <v>0</v>
+      </c>
+      <c r="M95" s="6">
+        <v>0</v>
+      </c>
+      <c r="N95" s="6">
+        <v>0</v>
+      </c>
+      <c r="O95" s="6">
+        <v>0</v>
+      </c>
+      <c r="P95" s="6">
+        <v>1816488</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>161</v>
+      </c>
+      <c r="R95" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S95" s="6">
+        <v>664681</v>
+      </c>
+      <c r="T95" t="s">
+        <v>48</v>
+      </c>
+      <c r="U95" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" t="s">
+        <v>185</v>
+      </c>
+      <c r="D96" t="s">
+        <v>319</v>
+      </c>
+      <c r="E96">
+        <v>2023</v>
+      </c>
+      <c r="F96" s="6">
+        <v>670343670</v>
+      </c>
+      <c r="G96" s="6">
+        <v>286857296</v>
+      </c>
+      <c r="H96" s="6">
+        <v>383486374</v>
+      </c>
+      <c r="I96" s="6">
+        <v>6027839.5999999996</v>
+      </c>
+      <c r="J96" s="7">
+        <v>63.62</v>
+      </c>
+      <c r="K96" s="6">
+        <v>104135738</v>
+      </c>
+      <c r="L96" s="6">
+        <v>94024579</v>
+      </c>
+      <c r="M96" s="6">
+        <v>0</v>
+      </c>
+      <c r="N96" s="6">
+        <v>0</v>
+      </c>
+      <c r="O96" s="6">
+        <v>2459803</v>
+      </c>
+      <c r="P96" s="6">
+        <v>187785860</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>161</v>
+      </c>
+      <c r="R96" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S96" s="6">
+        <v>68713738</v>
+      </c>
+      <c r="T96" t="s">
+        <v>48</v>
+      </c>
+      <c r="U96" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>201</v>
+      </c>
+      <c r="B97" t="s">
+        <v>286</v>
+      </c>
+      <c r="D97" t="s">
+        <v>322</v>
+      </c>
+      <c r="E97">
+        <v>2023</v>
+      </c>
+      <c r="F97" s="6">
+        <v>689756826.13999999</v>
+      </c>
+      <c r="G97" s="6">
+        <v>341579831.80000001</v>
+      </c>
+      <c r="H97" s="6">
+        <v>348176994.33999997</v>
+      </c>
+      <c r="I97" s="6">
+        <v>6681261.9800000004</v>
+      </c>
+      <c r="J97" s="7">
+        <v>52.11</v>
+      </c>
+      <c r="K97" s="6">
+        <v>116470376.53</v>
+      </c>
+      <c r="L97" s="6">
+        <v>30437157.170000002</v>
+      </c>
+      <c r="M97" s="6">
+        <v>49554733.109999999</v>
+      </c>
+      <c r="N97" s="6">
+        <v>24911600.760000002</v>
+      </c>
+      <c r="O97" s="6">
+        <v>0</v>
+      </c>
+      <c r="P97" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>76</v>
+      </c>
+      <c r="R97" s="7">
+        <v>7.1548699999999998</v>
+      </c>
+      <c r="S97" s="6">
+        <v>24911600.760000002</v>
+      </c>
+      <c r="T97" t="s">
+        <v>234</v>
+      </c>
+      <c r="U97" s="6">
+        <v>1479881606.0599999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>165</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98" t="s">
+        <v>270</v>
+      </c>
+      <c r="E98">
+        <v>2023</v>
+      </c>
+      <c r="F98" s="6">
+        <v>31232559.370000001</v>
+      </c>
+      <c r="G98" s="6">
+        <v>4583662</v>
+      </c>
+      <c r="H98" s="6">
+        <v>26648897.370000001</v>
+      </c>
+      <c r="I98" s="6">
+        <v>362037.96</v>
+      </c>
+      <c r="J98" s="7">
+        <v>73.61</v>
+      </c>
+      <c r="K98" s="6">
+        <v>9658212</v>
+      </c>
+      <c r="L98" s="6">
+        <v>24733342</v>
+      </c>
+      <c r="M98" s="6">
+        <v>803646.07</v>
+      </c>
+      <c r="N98" s="6">
+        <v>1988883.06</v>
+      </c>
+      <c r="O98" s="6">
+        <v>0</v>
+      </c>
+      <c r="P98" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>76</v>
+      </c>
+      <c r="R98" s="7">
+        <v>7.4632800000000001</v>
+      </c>
+      <c r="S98" s="6">
+        <v>1988883.06</v>
+      </c>
+      <c r="T98" t="s">
+        <v>234</v>
+      </c>
+      <c r="U98" s="6">
+        <v>24282487.710000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>233</v>
+      </c>
+      <c r="B99" t="s">
+        <v>271</v>
+      </c>
+      <c r="D99" t="s">
+        <v>270</v>
+      </c>
+      <c r="E99">
+        <v>2023</v>
+      </c>
+      <c r="F99" s="6">
+        <v>106963708</v>
+      </c>
+      <c r="G99" s="6">
+        <v>37896426</v>
+      </c>
+      <c r="H99" s="6">
+        <v>69067282</v>
+      </c>
+      <c r="I99" s="6">
+        <v>1113007.3500000001</v>
+      </c>
+      <c r="J99" s="7">
+        <v>62.05</v>
+      </c>
+      <c r="K99" s="6">
+        <v>27342266</v>
+      </c>
+      <c r="L99" s="6">
+        <v>2305256</v>
+      </c>
+      <c r="M99" s="6">
+        <v>0</v>
+      </c>
+      <c r="N99" s="6">
+        <v>5147875</v>
+      </c>
+      <c r="O99" s="6">
+        <v>0</v>
+      </c>
+      <c r="P99" s="6">
+        <v>34271885</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>161</v>
+      </c>
+      <c r="R99" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S99" s="6">
+        <v>12540611</v>
+      </c>
+      <c r="T99" t="s">
+        <v>48</v>
+      </c>
+      <c r="U99" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>129</v>
+      </c>
+      <c r="D100" t="s">
+        <v>270</v>
+      </c>
+      <c r="E100">
+        <v>2023</v>
+      </c>
+      <c r="F100" s="6">
+        <v>11292550</v>
+      </c>
+      <c r="G100" s="6">
+        <v>4353257</v>
+      </c>
+      <c r="H100" s="6">
+        <v>6939293</v>
+      </c>
+      <c r="I100" s="6">
+        <v>113810.81</v>
+      </c>
+      <c r="J100" s="7">
+        <v>60.97</v>
+      </c>
+      <c r="K100" s="6">
+        <v>3010093</v>
+      </c>
+      <c r="L100" s="6">
+        <v>533863</v>
+      </c>
+      <c r="M100" s="6">
+        <v>0</v>
+      </c>
+      <c r="N100" s="6">
+        <v>0</v>
+      </c>
+      <c r="O100" s="6">
+        <v>0</v>
+      </c>
+      <c r="P100" s="6">
+        <v>3395337</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>161</v>
+      </c>
+      <c r="R100" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S100" s="6">
+        <v>1242406</v>
+      </c>
+      <c r="T100" t="s">
+        <v>48</v>
+      </c>
+      <c r="U100" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" t="s">
+        <v>154</v>
+      </c>
+      <c r="E101">
+        <v>2023</v>
+      </c>
+      <c r="F101" s="6">
+        <v>0</v>
+      </c>
+      <c r="G101" s="6">
+        <v>0</v>
+      </c>
+      <c r="H101" s="6">
+        <v>0</v>
+      </c>
+      <c r="I101" s="6">
+        <v>0</v>
+      </c>
+      <c r="J101" s="7">
+        <v>0</v>
+      </c>
+      <c r="K101" s="6">
+        <v>196667</v>
+      </c>
+      <c r="L101" s="6">
+        <v>354512</v>
+      </c>
+      <c r="M101" s="6">
+        <v>0</v>
+      </c>
+      <c r="N101" s="6">
+        <v>0</v>
+      </c>
+      <c r="O101" s="6">
+        <v>429465</v>
+      </c>
+      <c r="P101" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>76</v>
+      </c>
+      <c r="R101" s="7">
+        <v>0</v>
+      </c>
+      <c r="S101" s="6">
+        <v>0</v>
+      </c>
+      <c r="T101" t="s">
+        <v>234</v>
+      </c>
+      <c r="U101" s="6">
+        <v>128924953.09</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>235</v>
+      </c>
+      <c r="B102" t="s">
+        <v>192</v>
+      </c>
+      <c r="D102" t="s">
+        <v>239</v>
+      </c>
+      <c r="E102">
+        <v>2023</v>
+      </c>
+      <c r="F102" s="6">
+        <v>260804908.30000001</v>
+      </c>
+      <c r="G102" s="6">
+        <v>118714038.76000001</v>
+      </c>
+      <c r="H102" s="6">
+        <v>142090869.53999999</v>
+      </c>
+      <c r="I102" s="6">
+        <v>2830078.08</v>
+      </c>
+      <c r="J102" s="7">
+        <v>50.21</v>
+      </c>
+      <c r="K102" s="6">
+        <v>53279279.119999997</v>
+      </c>
+      <c r="L102" s="6">
+        <v>12170282.98</v>
+      </c>
+      <c r="M102" s="6">
+        <v>28012366.18</v>
+      </c>
+      <c r="N102" s="6">
+        <v>10300192.15</v>
+      </c>
+      <c r="O102" s="6">
+        <v>12087285.15</v>
+      </c>
+      <c r="P102" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>76</v>
+      </c>
+      <c r="R102" s="7">
+        <v>7.1580000000000004</v>
+      </c>
+      <c r="S102" s="6">
+        <v>10170867.15</v>
+      </c>
+      <c r="T102" t="s">
+        <v>234</v>
+      </c>
+      <c r="U102" s="6">
+        <v>843393263.67999995</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>145</v>
+      </c>
+      <c r="B103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D103" t="s">
+        <v>208</v>
+      </c>
+      <c r="E103">
+        <v>2023</v>
+      </c>
+      <c r="F103" s="6">
+        <v>168537771.59</v>
+      </c>
+      <c r="G103" s="6">
+        <v>14430261.789999999</v>
+      </c>
+      <c r="H103" s="6">
+        <v>154107509.80000001</v>
+      </c>
+      <c r="I103" s="6">
+        <v>2857541.62</v>
+      </c>
+      <c r="J103" s="7">
+        <v>53.93</v>
+      </c>
+      <c r="K103" s="6">
+        <v>57801149.299999997</v>
+      </c>
+      <c r="L103" s="6">
+        <v>5344325.38</v>
+      </c>
+      <c r="M103" s="6">
+        <v>29977307.16</v>
+      </c>
+      <c r="N103" s="6">
+        <v>11117284.67</v>
+      </c>
+      <c r="O103" s="6">
+        <v>0</v>
+      </c>
+      <c r="P103" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>76</v>
+      </c>
+      <c r="R103" s="7">
+        <v>7.2139800000000003</v>
+      </c>
+      <c r="S103" s="6">
+        <v>11117284.67</v>
+      </c>
+      <c r="T103" t="s">
+        <v>234</v>
+      </c>
+      <c r="U103" s="6">
+        <v>900428099.80999994</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>135</v>
+      </c>
+      <c r="B104" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" t="s">
+        <v>270</v>
+      </c>
+      <c r="E104">
+        <v>2023</v>
+      </c>
+      <c r="F104" s="6">
+        <v>0</v>
+      </c>
+      <c r="G104" s="6">
+        <v>0</v>
+      </c>
+      <c r="H104" s="6">
+        <v>0</v>
+      </c>
+      <c r="I104" s="6">
+        <v>0</v>
+      </c>
+      <c r="J104" s="7">
+        <v>0</v>
+      </c>
+      <c r="K104" s="6">
+        <v>41440.870000000003</v>
+      </c>
+      <c r="L104" s="6">
+        <v>4226.96</v>
+      </c>
+      <c r="M104" s="6">
+        <v>0</v>
+      </c>
+      <c r="N104" s="6">
+        <v>0</v>
+      </c>
+      <c r="O104" s="6">
+        <v>0</v>
+      </c>
+      <c r="P104" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>76</v>
+      </c>
+      <c r="R104" s="7">
+        <v>0</v>
+      </c>
+      <c r="S104" s="6">
+        <v>0</v>
+      </c>
+      <c r="T104" t="s">
+        <v>234</v>
+      </c>
+      <c r="U104" s="6">
+        <v>86390811.920000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" t="s">
+        <v>96</v>
+      </c>
+      <c r="D105" t="s">
+        <v>270</v>
+      </c>
+      <c r="E105">
+        <v>2023</v>
+      </c>
+      <c r="F105" s="6">
+        <v>1075031230.27</v>
+      </c>
+      <c r="G105" s="6">
+        <v>482975939.17000002</v>
+      </c>
+      <c r="H105" s="6">
+        <v>592055291.10000002</v>
+      </c>
+      <c r="I105" s="6">
+        <v>9950200.5700000003</v>
+      </c>
+      <c r="J105" s="7">
+        <v>59.5</v>
+      </c>
+      <c r="K105" s="6">
+        <v>171201346.52000001</v>
+      </c>
+      <c r="L105" s="6">
+        <v>120597814.44</v>
+      </c>
+      <c r="M105" s="6">
+        <v>5469888.9000000004</v>
+      </c>
+      <c r="N105" s="6">
+        <v>42551104.880000003</v>
+      </c>
+      <c r="O105" s="6">
+        <v>148500</v>
+      </c>
+      <c r="P105" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>76</v>
+      </c>
+      <c r="R105" s="7">
+        <v>7.1870200000000004</v>
+      </c>
+      <c r="S105" s="6">
+        <v>42551104.880000003</v>
+      </c>
+      <c r="T105" t="s">
+        <v>234</v>
+      </c>
+      <c r="U105" s="6">
+        <v>13962438.970000001</v>
+      </c>
+      <c r="V105" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" t="s">
+        <v>96</v>
+      </c>
+      <c r="D106" t="s">
+        <v>270</v>
+      </c>
+      <c r="E106">
+        <v>2023</v>
+      </c>
+      <c r="F106" s="6">
+        <v>78419635</v>
+      </c>
+      <c r="G106" s="6">
+        <v>45260649</v>
+      </c>
+      <c r="H106" s="6">
+        <v>33158986</v>
+      </c>
+      <c r="I106" s="6">
+        <v>987795.44</v>
+      </c>
+      <c r="J106" s="7">
+        <v>33.57</v>
+      </c>
+      <c r="K106" s="6">
+        <v>9173728</v>
+      </c>
+      <c r="L106" s="6">
+        <v>6929641</v>
+      </c>
+      <c r="M106" s="6">
+        <v>0</v>
+      </c>
+      <c r="N106" s="6">
+        <v>14002930</v>
+      </c>
+      <c r="O106" s="6">
+        <v>0</v>
+      </c>
+      <c r="P106" s="6">
+        <v>3052687</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>76</v>
+      </c>
+      <c r="R106" s="7">
+        <v>7.18215</v>
+      </c>
+      <c r="S106" s="6">
+        <v>2381528</v>
+      </c>
+      <c r="T106" t="s">
+        <v>48</v>
+      </c>
+      <c r="U106" s="6">
+        <v>0</v>
+      </c>
+      <c r="V106" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" t="s">
+        <v>220</v>
+      </c>
+      <c r="D107" t="s">
+        <v>208</v>
+      </c>
+      <c r="E107">
+        <v>2023</v>
+      </c>
+      <c r="F107" s="6">
+        <v>740652.01</v>
+      </c>
+      <c r="G107" s="6">
+        <v>0</v>
+      </c>
+      <c r="H107" s="6">
+        <v>740652.01</v>
+      </c>
+      <c r="I107" s="6">
+        <v>12538.12</v>
+      </c>
+      <c r="J107" s="7">
+        <v>59.07</v>
+      </c>
+      <c r="K107" s="6">
+        <v>118850</v>
+      </c>
+      <c r="L107" s="6">
+        <v>1672</v>
+      </c>
+      <c r="M107" s="6">
+        <v>7325.86</v>
+      </c>
+      <c r="N107" s="6">
+        <v>49166.55</v>
+      </c>
+      <c r="O107" s="6">
+        <v>0</v>
+      </c>
+      <c r="P107" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>76</v>
+      </c>
+      <c r="R107" s="7">
+        <v>6.63828</v>
+      </c>
+      <c r="S107" s="6">
+        <v>49166.55</v>
+      </c>
+      <c r="T107" t="s">
+        <v>234</v>
+      </c>
+      <c r="U107" s="6">
+        <v>12763.29</v>
+      </c>
+      <c r="V107" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" t="s">
+        <v>220</v>
+      </c>
+      <c r="D108" t="s">
+        <v>208</v>
+      </c>
+      <c r="E108">
+        <v>2023</v>
+      </c>
+      <c r="F108" s="6">
+        <v>380547</v>
+      </c>
+      <c r="G108" s="6">
+        <v>0</v>
+      </c>
+      <c r="H108" s="6">
+        <v>380547</v>
+      </c>
+      <c r="I108" s="6">
+        <v>5812.23</v>
+      </c>
+      <c r="J108" s="7">
+        <v>65.47</v>
+      </c>
+      <c r="K108" s="6">
+        <v>85009</v>
+      </c>
+      <c r="L108" s="6">
+        <v>0</v>
+      </c>
+      <c r="M108" s="6">
+        <v>0</v>
+      </c>
+      <c r="N108" s="6">
+        <v>12799</v>
+      </c>
+      <c r="O108" s="6">
+        <v>0</v>
+      </c>
+      <c r="P108" s="6">
+        <v>282739</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>161</v>
+      </c>
+      <c r="R108" s="7">
+        <v>36.591700000000003</v>
+      </c>
+      <c r="S108" s="6">
+        <v>103459</v>
+      </c>
+      <c r="T108" t="s">
+        <v>48</v>
+      </c>
+      <c r="U108" s="6">
+        <v>0</v>
+      </c>
+      <c r="V108" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>290</v>
+      </c>
+      <c r="B109" t="s">
+        <v>278</v>
+      </c>
+      <c r="D109" t="s">
+        <v>182</v>
+      </c>
+      <c r="E109">
+        <v>2023</v>
+      </c>
+      <c r="F109" s="6">
+        <v>16214391.76</v>
+      </c>
+      <c r="G109" s="6">
+        <v>8170175.8300000001</v>
+      </c>
+      <c r="H109" s="6">
+        <v>8046816.0099999998</v>
+      </c>
+      <c r="I109" s="6">
+        <v>351639.87</v>
+      </c>
+      <c r="J109" s="7">
+        <v>22.88</v>
+      </c>
+      <c r="K109" s="6">
+        <v>16852329.859999999</v>
+      </c>
+      <c r="L109" s="6">
+        <v>830346.7</v>
+      </c>
+      <c r="M109" s="6">
+        <v>24397632.440000001</v>
+      </c>
+      <c r="N109" s="6">
+        <v>594818.35</v>
+      </c>
+      <c r="O109" s="6">
+        <v>0</v>
+      </c>
+      <c r="P109" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>76</v>
+      </c>
+      <c r="R109" s="7">
+        <v>7.3919699999999997</v>
+      </c>
+      <c r="S109" s="6">
+        <v>594818.35</v>
+      </c>
+      <c r="T109" t="s">
+        <v>234</v>
+      </c>
+      <c r="U109" s="6">
+        <v>778146822.48000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>34</v>
+      </c>
+      <c r="B110" t="s">
+        <v>98</v>
+      </c>
+      <c r="D110" t="s">
+        <v>226</v>
+      </c>
+      <c r="E110">
+        <v>2023</v>
+      </c>
+      <c r="F110" s="6">
+        <v>0</v>
+      </c>
+      <c r="G110" s="6">
+        <v>0</v>
+      </c>
+      <c r="H110" s="6">
+        <v>0</v>
+      </c>
+      <c r="I110" s="6">
+        <v>0</v>
+      </c>
+      <c r="J110" s="7">
+        <v>0</v>
+      </c>
+      <c r="K110" s="6">
+        <v>320960</v>
+      </c>
+      <c r="L110" s="6">
+        <v>102782</v>
+      </c>
+      <c r="M110" s="6">
+        <v>0</v>
+      </c>
+      <c r="N110" s="6">
+        <v>0</v>
+      </c>
+      <c r="O110" s="6">
+        <v>0</v>
+      </c>
+      <c r="P110" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>76</v>
+      </c>
+      <c r="R110" s="7">
+        <v>0</v>
+      </c>
+      <c r="S110" s="6">
+        <v>0</v>
+      </c>
+      <c r="T110" t="s">
+        <v>234</v>
+      </c>
+      <c r="U110" s="6">
+        <v>51958369.979999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>283</v>
+      </c>
+      <c r="B111" t="s">
+        <v>251</v>
+      </c>
+      <c r="D111" t="s">
+        <v>270</v>
+      </c>
+      <c r="E111">
+        <v>2023</v>
+      </c>
+      <c r="F111" s="6">
+        <v>546261645</v>
+      </c>
+      <c r="G111" s="6">
+        <v>100229252</v>
+      </c>
+      <c r="H111" s="6">
+        <v>446032393</v>
+      </c>
+      <c r="I111" s="6">
+        <v>6083937.0700000003</v>
+      </c>
+      <c r="J111" s="7">
+        <v>73.31</v>
+      </c>
+      <c r="K111" s="6">
+        <v>92407857</v>
+      </c>
+      <c r="L111" s="6">
+        <v>75415228</v>
+      </c>
+      <c r="M111" s="6">
+        <v>0</v>
+      </c>
+      <c r="N111" s="6">
+        <v>617029</v>
+      </c>
+      <c r="O111" s="6">
+        <v>10741931</v>
+      </c>
+      <c r="P111" s="6">
+        <v>288334210</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>161</v>
+      </c>
+      <c r="R111" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S111" s="6">
+        <v>105505928</v>
+      </c>
+      <c r="T111" t="s">
+        <v>48</v>
+      </c>
+      <c r="U111" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>101</v>
+      </c>
+      <c r="B112" t="s">
+        <v>277</v>
+      </c>
+      <c r="D112" t="s">
+        <v>270</v>
+      </c>
+      <c r="E112">
+        <v>2023</v>
+      </c>
+      <c r="F112" s="6">
+        <v>7383634</v>
+      </c>
+      <c r="G112" s="6">
+        <v>1433314</v>
+      </c>
+      <c r="H112" s="6">
+        <v>5950320</v>
+      </c>
+      <c r="I112" s="6">
+        <v>81327.87</v>
+      </c>
+      <c r="J112" s="7">
+        <v>73.16</v>
+      </c>
+      <c r="K112" s="6">
+        <v>4273687</v>
+      </c>
+      <c r="L112" s="6">
+        <v>8133246</v>
+      </c>
+      <c r="M112" s="6">
+        <v>159098</v>
+      </c>
+      <c r="N112" s="6">
+        <v>6376357</v>
+      </c>
+      <c r="O112" s="6">
+        <v>43803</v>
+      </c>
+      <c r="P112" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>76</v>
+      </c>
+      <c r="R112" s="7">
+        <v>7.18215</v>
+      </c>
+      <c r="S112" s="6">
+        <v>427361</v>
+      </c>
+      <c r="T112" t="s">
+        <v>48</v>
+      </c>
+      <c r="U112" s="6">
+        <v>12948265</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>310</v>
+      </c>
+      <c r="B113" t="s">
+        <v>188</v>
+      </c>
+      <c r="D113" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113">
+        <v>2023</v>
+      </c>
+      <c r="F113" s="6">
+        <v>93948816</v>
+      </c>
+      <c r="G113" s="6">
+        <v>7634438</v>
+      </c>
+      <c r="H113" s="6">
+        <v>86314378</v>
+      </c>
+      <c r="I113" s="6">
+        <v>1569420.97</v>
+      </c>
+      <c r="J113" s="7">
+        <v>55</v>
+      </c>
+      <c r="K113" s="6">
+        <v>28875330</v>
+      </c>
+      <c r="L113" s="6">
+        <v>891151</v>
+      </c>
+      <c r="M113" s="6">
+        <v>0</v>
+      </c>
+      <c r="N113" s="6">
+        <v>0</v>
+      </c>
+      <c r="O113" s="6">
+        <v>165948</v>
+      </c>
+      <c r="P113" s="6">
+        <v>56713845</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>161</v>
+      </c>
+      <c r="R113" s="7">
+        <v>36.591540000000002</v>
+      </c>
+      <c r="S113" s="6">
+        <v>20752469</v>
+      </c>
+      <c r="T113" t="s">
+        <v>48</v>
+      </c>
+      <c r="U113" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>320</v>
+      </c>
+      <c r="B114" t="s">
+        <v>321</v>
+      </c>
+      <c r="D114" t="s">
+        <v>270</v>
+      </c>
+      <c r="E114">
+        <v>2023</v>
+      </c>
+      <c r="F114" s="6">
+        <v>0</v>
+      </c>
+      <c r="G114" s="6">
+        <v>0</v>
+      </c>
+      <c r="H114" s="6">
+        <v>0</v>
+      </c>
+      <c r="I114" s="6">
+        <v>0</v>
+      </c>
+      <c r="J114" s="7">
+        <v>0</v>
+      </c>
+      <c r="K114" s="6">
+        <v>2822362.33</v>
+      </c>
+      <c r="L114" s="6">
+        <v>10401867.98</v>
+      </c>
+      <c r="M114" s="6">
+        <v>3036060.63</v>
+      </c>
+      <c r="N114" s="6">
+        <v>0</v>
+      </c>
+      <c r="O114" s="6">
+        <v>0</v>
+      </c>
+      <c r="P114" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>76</v>
+      </c>
+      <c r="R114" s="7">
+        <v>0</v>
+      </c>
+      <c r="S114" s="6">
+        <v>0</v>
+      </c>
+      <c r="T114" t="s">
+        <v>234</v>
+      </c>
+      <c r="U114" s="6">
+        <v>102089940.68000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -49350,7 +57838,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:V117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
